--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE  HERRADURA  AGOSTO  2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE  HERRADURA  AGOSTO  2021.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -190,16 +190,52 @@
     <t xml:space="preserve">Cambio x </t>
   </si>
   <si>
-    <t xml:space="preserve"># </t>
-  </si>
-  <si>
     <t xml:space="preserve">#  </t>
   </si>
   <si>
-    <t>#  309</t>
+    <t>AGUA</t>
   </si>
   <si>
-    <t>AGUA</t>
+    <t>PAPA-RIB BYE-DELANTERO-DESCARNE</t>
+  </si>
+  <si>
+    <t>NOMINA # 33</t>
+  </si>
+  <si>
+    <t>C/15-Ago</t>
+  </si>
+  <si>
+    <t>C/14-Ago</t>
+  </si>
+  <si>
+    <t>ROASBEEF</t>
+  </si>
+  <si>
+    <t>PIERNA-JAMON</t>
+  </si>
+  <si>
+    <t>DELANTERO</t>
+  </si>
+  <si>
+    <t>JAMON--TOCINO-QUESOS</t>
+  </si>
+  <si>
+    <t>NOMINA # 34</t>
+  </si>
+  <si>
+    <t># 1243</t>
+  </si>
+  <si>
+    <t>#  1338</t>
+  </si>
+  <si>
+    <t># 1339</t>
+  </si>
+  <si>
+    <t>CABEZA-CEBOLLA</t>
+  </si>
+  <si>
+    <t>LONGANIZA-CHOTIZO</t>
   </si>
 </sst>
 </file>
@@ -214,7 +250,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +574,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9933FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1322,7 +1374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -1408,7 +1460,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1530,12 +1581,6 @@
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1652,132 +1697,6 @@
     <xf numFmtId="164" fontId="39" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="15" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1787,15 +1706,6 @@
     <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1814,6 +1724,154 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1823,6 +1881,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF9933FF"/>
       <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
@@ -2529,16 +2589,16 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="106" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="105" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
@@ -2553,24 +2613,24 @@
     <col min="17" max="17" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="198"/>
-      <c r="C1" s="207" t="s">
+    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="191"/>
+      <c r="C1" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="199"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="192"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -2579,23 +2639,23 @@
       <c r="M2" s="2"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="201"/>
+    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="194"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="202" t="s">
+      <c r="H3" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="202"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="142"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="195"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="139"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -2606,29 +2666,29 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="203" t="s">
+      <c r="E4" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="204"/>
-      <c r="H4" s="205" t="s">
+      <c r="F4" s="197"/>
+      <c r="H4" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="206"/>
+      <c r="I4" s="199"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="211" t="s">
+      <c r="M4" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="212" t="s">
+      <c r="N4" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="209" t="s">
+      <c r="P4" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="210"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q4" s="186"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
@@ -2655,23 +2715,23 @@
       <c r="J5" s="7"/>
       <c r="K5" s="29"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="143">
+      <c r="M5" s="140">
         <f>31000+500+500+500+500+353</f>
         <v>33353</v>
       </c>
       <c r="N5" s="30">
         <v>0</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="84">
         <f>N5+M5+L5+I5+C5</f>
         <v>33353</v>
       </c>
-      <c r="Q5" s="214">
+      <c r="Q5" s="169">
         <f>P5-F5</f>
         <v>-3310.1100000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
         <v>44415</v>
@@ -2696,22 +2756,22 @@
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
       <c r="L6" s="35"/>
-      <c r="M6" s="143">
+      <c r="M6" s="140">
         <v>50200</v>
       </c>
       <c r="N6" s="30">
         <v>0</v>
       </c>
-      <c r="P6" s="85">
+      <c r="P6" s="84">
         <f t="shared" ref="P6:P38" si="0">N6+M6+L6+I6+C6</f>
         <v>50200</v>
       </c>
-      <c r="Q6" s="141">
+      <c r="Q6" s="138">
         <f t="shared" ref="Q6:Q46" si="1">P6-F6</f>
         <v>1112.0299999999988</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
         <v>44416</v>
@@ -2742,14 +2802,14 @@
       <c r="L7" s="35">
         <v>4500</v>
       </c>
-      <c r="M7" s="143">
+      <c r="M7" s="140">
         <f>55000+3425</f>
         <v>58425</v>
       </c>
       <c r="N7" s="30">
         <v>369.97</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="84">
         <f t="shared" si="0"/>
         <v>64369.97</v>
       </c>
@@ -2758,7 +2818,7 @@
         <v>158.33000000000175</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="21">
         <v>44417</v>
@@ -2783,28 +2843,30 @@
       <c r="J8" s="39"/>
       <c r="K8" s="40"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="143">
+      <c r="M8" s="140">
         <f>23200+5280</f>
         <v>28480</v>
       </c>
       <c r="N8" s="30">
         <v>0</v>
       </c>
-      <c r="P8" s="85">
+      <c r="P8" s="84">
         <f t="shared" si="0"/>
         <v>30180</v>
       </c>
-      <c r="Q8" s="213">
+      <c r="Q8" s="168">
         <f t="shared" si="1"/>
         <v>-999.56000000000131</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21">
         <v>44418</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
       <c r="D9" s="38"/>
       <c r="E9" s="24">
         <v>44418</v>
@@ -2823,19 +2885,19 @@
         <v>44418</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="35">
         <v>835</v>
       </c>
-      <c r="M9" s="143">
+      <c r="M9" s="140">
         <f>40000+4432</f>
         <v>44432</v>
       </c>
       <c r="N9" s="30">
         <v>0</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="84">
         <f t="shared" si="0"/>
         <v>45587</v>
       </c>
@@ -2844,238 +2906,305 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21">
         <v>44419</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
       <c r="D10" s="36"/>
       <c r="E10" s="24">
         <v>44419</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="25">
+        <v>18690</v>
+      </c>
       <c r="G10" s="26"/>
       <c r="H10" s="32">
         <v>44419</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
       <c r="J10" s="33"/>
       <c r="K10" s="42"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="143">
-        <v>0</v>
+      <c r="M10" s="140">
+        <f>13600+4981</f>
+        <v>18581</v>
       </c>
       <c r="N10" s="30">
         <v>0</v>
       </c>
-      <c r="P10" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
+      <c r="P10" s="84">
+        <f t="shared" si="0"/>
+        <v>18581</v>
+      </c>
+      <c r="Q10" s="168">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21">
         <v>44420</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
       <c r="D11" s="31"/>
       <c r="E11" s="24">
         <v>44420</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="25">
+        <v>24097</v>
+      </c>
       <c r="G11" s="26"/>
       <c r="H11" s="32">
         <v>44420</v>
       </c>
-      <c r="I11" s="28"/>
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
       <c r="J11" s="39"/>
       <c r="K11" s="44"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="143">
-        <v>0</v>
+      <c r="M11" s="140">
+        <f>19000+3003</f>
+        <v>22003</v>
       </c>
       <c r="N11" s="30">
-        <v>0</v>
-      </c>
-      <c r="P11" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2094</v>
+      </c>
+      <c r="P11" s="84">
+        <f t="shared" si="0"/>
+        <v>24097</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="21">
         <v>44421</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="22">
+        <v>8950</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" s="24">
         <v>44421</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25">
+        <v>54191</v>
+      </c>
       <c r="G12" s="26"/>
       <c r="H12" s="32">
         <v>44421</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="28">
+        <v>0</v>
+      </c>
       <c r="J12" s="33"/>
       <c r="K12" s="45"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="143">
-        <v>0</v>
+      <c r="M12" s="140">
+        <f>38000+4301</f>
+        <v>42301</v>
       </c>
       <c r="N12" s="30">
-        <v>0</v>
-      </c>
-      <c r="P12" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2942</v>
+      </c>
+      <c r="P12" s="84">
+        <f t="shared" si="0"/>
+        <v>54193</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21">
         <v>44422</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
       <c r="D13" s="38"/>
       <c r="E13" s="24">
         <v>44422</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25">
+        <v>91236</v>
+      </c>
       <c r="G13" s="26"/>
       <c r="H13" s="32">
         <v>44422</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="143">
-        <v>0</v>
+      <c r="I13" s="28">
+        <v>1984</v>
+      </c>
+      <c r="J13" s="33">
+        <v>44422</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="35">
+        <v>10100</v>
+      </c>
+      <c r="M13" s="140">
+        <f>34500+38726</f>
+        <v>73226</v>
       </c>
       <c r="N13" s="30">
-        <v>0</v>
-      </c>
-      <c r="P13" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
+        <v>500</v>
+      </c>
+      <c r="P13" s="84">
+        <f t="shared" si="0"/>
+        <v>85810</v>
+      </c>
+      <c r="Q13" s="230">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-5426</v>
+      </c>
+      <c r="R13" s="232" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21">
         <v>44423</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
       <c r="D14" s="36"/>
       <c r="E14" s="24">
         <v>44423</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>57578</v>
+      </c>
       <c r="G14" s="26"/>
       <c r="H14" s="32">
         <v>44423</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="28">
+        <v>0</v>
+      </c>
       <c r="J14" s="33"/>
       <c r="K14" s="40"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="143">
-        <v>0</v>
+      <c r="M14" s="140">
+        <f>55426+5438</f>
+        <v>60864</v>
       </c>
       <c r="N14" s="30">
-        <v>0</v>
-      </c>
-      <c r="P14" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
+        <v>2140</v>
+      </c>
+      <c r="P14" s="84">
+        <f t="shared" si="0"/>
+        <v>63004</v>
+      </c>
+      <c r="Q14" s="231">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5426</v>
+      </c>
+      <c r="R14" s="232" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21">
         <v>44424</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="22">
+        <v>2135</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="24">
         <v>44424</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25">
+        <v>30903</v>
+      </c>
       <c r="G15" s="26"/>
       <c r="H15" s="32">
         <v>44424</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="28">
+        <v>89.5</v>
+      </c>
       <c r="J15" s="33"/>
       <c r="K15" s="40"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="143">
-        <v>0</v>
+      <c r="M15" s="140">
+        <f>20000+8678.5</f>
+        <v>28678.5</v>
       </c>
       <c r="N15" s="30">
         <v>0</v>
       </c>
-      <c r="P15" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="P15" s="84">
+        <f t="shared" si="0"/>
+        <v>30903</v>
       </c>
       <c r="Q15" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21">
         <v>44425</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="22">
+        <v>3311</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="24">
         <v>44425</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25">
+        <v>30627</v>
+      </c>
       <c r="G16" s="26"/>
       <c r="H16" s="32">
         <v>44425</v>
       </c>
-      <c r="I16" s="28"/>
+      <c r="I16" s="28">
+        <v>0</v>
+      </c>
       <c r="J16" s="33"/>
       <c r="K16" s="40"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="143">
-        <v>0</v>
+      <c r="M16" s="140">
+        <f>15000+12316</f>
+        <v>27316</v>
       </c>
       <c r="N16" s="30">
         <v>0</v>
       </c>
-      <c r="P16" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="P16" s="84">
+        <f t="shared" si="0"/>
+        <v>30627</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="1"/>
@@ -3087,29 +3216,36 @@
       <c r="B17" s="21">
         <v>44426</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
       <c r="D17" s="38"/>
       <c r="E17" s="24">
         <v>44426</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25">
+        <v>28533</v>
+      </c>
       <c r="G17" s="26"/>
       <c r="H17" s="32">
         <v>44426</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="28">
+        <v>0</v>
+      </c>
       <c r="J17" s="33"/>
       <c r="K17" s="40"/>
       <c r="L17" s="43"/>
-      <c r="M17" s="143">
-        <v>0</v>
+      <c r="M17" s="140">
+        <f>13500+14721</f>
+        <v>28221</v>
       </c>
       <c r="N17" s="30">
-        <v>0</v>
-      </c>
-      <c r="P17" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312</v>
+      </c>
+      <c r="P17" s="84">
+        <f t="shared" si="0"/>
+        <v>28533</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="1"/>
@@ -3121,29 +3257,38 @@
       <c r="B18" s="21">
         <v>44427</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="22">
+        <v>6241</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="24">
         <v>44427</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="25">
+        <v>40944</v>
+      </c>
       <c r="G18" s="26"/>
       <c r="H18" s="32">
         <v>44427</v>
       </c>
-      <c r="I18" s="28"/>
+      <c r="I18" s="28">
+        <v>26</v>
+      </c>
       <c r="J18" s="33"/>
       <c r="K18" s="47"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="143">
-        <v>0</v>
+      <c r="M18" s="140">
+        <f>16000+18258</f>
+        <v>34258</v>
       </c>
       <c r="N18" s="30">
-        <v>0</v>
-      </c>
-      <c r="P18" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>419</v>
+      </c>
+      <c r="P18" s="84">
+        <f t="shared" si="0"/>
+        <v>40944</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="1"/>
@@ -3155,29 +3300,36 @@
       <c r="B19" s="21">
         <v>44428</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
       <c r="D19" s="31"/>
       <c r="E19" s="24">
         <v>44428</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="25">
+        <v>54020</v>
+      </c>
       <c r="G19" s="26"/>
       <c r="H19" s="32">
         <v>44428</v>
       </c>
-      <c r="I19" s="28"/>
+      <c r="I19" s="28">
+        <v>10</v>
+      </c>
       <c r="J19" s="33"/>
       <c r="K19" s="48"/>
       <c r="L19" s="49"/>
-      <c r="M19" s="143">
-        <v>0</v>
+      <c r="M19" s="140">
+        <f>31000+22874</f>
+        <v>53874</v>
       </c>
       <c r="N19" s="30">
-        <v>0</v>
-      </c>
-      <c r="P19" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="P19" s="84">
+        <f t="shared" si="0"/>
+        <v>54020</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="1"/>
@@ -3189,29 +3341,44 @@
       <c r="B20" s="21">
         <v>44429</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="22">
+        <v>3574</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="E20" s="24">
         <v>44429</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="25">
+        <v>43878</v>
+      </c>
       <c r="G20" s="26"/>
       <c r="H20" s="32">
         <v>44429</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="143">
-        <v>0</v>
+      <c r="I20" s="28">
+        <v>0</v>
+      </c>
+      <c r="J20" s="33">
+        <v>44429</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="43">
+        <v>9698</v>
+      </c>
+      <c r="M20" s="140">
+        <f>12000+17976</f>
+        <v>29976</v>
       </c>
       <c r="N20" s="30">
-        <v>0</v>
-      </c>
-      <c r="P20" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>630</v>
+      </c>
+      <c r="P20" s="84">
+        <f t="shared" si="0"/>
+        <v>43878</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="1"/>
@@ -3223,29 +3390,42 @@
       <c r="B21" s="21">
         <v>44430</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="22">
+        <v>792</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="E21" s="24">
         <v>44430</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25">
+        <v>63808</v>
+      </c>
       <c r="G21" s="26"/>
       <c r="H21" s="32">
         <v>44430</v>
       </c>
-      <c r="I21" s="28"/>
+      <c r="I21" s="28">
+        <v>42</v>
+      </c>
       <c r="J21" s="33"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="143">
-        <v>0</v>
+      <c r="K21" s="234" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="43">
+        <v>3000</v>
+      </c>
+      <c r="M21" s="140">
+        <f>53000+6765</f>
+        <v>59765</v>
       </c>
       <c r="N21" s="30">
-        <v>0</v>
-      </c>
-      <c r="P21" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="P21" s="84">
+        <f t="shared" si="0"/>
+        <v>63808</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="1"/>
@@ -3257,29 +3437,38 @@
       <c r="B22" s="21">
         <v>44431</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="22">
+        <v>1275</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="E22" s="24">
         <v>44431</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="25">
+        <v>37191</v>
+      </c>
       <c r="G22" s="26"/>
       <c r="H22" s="32">
         <v>44431</v>
       </c>
-      <c r="I22" s="28"/>
+      <c r="I22" s="28">
+        <v>160</v>
+      </c>
       <c r="J22" s="33"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="143">
-        <v>0</v>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="140">
+        <f>13513+21500</f>
+        <v>35013</v>
       </c>
       <c r="N22" s="30">
-        <v>0</v>
-      </c>
-      <c r="P22" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>743</v>
+      </c>
+      <c r="P22" s="84">
+        <f t="shared" si="0"/>
+        <v>37191</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="1"/>
@@ -3291,29 +3480,36 @@
       <c r="B23" s="21">
         <v>44432</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
       <c r="D23" s="31"/>
       <c r="E23" s="24">
         <v>44432</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25">
+        <v>29827</v>
+      </c>
       <c r="G23" s="26"/>
       <c r="H23" s="32">
         <v>44432</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
+      <c r="I23" s="28">
+        <v>41</v>
+      </c>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="43"/>
-      <c r="M23" s="143">
-        <v>0</v>
+      <c r="M23" s="140">
+        <f>14000+15786</f>
+        <v>29786</v>
       </c>
       <c r="N23" s="30">
         <v>0</v>
       </c>
-      <c r="P23" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="P23" s="84">
+        <f t="shared" si="0"/>
+        <v>29827</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="1"/>
@@ -3325,7 +3521,9 @@
       <c r="B24" s="21">
         <v>44433</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
       <c r="D24" s="31"/>
       <c r="E24" s="24">
         <v>44433</v>
@@ -3335,17 +3533,19 @@
       <c r="H24" s="32">
         <v>44433</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="143">
+      <c r="I24" s="28">
+        <v>0</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="140">
         <v>0</v>
       </c>
       <c r="N24" s="30">
         <v>0</v>
       </c>
-      <c r="P24" s="85">
+      <c r="P24" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3359,7 +3559,9 @@
       <c r="B25" s="21">
         <v>44434</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
       <c r="D25" s="31"/>
       <c r="E25" s="24">
         <v>44434</v>
@@ -3369,17 +3571,19 @@
       <c r="H25" s="32">
         <v>44434</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="143">
+      <c r="I25" s="28">
+        <v>0</v>
+      </c>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="140">
         <v>0</v>
       </c>
       <c r="N25" s="30">
         <v>0</v>
       </c>
-      <c r="P25" s="85">
+      <c r="P25" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3393,7 +3597,9 @@
       <c r="B26" s="21">
         <v>44435</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
       <c r="D26" s="31"/>
       <c r="E26" s="24">
         <v>44435</v>
@@ -3403,17 +3609,19 @@
       <c r="H26" s="32">
         <v>44435</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="28">
+        <v>0</v>
+      </c>
       <c r="J26" s="33"/>
-      <c r="K26" s="57"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="143">
+      <c r="M26" s="140">
         <v>0</v>
       </c>
       <c r="N26" s="30">
         <v>0</v>
       </c>
-      <c r="P26" s="85">
+      <c r="P26" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3427,7 +3635,9 @@
       <c r="B27" s="21">
         <v>44436</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="22">
+        <v>0</v>
+      </c>
       <c r="D27" s="38"/>
       <c r="E27" s="24">
         <v>44436</v>
@@ -3437,17 +3647,19 @@
       <c r="H27" s="32">
         <v>44436</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="143">
+      <c r="I27" s="28">
+        <v>0</v>
+      </c>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="140">
         <v>0</v>
       </c>
       <c r="N27" s="30">
         <v>0</v>
       </c>
-      <c r="P27" s="85">
+      <c r="P27" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3461,7 +3673,9 @@
       <c r="B28" s="21">
         <v>44437</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
       <c r="D28" s="38"/>
       <c r="E28" s="24">
         <v>44437</v>
@@ -3471,17 +3685,19 @@
       <c r="H28" s="32">
         <v>44437</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="64"/>
+      <c r="I28" s="28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="63"/>
       <c r="K28" s="34"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="143">
+      <c r="L28" s="60"/>
+      <c r="M28" s="140">
         <v>0</v>
       </c>
       <c r="N28" s="30">
         <v>0</v>
       </c>
-      <c r="P28" s="85">
+      <c r="P28" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3495,8 +3711,10 @@
       <c r="B29" s="21">
         <v>44438</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="65"/>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+      <c r="D29" s="64"/>
       <c r="E29" s="24">
         <v>44438</v>
       </c>
@@ -3505,17 +3723,19 @@
       <c r="H29" s="32">
         <v>44438</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="143">
+      <c r="I29" s="28">
+        <v>0</v>
+      </c>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="140">
         <v>0</v>
       </c>
       <c r="N29" s="30">
         <v>0</v>
       </c>
-      <c r="P29" s="85">
+      <c r="P29" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3529,8 +3749,10 @@
       <c r="B30" s="21">
         <v>44439</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="65"/>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="64"/>
       <c r="E30" s="24">
         <v>44439</v>
       </c>
@@ -3539,17 +3761,19 @@
       <c r="H30" s="32">
         <v>44439</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="143">
+      <c r="I30" s="28">
+        <v>0</v>
+      </c>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="140">
         <v>0</v>
       </c>
       <c r="N30" s="30">
         <v>0</v>
       </c>
-      <c r="P30" s="85">
+      <c r="P30" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3562,22 +3786,24 @@
       <c r="A31" s="20"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="71"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="26"/>
       <c r="H31" s="32"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="143">
+      <c r="I31" s="28">
+        <v>0</v>
+      </c>
+      <c r="J31" s="67"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="140">
         <v>0</v>
       </c>
       <c r="N31" s="30">
         <v>0</v>
       </c>
-      <c r="P31" s="85">
+      <c r="P31" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3590,22 +3816,24 @@
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="74"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
       <c r="G32" s="26"/>
       <c r="H32" s="32"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="143">
+      <c r="I32" s="28">
+        <v>0</v>
+      </c>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="140">
         <v>0</v>
       </c>
       <c r="N32" s="30">
         <v>0</v>
       </c>
-      <c r="P32" s="85">
+      <c r="P32" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3620,7 +3848,7 @@
       <c r="C33" s="22">
         <v>0</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="24"/>
       <c r="F33" s="25">
         <v>0</v>
@@ -3630,16 +3858,16 @@
       <c r="I33" s="28">
         <v>0</v>
       </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="143">
+      <c r="J33" s="67"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="140">
         <v>0</v>
       </c>
       <c r="N33" s="30">
         <v>0</v>
       </c>
-      <c r="P33" s="85">
+      <c r="P33" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3654,7 +3882,7 @@
       <c r="C34" s="22">
         <v>0</v>
       </c>
-      <c r="D34" s="74"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="24"/>
       <c r="F34" s="25">
         <v>0</v>
@@ -3664,16 +3892,16 @@
       <c r="I34" s="28">
         <v>0</v>
       </c>
-      <c r="J34" s="68"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="143">
+      <c r="J34" s="67"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="140">
         <v>0</v>
       </c>
       <c r="N34" s="30">
         <v>0</v>
       </c>
-      <c r="P34" s="85">
+      <c r="P34" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3688,7 +3916,7 @@
       <c r="C35" s="22">
         <v>0</v>
       </c>
-      <c r="D35" s="79"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25">
         <v>0</v>
@@ -3698,16 +3926,16 @@
       <c r="I35" s="28">
         <v>0</v>
       </c>
-      <c r="J35" s="68"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="143">
+      <c r="J35" s="67"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="140">
         <v>0</v>
       </c>
       <c r="N35" s="30">
         <v>0</v>
       </c>
-      <c r="P35" s="85">
+      <c r="P35" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3722,7 +3950,7 @@
       <c r="C36" s="22">
         <v>0</v>
       </c>
-      <c r="D36" s="71"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="24"/>
       <c r="F36" s="25">
         <v>0</v>
@@ -3732,16 +3960,16 @@
       <c r="I36" s="28">
         <v>0</v>
       </c>
-      <c r="J36" s="68"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="143">
+      <c r="J36" s="67"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="140">
         <v>0</v>
       </c>
       <c r="N36" s="30">
         <v>0</v>
       </c>
-      <c r="P36" s="85">
+      <c r="P36" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3756,7 +3984,7 @@
       <c r="C37" s="22">
         <v>0</v>
       </c>
-      <c r="D37" s="74"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="24"/>
       <c r="F37" s="25">
         <v>0</v>
@@ -3766,16 +3994,16 @@
       <c r="I37" s="28">
         <v>0</v>
       </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="143">
+      <c r="J37" s="67"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="140">
         <v>0</v>
       </c>
       <c r="N37" s="30">
         <v>0</v>
       </c>
-      <c r="P37" s="85">
+      <c r="P37" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3790,7 +4018,7 @@
       <c r="C38" s="22">
         <v>0</v>
       </c>
-      <c r="D38" s="75"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="24"/>
       <c r="F38" s="25">
         <v>0</v>
@@ -3800,16 +4028,16 @@
       <c r="I38" s="28">
         <v>0</v>
       </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="143">
+      <c r="J38" s="67"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="140">
         <v>0</v>
       </c>
       <c r="N38" s="30">
         <v>0</v>
       </c>
-      <c r="P38" s="85">
+      <c r="P38" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3821,396 +4049,391 @@
     <row r="39" spans="1:17" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="71"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="24"/>
-      <c r="F39" s="82"/>
+      <c r="F39" s="81"/>
       <c r="G39" s="26"/>
       <c r="H39" s="32"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="194">
+      <c r="I39" s="82"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="187">
         <f>SUM(M5:M38)</f>
-        <v>214890</v>
-      </c>
-      <c r="N39" s="196">
+        <v>758752.5</v>
+      </c>
+      <c r="N39" s="189">
         <f>SUM(N5:N38)</f>
-        <v>369.97</v>
-      </c>
-      <c r="P39" s="85">
+        <v>10494.970000000001</v>
+      </c>
+      <c r="P39" s="84">
         <f>SUM(P5:P38)</f>
-        <v>223689.97</v>
+        <v>829105.97</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" si="1"/>
-        <v>223689.97</v>
+        <f>SUM(Q5:Q38)</f>
+        <v>-3146.3100000000013</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="71"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="24"/>
-      <c r="F40" s="82"/>
+      <c r="F40" s="81"/>
       <c r="G40" s="26"/>
       <c r="H40" s="32"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="195"/>
-      <c r="N40" s="197"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="I40" s="82"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="190"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="9"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
-      <c r="B41" s="91"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="22">
         <v>0</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="86"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="89"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="85"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="88"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="90"/>
+      <c r="M41" s="89"/>
       <c r="N41" s="30"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="9"/>
     </row>
     <row r="42" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="96">
+      <c r="C42" s="95">
         <f>SUM(C5:C41)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="98" t="s">
+        <v>26278</v>
+      </c>
+      <c r="D42" s="96"/>
+      <c r="E42" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="99">
+      <c r="F42" s="98">
         <f>SUM(F5:F41)</f>
-        <v>226729.28</v>
-      </c>
-      <c r="G42" s="97"/>
-      <c r="H42" s="100" t="s">
+        <v>832252.28</v>
+      </c>
+      <c r="G42" s="96"/>
+      <c r="H42" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="101">
+      <c r="I42" s="100">
         <f>SUM(I5:I41)</f>
-        <v>3095</v>
-      </c>
-      <c r="J42" s="102"/>
-      <c r="K42" s="103" t="s">
+        <v>5447.5</v>
+      </c>
+      <c r="J42" s="101"/>
+      <c r="K42" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="104">
+      <c r="L42" s="103">
         <f>SUM(L5:L41)</f>
-        <v>5335</v>
-      </c>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="9">
-        <f t="shared" si="1"/>
-        <v>-226729.28</v>
-      </c>
+        <v>28133</v>
+      </c>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
+      <c r="A44" s="106"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="3"/>
-      <c r="H44" s="184" t="s">
+      <c r="H44" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="185"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="186">
+      <c r="I44" s="203"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="204">
         <f>I42+L42</f>
-        <v>8430</v>
-      </c>
-      <c r="L44" s="187"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="111"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>33580.5</v>
+      </c>
+      <c r="L44" s="205"/>
+      <c r="M44" s="235">
+        <f>N39+M39</f>
+        <v>769247.47</v>
+      </c>
+      <c r="N44" s="236"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D45" s="188" t="s">
+      <c r="D45" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="188"/>
-      <c r="F45" s="112">
+      <c r="E45" s="206"/>
+      <c r="F45" s="109">
         <f>F42-K44-C42</f>
-        <v>218299.28</v>
-      </c>
-      <c r="I45" s="113"/>
-      <c r="J45" s="114"/>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="9">
-        <f t="shared" si="1"/>
-        <v>-218299.28</v>
-      </c>
+        <v>772393.78</v>
+      </c>
+      <c r="I45" s="110"/>
+      <c r="J45" s="111"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D46" s="189" t="s">
+      <c r="D46" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="189"/>
-      <c r="F46" s="105">
-        <v>0</v>
-      </c>
-      <c r="I46" s="190" t="s">
+      <c r="E46" s="207"/>
+      <c r="F46" s="104">
+        <v>0</v>
+      </c>
+      <c r="I46" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="191"/>
-      <c r="K46" s="192">
+      <c r="J46" s="209"/>
+      <c r="K46" s="210">
         <f>F48+F49+F50</f>
-        <v>218299.28</v>
-      </c>
-      <c r="L46" s="193"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>772393.78</v>
+      </c>
+      <c r="L46" s="211"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="9"/>
     </row>
     <row r="47" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="115"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="116">
-        <v>0</v>
-      </c>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="120"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="113">
+        <v>0</v>
+      </c>
+      <c r="I47" s="114"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="117"/>
     </row>
     <row r="48" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C48" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="107" t="s">
+      <c r="E48" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="105">
+      <c r="F48" s="104">
         <f>SUM(F45:F47)</f>
-        <v>218299.28</v>
+        <v>772393.78</v>
       </c>
       <c r="H48" s="20"/>
-      <c r="I48" s="121" t="s">
+      <c r="I48" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="122"/>
-      <c r="K48" s="169">
-        <v>0</v>
-      </c>
-      <c r="L48" s="170"/>
+      <c r="J48" s="119"/>
+      <c r="K48" s="212">
+        <v>0</v>
+      </c>
+      <c r="L48" s="213"/>
     </row>
     <row r="49" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="123" t="s">
+      <c r="D49" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="107" t="s">
+      <c r="E49" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="124">
+      <c r="F49" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="125"/>
-      <c r="D50" s="171" t="s">
+      <c r="C50" s="122"/>
+      <c r="D50" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="172"/>
-      <c r="F50" s="126">
-        <v>0</v>
-      </c>
-      <c r="I50" s="173" t="s">
+      <c r="E50" s="215"/>
+      <c r="F50" s="123">
+        <v>0</v>
+      </c>
+      <c r="I50" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="174"/>
-      <c r="K50" s="175">
+      <c r="J50" s="217"/>
+      <c r="K50" s="218">
         <f>K46+K48</f>
-        <v>218299.28</v>
-      </c>
-      <c r="L50" s="175"/>
+        <v>772393.78</v>
+      </c>
+      <c r="L50" s="218"/>
     </row>
     <row r="51" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="127"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="130"/>
-      <c r="J51" s="131"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="127"/>
+      <c r="J51" s="128"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I52" s="176" t="s">
+      <c r="I52" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="177"/>
-      <c r="K52" s="180">
-        <v>0</v>
-      </c>
-      <c r="L52" s="181"/>
+      <c r="J52" s="220"/>
+      <c r="K52" s="223">
+        <v>0</v>
+      </c>
+      <c r="L52" s="224"/>
     </row>
     <row r="53" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="132"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="85"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="179"/>
-      <c r="K53" s="182"/>
-      <c r="L53" s="183"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="84"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="222"/>
+      <c r="K53" s="225"/>
+      <c r="L53" s="226"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="107"/>
+      <c r="N53" s="106"/>
     </row>
     <row r="54" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="132"/>
-      <c r="C54" s="135"/>
-      <c r="E54" s="85"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="132"/>
+      <c r="E54" s="84"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="107"/>
+      <c r="N54" s="106"/>
     </row>
     <row r="55" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="132"/>
-      <c r="C55" s="135"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="136"/>
-      <c r="L55" s="137"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="132"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="133"/>
+      <c r="L55" s="134"/>
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="132"/>
-      <c r="C56" s="135"/>
-      <c r="E56" s="85"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="132"/>
+      <c r="E56" s="84"/>
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="132"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="139"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="136"/>
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D58" s="138"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="85"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="84"/>
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D59" s="138"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="85"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="84"/>
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D60" s="138"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="85"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="84"/>
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D61" s="138"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="85"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="84"/>
       <c r="M61" s="3"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D62" s="138"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="85"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="84"/>
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D63" s="138"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="85"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="84"/>
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D64" s="138"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="85"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="84"/>
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D65" s="138"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="85"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="84"/>
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D66" s="138"/>
-      <c r="E66" s="140"/>
-      <c r="F66" s="85"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="84"/>
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="138"/>
-      <c r="E67" s="140"/>
-      <c r="F67" s="85"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="84"/>
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="138"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="85"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="137"/>
+      <c r="F68" s="84"/>
       <c r="M68" s="3"/>
     </row>
     <row r="69" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D69" s="138"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="85"/>
+      <c r="D69" s="135"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="84"/>
     </row>
     <row r="70" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="138"/>
-      <c r="E70" s="138"/>
-      <c r="F70" s="139"/>
+      <c r="D70" s="135"/>
+      <c r="E70" s="135"/>
+      <c r="F70" s="136"/>
     </row>
     <row r="71" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D71" s="138"/>
-      <c r="E71" s="138"/>
-      <c r="F71" s="139"/>
+      <c r="D71" s="135"/>
+      <c r="E71" s="135"/>
+      <c r="F71" s="136"/>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="138"/>
-      <c r="E72" s="138"/>
-      <c r="F72" s="139"/>
+      <c r="D72" s="135"/>
+      <c r="E72" s="135"/>
+      <c r="F72" s="136"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
@@ -4220,18 +4443,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C1:M1"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="K52:L53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4253,7 +4464,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="106" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -4262,1115 +4473,1115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="165" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="145" t="s">
+      <c r="E2" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="142" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="148"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="149">
+      <c r="F3" s="146">
         <f>C3-E3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="146"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="151">
+      <c r="A4" s="143"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="148">
         <f>F3+C4-E4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="152"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="150"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="151">
+      <c r="A5" s="147"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="148">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="151">
+      <c r="A6" s="147"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="150"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="151">
+      <c r="A7" s="147"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="150"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="151">
+      <c r="A8" s="147"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="151">
+      <c r="A9" s="147"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="150"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="151">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="152"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="148">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="149"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="151">
+      <c r="A11" s="143"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="151">
+      <c r="A12" s="147"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="150"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="151">
+      <c r="A13" s="147"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="150"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="151">
+      <c r="A14" s="147"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="151">
+      <c r="A15" s="147"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="151">
+      <c r="A16" s="147"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="151">
+      <c r="A17" s="147"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="151">
+      <c r="A18" s="147"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="151">
+      <c r="A19" s="147"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="151">
+      <c r="A20" s="147"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="151">
+      <c r="A21" s="147"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="150"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="151">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="152"/>
+      <c r="A22" s="147"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="148">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="149"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="151">
+      <c r="A23" s="147"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="151">
+      <c r="A24" s="147"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="151">
+      <c r="A25" s="147"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="151">
+      <c r="A26" s="147"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="151">
+      <c r="A27" s="147"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="150"/>
-      <c r="B28" s="147"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="151">
+      <c r="A28" s="147"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="150"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="151">
+      <c r="A29" s="147"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="150"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="151">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="152"/>
+      <c r="A30" s="147"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="148">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="149"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="150"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="151">
+      <c r="A31" s="147"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="150"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="151">
+      <c r="A32" s="147"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="151">
+      <c r="A33" s="147"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="150"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="151">
+      <c r="A34" s="147"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="150"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="151">
+      <c r="A35" s="147"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="150"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="151">
+      <c r="A36" s="147"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="150"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="151">
+      <c r="A37" s="147"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="150"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="151">
+      <c r="A38" s="147"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="150"/>
-      <c r="B39" s="147"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="151">
+      <c r="A39" s="147"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="150"/>
-      <c r="B40" s="147"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="151">
+      <c r="A40" s="147"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="150"/>
-      <c r="B41" s="147"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="151">
+      <c r="A41" s="147"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="150"/>
-      <c r="B42" s="147"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="151">
+      <c r="A42" s="147"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="150"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="151">
+      <c r="A43" s="147"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="150"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="151">
+      <c r="A44" s="147"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="150"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="151">
+      <c r="A45" s="147"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="150"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="151">
+      <c r="A46" s="147"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="150"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="151">
+      <c r="A47" s="147"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="150"/>
-      <c r="B48" s="147"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="151">
+      <c r="A48" s="147"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="150"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="151">
+      <c r="A49" s="147"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="150"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="150"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="151">
+      <c r="A50" s="147"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="150"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="151">
+      <c r="A51" s="147"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="150"/>
-      <c r="B52" s="147"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="150"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="151">
+      <c r="A52" s="147"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="150"/>
-      <c r="B53" s="147"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="151">
+      <c r="A53" s="147"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="146"/>
-      <c r="B54" s="147"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="150"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="151">
+      <c r="A54" s="143"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="146"/>
-      <c r="B55" s="147"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="150"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="151">
+      <c r="A55" s="143"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="146"/>
-      <c r="B56" s="147"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="151">
+      <c r="A56" s="143"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="150"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="150"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="151">
+      <c r="A57" s="147"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="150"/>
-      <c r="B58" s="147"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="150"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="151">
+      <c r="A58" s="147"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="150"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="150"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="151">
+      <c r="A59" s="147"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="146"/>
-      <c r="B60" s="147"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="150"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="151">
+      <c r="A60" s="143"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="146"/>
-      <c r="B61" s="147"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="150"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="151">
+      <c r="A61" s="143"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="146"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="150"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="151">
+      <c r="A62" s="143"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="146"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="150"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="151">
+      <c r="A63" s="143"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="146"/>
-      <c r="B64" s="147"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="150"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="151">
+      <c r="A64" s="143"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="146"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="150"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="151">
+      <c r="A65" s="143"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="146"/>
-      <c r="B66" s="147"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="150"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="151">
+      <c r="A66" s="143"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="146"/>
-      <c r="B67" s="147"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="150"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="151">
+      <c r="A67" s="143"/>
+      <c r="B67" s="144"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="147"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="146"/>
-      <c r="B68" s="147"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="150"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="151">
+      <c r="A68" s="143"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="146"/>
-      <c r="B69" s="147"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="150"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="151">
+      <c r="A69" s="143"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="148">
         <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="146"/>
-      <c r="B70" s="147"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="150"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="151">
+      <c r="A70" s="143"/>
+      <c r="B70" s="144"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="146"/>
-      <c r="B71" s="147"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="150"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="151">
+      <c r="A71" s="143"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="146"/>
-      <c r="B72" s="147"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="150"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="151">
+      <c r="A72" s="143"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="146"/>
-      <c r="B73" s="147"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="150"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="151">
+      <c r="A73" s="143"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="146"/>
-      <c r="B74" s="147"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="150"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="151">
+      <c r="A74" s="143"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="146"/>
-      <c r="B75" s="147"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="150"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="151">
+      <c r="A75" s="143"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="147"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="146"/>
-      <c r="B76" s="147"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="150"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="151">
+      <c r="A76" s="143"/>
+      <c r="B76" s="144"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="146"/>
-      <c r="B77" s="147"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="150"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="151">
+      <c r="A77" s="143"/>
+      <c r="B77" s="144"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="147"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="146"/>
-      <c r="B78" s="147"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="150"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="151">
+      <c r="A78" s="143"/>
+      <c r="B78" s="144"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="147"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="146"/>
-      <c r="B79" s="147"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="150"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="151">
+      <c r="A79" s="143"/>
+      <c r="B79" s="144"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="147"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="146"/>
-      <c r="B80" s="147"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="150"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="151">
+      <c r="A80" s="143"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="147"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="153"/>
-      <c r="B81" s="154"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="155"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="151">
+      <c r="A81" s="150"/>
+      <c r="B81" s="151"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="152"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="153"/>
-      <c r="B82" s="154"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="155"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="151">
+      <c r="A82" s="150"/>
+      <c r="B82" s="151"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="152"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="153"/>
-      <c r="B83" s="154"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="155"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="151">
+      <c r="A83" s="150"/>
+      <c r="B83" s="151"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="152"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="153"/>
-      <c r="B84" s="154"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="155"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="151">
+      <c r="A84" s="150"/>
+      <c r="B84" s="151"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="152"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="153"/>
-      <c r="B85" s="154"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="155"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="151">
+      <c r="A85" s="150"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="152"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="153"/>
-      <c r="B86" s="154"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="155"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="151">
+      <c r="A86" s="150"/>
+      <c r="B86" s="151"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="152"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="156"/>
-      <c r="B87" s="157"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="158"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="151">
+      <c r="A87" s="153"/>
+      <c r="B87" s="154"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="155"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="156"/>
-      <c r="B88" s="157"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="158"/>
-      <c r="E88" s="81"/>
-      <c r="F88" s="151">
+      <c r="A88" s="153"/>
+      <c r="B88" s="154"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="155"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="156"/>
-      <c r="B89" s="157"/>
-      <c r="C89" s="81"/>
-      <c r="D89" s="158"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="151">
+      <c r="A89" s="153"/>
+      <c r="B89" s="154"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="155"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="156"/>
-      <c r="B90" s="157"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="158"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="151">
+      <c r="A90" s="153"/>
+      <c r="B90" s="154"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="155"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="156"/>
-      <c r="B91" s="157"/>
-      <c r="C91" s="81"/>
-      <c r="D91" s="158"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="151">
+      <c r="A91" s="153"/>
+      <c r="B91" s="154"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="156"/>
-      <c r="B92" s="157"/>
-      <c r="C92" s="81"/>
-      <c r="D92" s="158"/>
-      <c r="E92" s="81"/>
-      <c r="F92" s="151">
+      <c r="A92" s="153"/>
+      <c r="B92" s="154"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="155"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="156"/>
-      <c r="B93" s="157"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="158"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="151">
+      <c r="A93" s="153"/>
+      <c r="B93" s="154"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="155"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="156"/>
-      <c r="B94" s="157"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="158"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="151">
+      <c r="A94" s="153"/>
+      <c r="B94" s="154"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="155"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="156"/>
-      <c r="B95" s="157"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="158"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="151">
+      <c r="A95" s="153"/>
+      <c r="B95" s="154"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="155"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="156"/>
-      <c r="B96" s="157"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="158"/>
-      <c r="E96" s="81"/>
-      <c r="F96" s="151">
+      <c r="A96" s="153"/>
+      <c r="B96" s="154"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="155"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="159"/>
-      <c r="B97" s="160"/>
-      <c r="C97" s="161">
-        <v>0</v>
-      </c>
-      <c r="D97" s="162"/>
-      <c r="E97" s="161"/>
-      <c r="F97" s="151">
+      <c r="A97" s="156"/>
+      <c r="B97" s="157"/>
+      <c r="C97" s="158">
+        <v>0</v>
+      </c>
+      <c r="D97" s="159"/>
+      <c r="E97" s="158"/>
+      <c r="F97" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="107"/>
+      <c r="B98" s="106"/>
       <c r="C98" s="3">
         <f>SUM(C3:C97)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="106"/>
+      <c r="D98" s="105"/>
       <c r="E98" s="3">
         <f>SUM(E3:E97)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="163">
+      <c r="F98" s="160">
         <f>F97</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="107"/>
+      <c r="B99" s="106"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="106"/>
+      <c r="D99" s="105"/>
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="107"/>
+      <c r="B100" s="106"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="106"/>
+      <c r="D100" s="105"/>
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
@@ -5550,7 +5761,7 @@
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C134" s="164"/>
+      <c r="C134" s="161"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5587,182 +5798,183 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A37:F46"/>
+  <dimension ref="A41:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C33:C34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="215"/>
-      <c r="B38" s="216" t="s">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="170"/>
+      <c r="B42" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="227">
-        <v>44416</v>
-      </c>
-      <c r="B39" s="228" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="229">
-        <v>216.03</v>
-      </c>
-      <c r="D39" s="230" t="s">
+      <c r="C42" s="228"/>
+      <c r="D42" s="228"/>
+      <c r="E42" s="229"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="179">
+        <v>44430</v>
+      </c>
+      <c r="B43" s="180" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="181">
+        <v>201</v>
+      </c>
+      <c r="D43" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="231" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="227"/>
-      <c r="B40" s="228" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="229">
-        <v>0</v>
-      </c>
-      <c r="D40" s="232" t="s">
+      <c r="E43" s="233" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="179">
+        <v>44430</v>
+      </c>
+      <c r="B44" s="180" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="181">
+        <v>678.08</v>
+      </c>
+      <c r="D44" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="231" t="s">
+      <c r="E44" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="109">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="179"/>
+      <c r="B45" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="227"/>
-      <c r="B41" s="228" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="229">
-        <v>0</v>
-      </c>
-      <c r="D41" s="232" t="s">
+      <c r="C45" s="181">
+        <v>0</v>
+      </c>
+      <c r="D45" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="231" t="s">
+      <c r="E45" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="227"/>
-      <c r="B42" s="228" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="229">
-        <v>0</v>
-      </c>
-      <c r="D42" s="232" t="s">
+      <c r="F45" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="179"/>
+      <c r="B46" s="180" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="181">
+        <v>0</v>
+      </c>
+      <c r="D46" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="231" t="s">
+      <c r="E46" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="219"/>
-      <c r="B43" s="220" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="221">
-        <v>0</v>
-      </c>
-      <c r="D43" s="224" t="s">
+      <c r="F46" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="171"/>
+      <c r="B47" s="172" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="173">
+        <v>0</v>
+      </c>
+      <c r="D47" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="222" t="s">
+      <c r="E47" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="219"/>
-      <c r="B44" s="220" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="221">
-        <v>0</v>
-      </c>
-      <c r="D44" s="224" t="s">
+      <c r="F47" s="175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="171"/>
+      <c r="B48" s="172" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="173">
+        <v>0</v>
+      </c>
+      <c r="D48" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="222" t="s">
+      <c r="E48" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="219"/>
-      <c r="B45" s="220" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="221">
-        <v>0</v>
-      </c>
-      <c r="D45" s="224" t="s">
+      <c r="F48" s="175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="171"/>
+      <c r="B49" s="172" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="173">
+        <v>0</v>
+      </c>
+      <c r="D49" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="222" t="s">
+      <c r="E49" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="225"/>
-      <c r="B46" s="220" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="221">
-        <v>0</v>
-      </c>
-      <c r="D46" s="226" t="s">
+      <c r="F49" s="175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="177"/>
+      <c r="B50" s="172" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="173">
+        <v>0</v>
+      </c>
+      <c r="D50" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="222" t="s">
+      <c r="E50" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="223">
+      <c r="F50" s="175">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE  HERRADURA  AGOSTO  2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE  HERRADURA  AGOSTO  2021.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>LONGANIZA-CHOTIZO</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,6 +640,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="59">
     <border>
@@ -1519,9 +1531,6 @@
     <xf numFmtId="166" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1724,141 +1733,6 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1866,11 +1740,149 @@
     <xf numFmtId="16" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2591,14 +2603,14 @@
   </sheetPr>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="105" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="104" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
@@ -2614,23 +2626,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="191"/>
-      <c r="C1" s="200" t="s">
+      <c r="B1" s="196"/>
+      <c r="C1" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="192"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -2640,20 +2652,20 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="194"/>
+      <c r="B3" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="199"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="195" t="s">
+      <c r="H3" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="195"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="139"/>
+      <c r="I3" s="200"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
@@ -2666,27 +2678,27 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="196" t="s">
+      <c r="E4" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="197"/>
-      <c r="H4" s="198" t="s">
+      <c r="F4" s="202"/>
+      <c r="H4" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="199"/>
+      <c r="I4" s="204"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="166" t="s">
+      <c r="M4" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="167" t="s">
+      <c r="N4" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="185" t="s">
+      <c r="P4" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="186"/>
+      <c r="Q4" s="191"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -2715,18 +2727,18 @@
       <c r="J5" s="7"/>
       <c r="K5" s="29"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="140">
+      <c r="M5" s="139">
         <f>31000+500+500+500+500+353</f>
         <v>33353</v>
       </c>
       <c r="N5" s="30">
         <v>0</v>
       </c>
-      <c r="P5" s="84">
+      <c r="P5" s="83">
         <f>N5+M5+L5+I5+C5</f>
         <v>33353</v>
       </c>
-      <c r="Q5" s="169">
+      <c r="Q5" s="168">
         <f>P5-F5</f>
         <v>-3310.1100000000006</v>
       </c>
@@ -2756,18 +2768,18 @@
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
       <c r="L6" s="35"/>
-      <c r="M6" s="140">
+      <c r="M6" s="139">
         <v>50200</v>
       </c>
       <c r="N6" s="30">
         <v>0</v>
       </c>
-      <c r="P6" s="84">
+      <c r="P6" s="83">
         <f t="shared" ref="P6:P38" si="0">N6+M6+L6+I6+C6</f>
         <v>50200</v>
       </c>
-      <c r="Q6" s="138">
-        <f t="shared" ref="Q6:Q46" si="1">P6-F6</f>
+      <c r="Q6" s="137">
+        <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
         <v>1112.0299999999988</v>
       </c>
     </row>
@@ -2802,14 +2814,14 @@
       <c r="L7" s="35">
         <v>4500</v>
       </c>
-      <c r="M7" s="140">
+      <c r="M7" s="139">
         <f>55000+3425</f>
         <v>58425</v>
       </c>
       <c r="N7" s="30">
         <v>369.97</v>
       </c>
-      <c r="P7" s="84">
+      <c r="P7" s="83">
         <f t="shared" si="0"/>
         <v>64369.97</v>
       </c>
@@ -2843,18 +2855,18 @@
       <c r="J8" s="39"/>
       <c r="K8" s="40"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="140">
+      <c r="M8" s="139">
         <f>23200+5280</f>
         <v>28480</v>
       </c>
       <c r="N8" s="30">
         <v>0</v>
       </c>
-      <c r="P8" s="84">
+      <c r="P8" s="83">
         <f t="shared" si="0"/>
         <v>30180</v>
       </c>
-      <c r="Q8" s="168">
+      <c r="Q8" s="167">
         <f t="shared" si="1"/>
         <v>-999.56000000000131</v>
       </c>
@@ -2890,14 +2902,14 @@
       <c r="L9" s="35">
         <v>835</v>
       </c>
-      <c r="M9" s="140">
+      <c r="M9" s="139">
         <f>40000+4432</f>
         <v>44432</v>
       </c>
       <c r="N9" s="30">
         <v>0</v>
       </c>
-      <c r="P9" s="84">
+      <c r="P9" s="83">
         <f t="shared" si="0"/>
         <v>45587</v>
       </c>
@@ -2931,18 +2943,18 @@
       <c r="J10" s="33"/>
       <c r="K10" s="42"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="140">
+      <c r="M10" s="139">
         <f>13600+4981</f>
         <v>18581</v>
       </c>
       <c r="N10" s="30">
         <v>0</v>
       </c>
-      <c r="P10" s="84">
+      <c r="P10" s="83">
         <f t="shared" si="0"/>
         <v>18581</v>
       </c>
-      <c r="Q10" s="168">
+      <c r="Q10" s="167">
         <f t="shared" si="1"/>
         <v>-109</v>
       </c>
@@ -2972,14 +2984,14 @@
       <c r="J11" s="39"/>
       <c r="K11" s="44"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="140">
+      <c r="M11" s="139">
         <f>19000+3003</f>
         <v>22003</v>
       </c>
       <c r="N11" s="30">
         <v>2094</v>
       </c>
-      <c r="P11" s="84">
+      <c r="P11" s="83">
         <f t="shared" si="0"/>
         <v>24097</v>
       </c>
@@ -3015,14 +3027,14 @@
       <c r="J12" s="33"/>
       <c r="K12" s="45"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="140">
+      <c r="M12" s="139">
         <f>38000+4301</f>
         <v>42301</v>
       </c>
       <c r="N12" s="30">
         <v>2942</v>
       </c>
-      <c r="P12" s="84">
+      <c r="P12" s="83">
         <f t="shared" si="0"/>
         <v>54193</v>
       </c>
@@ -3062,22 +3074,22 @@
       <c r="L13" s="35">
         <v>10100</v>
       </c>
-      <c r="M13" s="140">
+      <c r="M13" s="139">
         <f>34500+38726</f>
         <v>73226</v>
       </c>
       <c r="N13" s="30">
         <v>500</v>
       </c>
-      <c r="P13" s="84">
+      <c r="P13" s="83">
         <f t="shared" si="0"/>
         <v>85810</v>
       </c>
-      <c r="Q13" s="230">
+      <c r="Q13" s="184">
         <f t="shared" si="1"/>
         <v>-5426</v>
       </c>
-      <c r="R13" s="232" t="s">
+      <c r="R13" s="186" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3106,22 +3118,22 @@
       <c r="J14" s="33"/>
       <c r="K14" s="40"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="140">
+      <c r="M14" s="139">
         <f>55426+5438</f>
         <v>60864</v>
       </c>
       <c r="N14" s="30">
         <v>2140</v>
       </c>
-      <c r="P14" s="84">
+      <c r="P14" s="83">
         <f t="shared" si="0"/>
         <v>63004</v>
       </c>
-      <c r="Q14" s="231">
+      <c r="Q14" s="185">
         <f t="shared" si="1"/>
         <v>5426</v>
       </c>
-      <c r="R14" s="232" t="s">
+      <c r="R14" s="186" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3152,14 +3164,14 @@
       <c r="J15" s="33"/>
       <c r="K15" s="40"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="140">
+      <c r="M15" s="139">
         <f>20000+8678.5</f>
         <v>28678.5</v>
       </c>
       <c r="N15" s="30">
         <v>0</v>
       </c>
-      <c r="P15" s="84">
+      <c r="P15" s="83">
         <f t="shared" si="0"/>
         <v>30903</v>
       </c>
@@ -3195,14 +3207,14 @@
       <c r="J16" s="33"/>
       <c r="K16" s="40"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="140">
+      <c r="M16" s="139">
         <f>15000+12316</f>
         <v>27316</v>
       </c>
       <c r="N16" s="30">
         <v>0</v>
       </c>
-      <c r="P16" s="84">
+      <c r="P16" s="83">
         <f t="shared" si="0"/>
         <v>30627</v>
       </c>
@@ -3236,14 +3248,14 @@
       <c r="J17" s="33"/>
       <c r="K17" s="40"/>
       <c r="L17" s="43"/>
-      <c r="M17" s="140">
+      <c r="M17" s="139">
         <f>13500+14721</f>
         <v>28221</v>
       </c>
       <c r="N17" s="30">
         <v>312</v>
       </c>
-      <c r="P17" s="84">
+      <c r="P17" s="83">
         <f t="shared" si="0"/>
         <v>28533</v>
       </c>
@@ -3279,14 +3291,14 @@
       <c r="J18" s="33"/>
       <c r="K18" s="47"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="140">
+      <c r="M18" s="139">
         <f>16000+18258</f>
         <v>34258</v>
       </c>
       <c r="N18" s="30">
         <v>419</v>
       </c>
-      <c r="P18" s="84">
+      <c r="P18" s="83">
         <f t="shared" si="0"/>
         <v>40944</v>
       </c>
@@ -3320,14 +3332,14 @@
       <c r="J19" s="33"/>
       <c r="K19" s="48"/>
       <c r="L19" s="49"/>
-      <c r="M19" s="140">
+      <c r="M19" s="139">
         <f>31000+22874</f>
         <v>53874</v>
       </c>
       <c r="N19" s="30">
         <v>136</v>
       </c>
-      <c r="P19" s="84">
+      <c r="P19" s="83">
         <f t="shared" si="0"/>
         <v>54020</v>
       </c>
@@ -3369,14 +3381,14 @@
       <c r="L20" s="43">
         <v>9698</v>
       </c>
-      <c r="M20" s="140">
+      <c r="M20" s="139">
         <f>12000+17976</f>
         <v>29976</v>
       </c>
       <c r="N20" s="30">
         <v>630</v>
       </c>
-      <c r="P20" s="84">
+      <c r="P20" s="83">
         <f t="shared" si="0"/>
         <v>43878</v>
       </c>
@@ -3410,20 +3422,20 @@
         <v>42</v>
       </c>
       <c r="J21" s="33"/>
-      <c r="K21" s="234" t="s">
+      <c r="K21" s="188" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="43">
         <v>3000</v>
       </c>
-      <c r="M21" s="140">
+      <c r="M21" s="139">
         <f>53000+6765</f>
         <v>59765</v>
       </c>
       <c r="N21" s="30">
         <v>209</v>
       </c>
-      <c r="P21" s="84">
+      <c r="P21" s="83">
         <f t="shared" si="0"/>
         <v>63808</v>
       </c>
@@ -3459,14 +3471,14 @@
       <c r="J22" s="33"/>
       <c r="K22" s="51"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="140">
+      <c r="M22" s="139">
         <f>13513+21500</f>
         <v>35013</v>
       </c>
       <c r="N22" s="30">
         <v>743</v>
       </c>
-      <c r="P22" s="84">
+      <c r="P22" s="83">
         <f t="shared" si="0"/>
         <v>37191</v>
       </c>
@@ -3500,14 +3512,14 @@
       <c r="J23" s="53"/>
       <c r="K23" s="54"/>
       <c r="L23" s="43"/>
-      <c r="M23" s="140">
+      <c r="M23" s="139">
         <f>14000+15786</f>
         <v>29786</v>
       </c>
       <c r="N23" s="30">
         <v>0</v>
       </c>
-      <c r="P23" s="84">
+      <c r="P23" s="83">
         <f t="shared" si="0"/>
         <v>29827</v>
       </c>
@@ -3539,13 +3551,13 @@
       <c r="J24" s="55"/>
       <c r="K24" s="56"/>
       <c r="L24" s="57"/>
-      <c r="M24" s="140">
+      <c r="M24" s="139">
         <v>0</v>
       </c>
       <c r="N24" s="30">
         <v>0</v>
       </c>
-      <c r="P24" s="84">
+      <c r="P24" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3577,13 +3589,13 @@
       <c r="J25" s="58"/>
       <c r="K25" s="59"/>
       <c r="L25" s="60"/>
-      <c r="M25" s="140">
+      <c r="M25" s="139">
         <v>0</v>
       </c>
       <c r="N25" s="30">
         <v>0</v>
       </c>
-      <c r="P25" s="84">
+      <c r="P25" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3615,13 +3627,13 @@
       <c r="J26" s="33"/>
       <c r="K26" s="56"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="140">
+      <c r="M26" s="139">
         <v>0</v>
       </c>
       <c r="N26" s="30">
         <v>0</v>
       </c>
-      <c r="P26" s="84">
+      <c r="P26" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3653,13 +3665,13 @@
       <c r="J27" s="61"/>
       <c r="K27" s="62"/>
       <c r="L27" s="60"/>
-      <c r="M27" s="140">
+      <c r="M27" s="139">
         <v>0</v>
       </c>
       <c r="N27" s="30">
         <v>0</v>
       </c>
-      <c r="P27" s="84">
+      <c r="P27" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3691,13 +3703,13 @@
       <c r="J28" s="63"/>
       <c r="K28" s="34"/>
       <c r="L28" s="60"/>
-      <c r="M28" s="140">
+      <c r="M28" s="139">
         <v>0</v>
       </c>
       <c r="N28" s="30">
         <v>0</v>
       </c>
-      <c r="P28" s="84">
+      <c r="P28" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3729,13 +3741,13 @@
       <c r="J29" s="65"/>
       <c r="K29" s="66"/>
       <c r="L29" s="60"/>
-      <c r="M29" s="140">
+      <c r="M29" s="139">
         <v>0</v>
       </c>
       <c r="N29" s="30">
         <v>0</v>
       </c>
-      <c r="P29" s="84">
+      <c r="P29" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3767,13 +3779,13 @@
       <c r="J30" s="67"/>
       <c r="K30" s="68"/>
       <c r="L30" s="69"/>
-      <c r="M30" s="140">
+      <c r="M30" s="139">
         <v>0</v>
       </c>
       <c r="N30" s="30">
         <v>0</v>
       </c>
-      <c r="P30" s="84">
+      <c r="P30" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3797,13 +3809,13 @@
       <c r="J31" s="67"/>
       <c r="K31" s="71"/>
       <c r="L31" s="72"/>
-      <c r="M31" s="140">
+      <c r="M31" s="139">
         <v>0</v>
       </c>
       <c r="N31" s="30">
         <v>0</v>
       </c>
-      <c r="P31" s="84">
+      <c r="P31" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3827,13 +3839,13 @@
       <c r="J32" s="67"/>
       <c r="K32" s="68"/>
       <c r="L32" s="69"/>
-      <c r="M32" s="140">
+      <c r="M32" s="139">
         <v>0</v>
       </c>
       <c r="N32" s="30">
         <v>0</v>
       </c>
-      <c r="P32" s="84">
+      <c r="P32" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3861,13 +3873,13 @@
       <c r="J33" s="67"/>
       <c r="K33" s="71"/>
       <c r="L33" s="75"/>
-      <c r="M33" s="140">
+      <c r="M33" s="139">
         <v>0</v>
       </c>
       <c r="N33" s="30">
         <v>0</v>
       </c>
-      <c r="P33" s="84">
+      <c r="P33" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3892,22 +3904,28 @@
       <c r="I34" s="28">
         <v>0</v>
       </c>
-      <c r="J34" s="67"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="140">
+      <c r="J34" s="67">
+        <v>44431</v>
+      </c>
+      <c r="K34" s="189" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="76">
+        <v>6975</v>
+      </c>
+      <c r="M34" s="139">
         <v>0</v>
       </c>
       <c r="N34" s="30">
         <v>0</v>
       </c>
-      <c r="P34" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="P34" s="83">
+        <f t="shared" si="0"/>
+        <v>6975</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3916,7 +3934,7 @@
       <c r="C35" s="22">
         <v>0</v>
       </c>
-      <c r="D35" s="78"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25">
         <v>0</v>
@@ -3926,22 +3944,28 @@
       <c r="I35" s="28">
         <v>0</v>
       </c>
-      <c r="J35" s="67"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="140">
+      <c r="J35" s="67">
+        <v>44431</v>
+      </c>
+      <c r="K35" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="75">
+        <v>549</v>
+      </c>
+      <c r="M35" s="139">
         <v>0</v>
       </c>
       <c r="N35" s="30">
         <v>0</v>
       </c>
-      <c r="P35" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="P35" s="83">
+        <f t="shared" si="0"/>
+        <v>549</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3961,15 +3985,15 @@
         <v>0</v>
       </c>
       <c r="J36" s="67"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="140">
+      <c r="K36" s="78"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="139">
         <v>0</v>
       </c>
       <c r="N36" s="30">
         <v>0</v>
       </c>
-      <c r="P36" s="84">
+      <c r="P36" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3997,13 +4021,13 @@
       <c r="J37" s="67"/>
       <c r="K37" s="71"/>
       <c r="L37" s="75"/>
-      <c r="M37" s="140">
+      <c r="M37" s="139">
         <v>0</v>
       </c>
       <c r="N37" s="30">
         <v>0</v>
       </c>
-      <c r="P37" s="84">
+      <c r="P37" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4031,13 +4055,13 @@
       <c r="J38" s="67"/>
       <c r="K38" s="71"/>
       <c r="L38" s="75"/>
-      <c r="M38" s="140">
+      <c r="M38" s="139">
         <v>0</v>
       </c>
       <c r="N38" s="30">
         <v>0</v>
       </c>
-      <c r="P38" s="84">
+      <c r="P38" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4049,375 +4073,375 @@
     <row r="39" spans="1:17" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
-      <c r="C39" s="80"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="70"/>
       <c r="E39" s="24"/>
-      <c r="F39" s="81"/>
+      <c r="F39" s="80"/>
       <c r="G39" s="26"/>
       <c r="H39" s="32"/>
-      <c r="I39" s="82"/>
+      <c r="I39" s="81"/>
       <c r="J39" s="67"/>
-      <c r="K39" s="83"/>
+      <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="187">
+      <c r="M39" s="192">
         <f>SUM(M5:M38)</f>
         <v>758752.5</v>
       </c>
-      <c r="N39" s="189">
+      <c r="N39" s="194">
         <f>SUM(N5:N38)</f>
         <v>10494.970000000001</v>
       </c>
-      <c r="P39" s="84">
+      <c r="P39" s="83">
         <f>SUM(P5:P38)</f>
-        <v>829105.97</v>
+        <v>836629.97</v>
       </c>
       <c r="Q39" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>-3146.3100000000013</v>
+        <v>4377.6899999999987</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
-      <c r="C40" s="80"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="70"/>
       <c r="E40" s="24"/>
-      <c r="F40" s="81"/>
+      <c r="F40" s="80"/>
       <c r="G40" s="26"/>
       <c r="H40" s="32"/>
-      <c r="I40" s="82"/>
+      <c r="I40" s="81"/>
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="188"/>
-      <c r="N40" s="190"/>
-      <c r="P40" s="84"/>
+      <c r="M40" s="193"/>
+      <c r="N40" s="195"/>
+      <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
-      <c r="B41" s="90"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="22">
         <v>0</v>
       </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="85"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="88"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="84"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="87"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="89"/>
+      <c r="M41" s="88"/>
       <c r="N41" s="30"/>
-      <c r="P41" s="84"/>
+      <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
     <row r="42" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="95">
+      <c r="C42" s="94">
         <f>SUM(C5:C41)</f>
         <v>26278</v>
       </c>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97" t="s">
+      <c r="D42" s="95"/>
+      <c r="E42" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="98">
+      <c r="F42" s="97">
         <f>SUM(F5:F41)</f>
         <v>832252.28</v>
       </c>
-      <c r="G42" s="96"/>
-      <c r="H42" s="99" t="s">
+      <c r="G42" s="95"/>
+      <c r="H42" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="100">
+      <c r="I42" s="99">
         <f>SUM(I5:I41)</f>
         <v>5447.5</v>
       </c>
-      <c r="J42" s="101"/>
-      <c r="K42" s="102" t="s">
+      <c r="J42" s="100"/>
+      <c r="K42" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="103">
+      <c r="L42" s="102">
         <f>SUM(L5:L41)</f>
-        <v>28133</v>
-      </c>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104"/>
-      <c r="P42" s="84"/>
+        <v>35657</v>
+      </c>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="P42" s="83"/>
       <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="84"/>
+      <c r="P43" s="83"/>
       <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="106"/>
-      <c r="B44" s="107"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
       <c r="C44" s="3"/>
-      <c r="H44" s="202" t="s">
+      <c r="H44" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="203"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="204">
+      <c r="I44" s="216"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="217">
         <f>I42+L42</f>
-        <v>33580.5</v>
-      </c>
-      <c r="L44" s="205"/>
-      <c r="M44" s="235">
+        <v>41104.5</v>
+      </c>
+      <c r="L44" s="218"/>
+      <c r="M44" s="225">
         <f>N39+M39</f>
         <v>769247.47</v>
       </c>
-      <c r="N44" s="236"/>
-      <c r="P44" s="84"/>
+      <c r="N44" s="226"/>
+      <c r="P44" s="83"/>
       <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D45" s="206" t="s">
+      <c r="D45" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="206"/>
-      <c r="F45" s="109">
+      <c r="E45" s="219"/>
+      <c r="F45" s="108">
         <f>F42-K44-C42</f>
-        <v>772393.78</v>
-      </c>
-      <c r="I45" s="110"/>
-      <c r="J45" s="111"/>
-      <c r="P45" s="84"/>
+        <v>764869.78</v>
+      </c>
+      <c r="I45" s="109"/>
+      <c r="J45" s="110"/>
+      <c r="P45" s="83"/>
       <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D46" s="207" t="s">
+      <c r="D46" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="207"/>
-      <c r="F46" s="104">
-        <v>0</v>
-      </c>
-      <c r="I46" s="208" t="s">
+      <c r="E46" s="220"/>
+      <c r="F46" s="103">
+        <v>0</v>
+      </c>
+      <c r="I46" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="209"/>
-      <c r="K46" s="210">
+      <c r="J46" s="222"/>
+      <c r="K46" s="223">
         <f>F48+F49+F50</f>
-        <v>772393.78</v>
-      </c>
-      <c r="L46" s="211"/>
-      <c r="P46" s="84"/>
+        <v>764869.78</v>
+      </c>
+      <c r="L46" s="224"/>
+      <c r="P46" s="83"/>
       <c r="Q46" s="9"/>
     </row>
     <row r="47" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="112"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="113">
-        <v>0</v>
-      </c>
-      <c r="I47" s="114"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="117"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="112">
+        <v>0</v>
+      </c>
+      <c r="I47" s="113"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="116"/>
     </row>
     <row r="48" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C48" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="106" t="s">
+      <c r="E48" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="104">
+      <c r="F48" s="103">
         <f>SUM(F45:F47)</f>
-        <v>772393.78</v>
+        <v>764869.78</v>
       </c>
       <c r="H48" s="20"/>
-      <c r="I48" s="118" t="s">
+      <c r="I48" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="119"/>
-      <c r="K48" s="212">
-        <v>0</v>
-      </c>
-      <c r="L48" s="213"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="227">
+        <v>0</v>
+      </c>
+      <c r="L48" s="228"/>
     </row>
     <row r="49" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="120" t="s">
+      <c r="D49" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="106" t="s">
+      <c r="E49" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="121">
+      <c r="F49" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="122"/>
-      <c r="D50" s="214" t="s">
+      <c r="C50" s="121"/>
+      <c r="D50" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="215"/>
-      <c r="F50" s="123">
-        <v>0</v>
-      </c>
-      <c r="I50" s="216" t="s">
+      <c r="E50" s="230"/>
+      <c r="F50" s="122">
+        <v>0</v>
+      </c>
+      <c r="I50" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="217"/>
-      <c r="K50" s="218">
+      <c r="J50" s="232"/>
+      <c r="K50" s="233">
         <f>K46+K48</f>
-        <v>772393.78</v>
-      </c>
-      <c r="L50" s="218"/>
+        <v>764869.78</v>
+      </c>
+      <c r="L50" s="233"/>
     </row>
     <row r="51" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="124"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="127"/>
-      <c r="J51" s="128"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="126"/>
+      <c r="J51" s="127"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I52" s="219" t="s">
+      <c r="I52" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="220"/>
-      <c r="K52" s="223">
-        <v>0</v>
-      </c>
-      <c r="L52" s="224"/>
+      <c r="J52" s="208"/>
+      <c r="K52" s="211">
+        <v>0</v>
+      </c>
+      <c r="L52" s="212"/>
     </row>
     <row r="53" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="129"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="84"/>
-      <c r="I53" s="221"/>
-      <c r="J53" s="222"/>
-      <c r="K53" s="225"/>
-      <c r="L53" s="226"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="83"/>
+      <c r="I53" s="209"/>
+      <c r="J53" s="210"/>
+      <c r="K53" s="213"/>
+      <c r="L53" s="214"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="106"/>
+      <c r="N53" s="105"/>
     </row>
     <row r="54" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="129"/>
-      <c r="C54" s="132"/>
-      <c r="E54" s="84"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="131"/>
+      <c r="E54" s="83"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="106"/>
+      <c r="N54" s="105"/>
     </row>
     <row r="55" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="129"/>
-      <c r="C55" s="132"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="133"/>
-      <c r="L55" s="134"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="131"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="132"/>
+      <c r="L55" s="133"/>
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="129"/>
-      <c r="C56" s="132"/>
-      <c r="E56" s="84"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="131"/>
+      <c r="E56" s="83"/>
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="129"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="136"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="135"/>
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D58" s="135"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="84"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="83"/>
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D59" s="135"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="84"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="83"/>
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D60" s="135"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="84"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="83"/>
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D61" s="135"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="84"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="136"/>
+      <c r="F61" s="83"/>
       <c r="M61" s="3"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D62" s="135"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="84"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="83"/>
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D63" s="135"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="84"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="83"/>
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D64" s="135"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="84"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="136"/>
+      <c r="F64" s="83"/>
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D65" s="135"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="84"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="83"/>
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D66" s="135"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="84"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="83"/>
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="135"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="84"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="136"/>
+      <c r="F67" s="83"/>
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="135"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="84"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="136"/>
+      <c r="F68" s="83"/>
       <c r="M68" s="3"/>
     </row>
     <row r="69" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D69" s="135"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="84"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="136"/>
+      <c r="F69" s="83"/>
     </row>
     <row r="70" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="135"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="136"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="134"/>
+      <c r="F70" s="135"/>
     </row>
     <row r="71" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D71" s="135"/>
-      <c r="E71" s="135"/>
-      <c r="F71" s="136"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="135"/>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="135"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="136"/>
+      <c r="D72" s="134"/>
+      <c r="E72" s="134"/>
+      <c r="F72" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -4464,7 +4488,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="105" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -4473,1115 +4497,1115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="165" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="164" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="141" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="145"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="146">
+      <c r="F3" s="145">
         <f>C3-E3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="143"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="148">
+      <c r="A4" s="142"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="147">
         <f>F3+C4-E4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="149"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="147"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="148">
+      <c r="A5" s="146"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="147">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="147"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="148">
+      <c r="A6" s="146"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="147"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="148">
+      <c r="A7" s="146"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="147"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="148">
+      <c r="A8" s="146"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="148">
+      <c r="A9" s="146"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="149"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="148"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="143"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="148">
+      <c r="A11" s="142"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="148">
+      <c r="A12" s="146"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="147"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="148">
+      <c r="A13" s="146"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="147"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="148">
+      <c r="A14" s="146"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="147"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="148">
+      <c r="A15" s="146"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="148">
+      <c r="A16" s="146"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="148">
+      <c r="A17" s="146"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="148">
+      <c r="A18" s="146"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="148">
+      <c r="A19" s="146"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="148">
+      <c r="A20" s="146"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="148">
+      <c r="A21" s="146"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="147"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="149"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="148"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="148">
+      <c r="A23" s="146"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="148">
+      <c r="A24" s="146"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="148">
+      <c r="A25" s="146"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="147"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="148">
+      <c r="A26" s="146"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="147"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="148">
+      <c r="A27" s="146"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="147"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="148">
+      <c r="A28" s="146"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="148">
+      <c r="A29" s="146"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="147"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="149"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="148"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="147"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="148">
+      <c r="A31" s="146"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="148">
+      <c r="A32" s="146"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="147"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="148">
+      <c r="A33" s="146"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="147"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="148">
+      <c r="A34" s="146"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="147"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="148">
+      <c r="A35" s="146"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="147"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="148">
+      <c r="A36" s="146"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="147"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="148">
+      <c r="A37" s="146"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="147"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="148">
+      <c r="A38" s="146"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="147"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="148">
+      <c r="A39" s="146"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="147"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="148">
+      <c r="A40" s="146"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="147"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="148">
+      <c r="A41" s="146"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="147"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="148">
+      <c r="A42" s="146"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="147"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="148">
+      <c r="A43" s="146"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="147"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="148">
+      <c r="A44" s="146"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="147"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="148">
+      <c r="A45" s="146"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="147"/>
-      <c r="B46" s="144"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="148">
+      <c r="A46" s="146"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="147"/>
-      <c r="B47" s="144"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="148">
+      <c r="A47" s="146"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="147"/>
-      <c r="B48" s="144"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="148">
+      <c r="A48" s="146"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="147"/>
-      <c r="B49" s="144"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="148">
+      <c r="A49" s="146"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="147"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="148">
+      <c r="A50" s="146"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="147"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="148">
+      <c r="A51" s="146"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="147"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="148">
+      <c r="A52" s="146"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="147"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="147"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="148">
+      <c r="A53" s="146"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="143"/>
-      <c r="B54" s="144"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="148">
+      <c r="A54" s="142"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="143"/>
-      <c r="B55" s="144"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="148">
+      <c r="A55" s="142"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="143"/>
-      <c r="B56" s="144"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="147"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="148">
+      <c r="A56" s="142"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="147"/>
-      <c r="B57" s="144"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="148">
+      <c r="A57" s="146"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="147"/>
-      <c r="B58" s="144"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="148">
+      <c r="A58" s="146"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="147"/>
-      <c r="B59" s="144"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="148">
+      <c r="A59" s="146"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="143"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="148">
+      <c r="A60" s="142"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="143"/>
-      <c r="B61" s="144"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="148">
+      <c r="A61" s="142"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="143"/>
-      <c r="B62" s="144"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="148">
+      <c r="A62" s="142"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="143"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="148">
+      <c r="A63" s="142"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="143"/>
-      <c r="B64" s="144"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="148">
+      <c r="A64" s="142"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="143"/>
-      <c r="B65" s="144"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="147"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="148">
+      <c r="A65" s="142"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="143"/>
-      <c r="B66" s="144"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="147"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="148">
+      <c r="A66" s="142"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="143"/>
-      <c r="B67" s="144"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="147"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="148">
+      <c r="A67" s="142"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="143"/>
-      <c r="B68" s="144"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="147"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="148">
+      <c r="A68" s="142"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="143"/>
-      <c r="B69" s="144"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="147"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="148">
+      <c r="A69" s="142"/>
+      <c r="B69" s="143"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="146"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="147">
         <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="143"/>
-      <c r="B70" s="144"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="147"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="148">
+      <c r="A70" s="142"/>
+      <c r="B70" s="143"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="146"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="143"/>
-      <c r="B71" s="144"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="148">
+      <c r="A71" s="142"/>
+      <c r="B71" s="143"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="143"/>
-      <c r="B72" s="144"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="148">
+      <c r="A72" s="142"/>
+      <c r="B72" s="143"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="146"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="143"/>
-      <c r="B73" s="144"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="148">
+      <c r="A73" s="142"/>
+      <c r="B73" s="143"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="146"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="143"/>
-      <c r="B74" s="144"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="148">
+      <c r="A74" s="142"/>
+      <c r="B74" s="143"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="146"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="143"/>
-      <c r="B75" s="144"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="147"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="148">
+      <c r="A75" s="142"/>
+      <c r="B75" s="143"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="143"/>
-      <c r="B76" s="144"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="147"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="148">
+      <c r="A76" s="142"/>
+      <c r="B76" s="143"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="146"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="143"/>
-      <c r="B77" s="144"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="147"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="148">
+      <c r="A77" s="142"/>
+      <c r="B77" s="143"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="143"/>
-      <c r="B78" s="144"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="147"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="148">
+      <c r="A78" s="142"/>
+      <c r="B78" s="143"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="143"/>
-      <c r="B79" s="144"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="147"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="148">
+      <c r="A79" s="142"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="143"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="147"/>
-      <c r="E80" s="80"/>
-      <c r="F80" s="148">
+      <c r="A80" s="142"/>
+      <c r="B80" s="143"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="150"/>
-      <c r="B81" s="151"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="152"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="148">
+      <c r="A81" s="149"/>
+      <c r="B81" s="150"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="151"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="150"/>
-      <c r="B82" s="151"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="152"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="148">
+      <c r="A82" s="149"/>
+      <c r="B82" s="150"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="151"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="150"/>
-      <c r="B83" s="151"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="152"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="148">
+      <c r="A83" s="149"/>
+      <c r="B83" s="150"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="151"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="150"/>
-      <c r="B84" s="151"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="152"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="148">
+      <c r="A84" s="149"/>
+      <c r="B84" s="150"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="150"/>
-      <c r="B85" s="151"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="152"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="148">
+      <c r="A85" s="149"/>
+      <c r="B85" s="150"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="150"/>
-      <c r="B86" s="151"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="152"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="148">
+      <c r="A86" s="149"/>
+      <c r="B86" s="150"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="151"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="153"/>
-      <c r="B87" s="154"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="155"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="148">
+      <c r="A87" s="152"/>
+      <c r="B87" s="153"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="154"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="153"/>
-      <c r="B88" s="154"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="155"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="148">
+      <c r="A88" s="152"/>
+      <c r="B88" s="153"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="154"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="153"/>
-      <c r="B89" s="154"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="155"/>
-      <c r="E89" s="80"/>
-      <c r="F89" s="148">
+      <c r="A89" s="152"/>
+      <c r="B89" s="153"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="154"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="153"/>
-      <c r="B90" s="154"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="155"/>
-      <c r="E90" s="80"/>
-      <c r="F90" s="148">
+      <c r="A90" s="152"/>
+      <c r="B90" s="153"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="154"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="153"/>
-      <c r="B91" s="154"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="155"/>
-      <c r="E91" s="80"/>
-      <c r="F91" s="148">
+      <c r="A91" s="152"/>
+      <c r="B91" s="153"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="154"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="153"/>
-      <c r="B92" s="154"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="155"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="148">
+      <c r="A92" s="152"/>
+      <c r="B92" s="153"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="153"/>
-      <c r="B93" s="154"/>
-      <c r="C93" s="80"/>
-      <c r="D93" s="155"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="148">
+      <c r="A93" s="152"/>
+      <c r="B93" s="153"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="154"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="153"/>
-      <c r="B94" s="154"/>
-      <c r="C94" s="80"/>
-      <c r="D94" s="155"/>
-      <c r="E94" s="80"/>
-      <c r="F94" s="148">
+      <c r="A94" s="152"/>
+      <c r="B94" s="153"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="154"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="153"/>
-      <c r="B95" s="154"/>
-      <c r="C95" s="80"/>
-      <c r="D95" s="155"/>
-      <c r="E95" s="80"/>
-      <c r="F95" s="148">
+      <c r="A95" s="152"/>
+      <c r="B95" s="153"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="154"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="153"/>
-      <c r="B96" s="154"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="155"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="148">
+      <c r="A96" s="152"/>
+      <c r="B96" s="153"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="154"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="156"/>
-      <c r="B97" s="157"/>
-      <c r="C97" s="158">
-        <v>0</v>
-      </c>
-      <c r="D97" s="159"/>
-      <c r="E97" s="158"/>
-      <c r="F97" s="148">
+      <c r="A97" s="155"/>
+      <c r="B97" s="156"/>
+      <c r="C97" s="157">
+        <v>0</v>
+      </c>
+      <c r="D97" s="158"/>
+      <c r="E97" s="157"/>
+      <c r="F97" s="147">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="106"/>
+      <c r="B98" s="105"/>
       <c r="C98" s="3">
         <f>SUM(C3:C97)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="105"/>
+      <c r="D98" s="104"/>
       <c r="E98" s="3">
         <f>SUM(E3:E97)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="160">
+      <c r="F98" s="159">
         <f>F97</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="106"/>
+      <c r="B99" s="105"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="105"/>
+      <c r="D99" s="104"/>
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="106"/>
+      <c r="B100" s="105"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="105"/>
+      <c r="D100" s="104"/>
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
@@ -5761,7 +5785,7 @@
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C134" s="161"/>
+      <c r="C134" s="160"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5815,160 +5839,160 @@
   <sheetData>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="170"/>
-      <c r="B42" s="227" t="s">
+      <c r="A42" s="169"/>
+      <c r="B42" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="228"/>
-      <c r="D42" s="228"/>
-      <c r="E42" s="229"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="235"/>
+      <c r="E42" s="236"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="179">
+      <c r="A43" s="178">
         <v>44430</v>
       </c>
-      <c r="B43" s="180" t="s">
+      <c r="B43" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="181">
+      <c r="C43" s="180">
         <v>201</v>
       </c>
-      <c r="D43" s="182" t="s">
+      <c r="D43" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="233" t="s">
+      <c r="E43" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="109">
+      <c r="F43" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="179">
+      <c r="A44" s="178">
         <v>44430</v>
       </c>
-      <c r="B44" s="180" t="s">
+      <c r="B44" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="181">
+      <c r="C44" s="180">
         <v>678.08</v>
       </c>
-      <c r="D44" s="184" t="s">
+      <c r="D44" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="183" t="s">
+      <c r="E44" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="109">
+      <c r="F44" s="108">
         <v>847</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="179"/>
-      <c r="B45" s="180" t="s">
+      <c r="A45" s="178"/>
+      <c r="B45" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="181">
-        <v>0</v>
-      </c>
-      <c r="D45" s="184" t="s">
+      <c r="C45" s="180">
+        <v>0</v>
+      </c>
+      <c r="D45" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="183" t="s">
+      <c r="E45" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="109">
+      <c r="F45" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="179"/>
-      <c r="B46" s="180" t="s">
+      <c r="A46" s="178"/>
+      <c r="B46" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="181">
-        <v>0</v>
-      </c>
-      <c r="D46" s="184" t="s">
+      <c r="C46" s="180">
+        <v>0</v>
+      </c>
+      <c r="D46" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="183" t="s">
+      <c r="E46" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="109">
+      <c r="F46" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="171"/>
-      <c r="B47" s="172" t="s">
+      <c r="A47" s="170"/>
+      <c r="B47" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="173">
-        <v>0</v>
-      </c>
-      <c r="D47" s="176" t="s">
+      <c r="C47" s="172">
+        <v>0</v>
+      </c>
+      <c r="D47" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="174" t="s">
+      <c r="E47" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="175">
+      <c r="F47" s="174">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="171"/>
-      <c r="B48" s="172" t="s">
+      <c r="A48" s="170"/>
+      <c r="B48" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="173">
-        <v>0</v>
-      </c>
-      <c r="D48" s="176" t="s">
+      <c r="C48" s="172">
+        <v>0</v>
+      </c>
+      <c r="D48" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="174" t="s">
+      <c r="E48" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="175">
+      <c r="F48" s="174">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="171"/>
-      <c r="B49" s="172" t="s">
+      <c r="A49" s="170"/>
+      <c r="B49" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="173">
-        <v>0</v>
-      </c>
-      <c r="D49" s="176" t="s">
+      <c r="C49" s="172">
+        <v>0</v>
+      </c>
+      <c r="D49" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="174" t="s">
+      <c r="E49" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="175">
+      <c r="F49" s="174">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="177"/>
-      <c r="B50" s="172" t="s">
+      <c r="A50" s="176"/>
+      <c r="B50" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="173">
-        <v>0</v>
-      </c>
-      <c r="D50" s="178" t="s">
+      <c r="C50" s="172">
+        <v>0</v>
+      </c>
+      <c r="D50" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="174" t="s">
+      <c r="E50" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="175">
+      <c r="F50" s="174">
         <v>0</v>
       </c>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE  HERRADURA  AGOSTO  2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE  HERRADURA  AGOSTO  2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A G O S T O    2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -223,15 +223,6 @@
     <t>NOMINA # 34</t>
   </si>
   <si>
-    <t># 1243</t>
-  </si>
-  <si>
-    <t>#  1338</t>
-  </si>
-  <si>
-    <t># 1339</t>
-  </si>
-  <si>
     <t>CABEZA-CEBOLLA</t>
   </si>
   <si>
@@ -242,6 +233,69 @@
   </si>
   <si>
     <t>TELEFONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># </t>
+  </si>
+  <si>
+    <t># 1500</t>
+  </si>
+  <si>
+    <t>#  1501</t>
+  </si>
+  <si>
+    <t>SUADERO--TOSTADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL </t>
+  </si>
+  <si>
+    <t>15789 B</t>
+  </si>
+  <si>
+    <t>15882 B</t>
+  </si>
+  <si>
+    <t>15922 B</t>
+  </si>
+  <si>
+    <t>16004 B</t>
+  </si>
+  <si>
+    <t>16062 B</t>
+  </si>
+  <si>
+    <t>16073 B</t>
+  </si>
+  <si>
+    <t>16188 B</t>
+  </si>
+  <si>
+    <t>16225 B</t>
+  </si>
+  <si>
+    <t>16347 B</t>
+  </si>
+  <si>
+    <t>16352 B</t>
+  </si>
+  <si>
+    <t>16478 B</t>
+  </si>
+  <si>
+    <t>16540 B</t>
+  </si>
+  <si>
+    <t>16560 B</t>
+  </si>
+  <si>
+    <t>16664 B</t>
+  </si>
+  <si>
+    <t>16730 B</t>
+  </si>
+  <si>
+    <t>16809 B</t>
   </si>
 </sst>
 </file>
@@ -256,7 +310,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,8 +650,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,8 +708,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1381,12 +1449,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -1659,9 +1738,6 @@
     <xf numFmtId="1" fontId="36" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="37" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1720,8 +1796,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1743,6 +1817,88 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1794,87 +1950,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1884,6 +1959,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="44" fontId="38" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2603,8 +2695,8 @@
   </sheetPr>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,23 +2718,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="196"/>
-      <c r="C1" s="205" t="s">
+      <c r="B1" s="221"/>
+      <c r="C1" s="230" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="197"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -2652,17 +2744,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="199"/>
+      <c r="B3" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="224"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="200" t="s">
+      <c r="H3" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="200"/>
+      <c r="I3" s="225"/>
       <c r="K3" s="137"/>
       <c r="L3" s="137"/>
       <c r="M3" s="138"/>
@@ -2678,27 +2770,27 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="201" t="s">
+      <c r="E4" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="H4" s="203" t="s">
+      <c r="F4" s="227"/>
+      <c r="H4" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="204"/>
+      <c r="I4" s="229"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="165" t="s">
+      <c r="M4" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="166" t="s">
+      <c r="N4" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="190" t="s">
+      <c r="P4" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="191"/>
+      <c r="Q4" s="216"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -2738,7 +2830,7 @@
         <f>N5+M5+L5+I5+C5</f>
         <v>33353</v>
       </c>
-      <c r="Q5" s="168">
+      <c r="Q5" s="167">
         <f>P5-F5</f>
         <v>-3310.1100000000006</v>
       </c>
@@ -2866,7 +2958,7 @@
         <f t="shared" si="0"/>
         <v>30180</v>
       </c>
-      <c r="Q8" s="167">
+      <c r="Q8" s="166">
         <f t="shared" si="1"/>
         <v>-999.56000000000131</v>
       </c>
@@ -2954,7 +3046,7 @@
         <f t="shared" si="0"/>
         <v>18581</v>
       </c>
-      <c r="Q10" s="167">
+      <c r="Q10" s="166">
         <f t="shared" si="1"/>
         <v>-109</v>
       </c>
@@ -3085,11 +3177,11 @@
         <f t="shared" si="0"/>
         <v>85810</v>
       </c>
-      <c r="Q13" s="184">
+      <c r="Q13" s="181">
         <f t="shared" si="1"/>
         <v>-5426</v>
       </c>
-      <c r="R13" s="186" t="s">
+      <c r="R13" s="183" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3129,11 +3221,11 @@
         <f t="shared" si="0"/>
         <v>63004</v>
       </c>
-      <c r="Q14" s="185">
+      <c r="Q14" s="182">
         <f t="shared" si="1"/>
         <v>5426</v>
       </c>
-      <c r="R14" s="186" t="s">
+      <c r="R14" s="183" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3406,7 +3498,7 @@
         <v>792</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" s="24">
         <v>44430</v>
@@ -3422,7 +3514,7 @@
         <v>42</v>
       </c>
       <c r="J21" s="33"/>
-      <c r="K21" s="188" t="s">
+      <c r="K21" s="185" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="43">
@@ -3453,7 +3545,7 @@
         <v>1275</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E22" s="24">
         <v>44431</v>
@@ -3540,26 +3632,29 @@
       <c r="E24" s="24">
         <v>44433</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25">
+        <v>40901</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="32">
         <v>44433</v>
       </c>
       <c r="I24" s="28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J24" s="55"/>
       <c r="K24" s="56"/>
       <c r="L24" s="57"/>
       <c r="M24" s="139">
-        <v>0</v>
+        <f>12000+28474</f>
+        <v>40474</v>
       </c>
       <c r="N24" s="30">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="P24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40901</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="1"/>
@@ -3578,26 +3673,29 @@
       <c r="E25" s="24">
         <v>44434</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25">
+        <v>46045</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="32">
         <v>44434</v>
       </c>
       <c r="I25" s="28">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J25" s="58"/>
       <c r="K25" s="59"/>
       <c r="L25" s="60"/>
       <c r="M25" s="139">
-        <v>0</v>
+        <f>19000+26809</f>
+        <v>45809</v>
       </c>
       <c r="N25" s="30">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="P25" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46045</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="1"/>
@@ -3610,36 +3708,41 @@
         <v>44435</v>
       </c>
       <c r="C26" s="22">
-        <v>0</v>
-      </c>
-      <c r="D26" s="31"/>
+        <v>1481</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>52</v>
+      </c>
       <c r="E26" s="24">
         <v>44435</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="25">
+        <v>89703</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="32">
         <v>44435</v>
       </c>
       <c r="I26" s="28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J26" s="33"/>
       <c r="K26" s="56"/>
       <c r="L26" s="43"/>
       <c r="M26" s="139">
-        <v>0</v>
+        <f>56000+28209</f>
+        <v>84209</v>
       </c>
       <c r="N26" s="30">
         <v>0</v>
       </c>
       <c r="P26" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
+        <v>85703</v>
+      </c>
+      <c r="Q26" s="187">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3797,7 +3900,9 @@
     <row r="31" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
       <c r="D31" s="70"/>
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
@@ -3827,7 +3932,9 @@
     <row r="32" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
       <c r="D32" s="73"/>
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
@@ -3907,8 +4014,8 @@
       <c r="J34" s="67">
         <v>44431</v>
       </c>
-      <c r="K34" s="189" t="s">
-        <v>50</v>
+      <c r="K34" s="186" t="s">
+        <v>47</v>
       </c>
       <c r="L34" s="76">
         <v>6975</v>
@@ -3948,7 +4055,7 @@
         <v>44431</v>
       </c>
       <c r="K35" s="71" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L35" s="75">
         <v>549</v>
@@ -4083,21 +4190,21 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="192">
+      <c r="M39" s="217">
         <f>SUM(M5:M38)</f>
-        <v>758752.5</v>
-      </c>
-      <c r="N39" s="194">
+        <v>929244.5</v>
+      </c>
+      <c r="N39" s="219">
         <f>SUM(N5:N38)</f>
-        <v>10494.970000000001</v>
+        <v>11061.970000000001</v>
       </c>
       <c r="P39" s="83">
         <f>SUM(P5:P38)</f>
-        <v>836629.97</v>
+        <v>1009278.97</v>
       </c>
       <c r="Q39" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>4377.6899999999987</v>
+        <v>377.68999999999869</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4113,8 +4220,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="193"/>
-      <c r="N40" s="195"/>
+      <c r="M40" s="218"/>
+      <c r="N40" s="220"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -4143,7 +4250,7 @@
       </c>
       <c r="C42" s="94">
         <f>SUM(C5:C41)</f>
-        <v>26278</v>
+        <v>27759</v>
       </c>
       <c r="D42" s="95"/>
       <c r="E42" s="96" t="s">
@@ -4151,7 +4258,7 @@
       </c>
       <c r="F42" s="97">
         <f>SUM(F5:F41)</f>
-        <v>832252.28</v>
+        <v>1008901.28</v>
       </c>
       <c r="G42" s="95"/>
       <c r="H42" s="98" t="s">
@@ -4159,7 +4266,7 @@
       </c>
       <c r="I42" s="99">
         <f>SUM(I5:I41)</f>
-        <v>5447.5</v>
+        <v>5556.5</v>
       </c>
       <c r="J42" s="100"/>
       <c r="K42" s="101" t="s">
@@ -4185,32 +4292,32 @@
       <c r="A44" s="105"/>
       <c r="B44" s="106"/>
       <c r="C44" s="3"/>
-      <c r="H44" s="215" t="s">
+      <c r="H44" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="216"/>
+      <c r="I44" s="206"/>
       <c r="J44" s="107"/>
-      <c r="K44" s="217">
+      <c r="K44" s="207">
         <f>I42+L42</f>
-        <v>41104.5</v>
-      </c>
-      <c r="L44" s="218"/>
-      <c r="M44" s="225">
+        <v>41213.5</v>
+      </c>
+      <c r="L44" s="208"/>
+      <c r="M44" s="188">
         <f>N39+M39</f>
-        <v>769247.47</v>
-      </c>
-      <c r="N44" s="226"/>
+        <v>940306.47</v>
+      </c>
+      <c r="N44" s="189"/>
       <c r="P44" s="83"/>
       <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D45" s="219" t="s">
+      <c r="D45" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="219"/>
+      <c r="E45" s="209"/>
       <c r="F45" s="108">
         <f>F42-K44-C42</f>
-        <v>764869.78</v>
+        <v>939928.78</v>
       </c>
       <c r="I45" s="109"/>
       <c r="J45" s="110"/>
@@ -4218,22 +4325,22 @@
       <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D46" s="220" t="s">
+      <c r="D46" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="220"/>
+      <c r="E46" s="210"/>
       <c r="F46" s="103">
         <v>0</v>
       </c>
-      <c r="I46" s="221" t="s">
+      <c r="I46" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="222"/>
-      <c r="K46" s="223">
+      <c r="J46" s="212"/>
+      <c r="K46" s="213">
         <f>F48+F49+F50</f>
-        <v>764869.78</v>
-      </c>
-      <c r="L46" s="224"/>
+        <v>939928.78</v>
+      </c>
+      <c r="L46" s="214"/>
       <c r="P46" s="83"/>
       <c r="Q46" s="9"/>
     </row>
@@ -4257,17 +4364,17 @@
       </c>
       <c r="F48" s="103">
         <f>SUM(F45:F47)</f>
-        <v>764869.78</v>
+        <v>939928.78</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="117" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="118"/>
-      <c r="K48" s="227">
-        <v>0</v>
-      </c>
-      <c r="L48" s="228"/>
+      <c r="K48" s="190">
+        <v>0</v>
+      </c>
+      <c r="L48" s="191"/>
     </row>
     <row r="49" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="119" t="s">
@@ -4282,22 +4389,22 @@
     </row>
     <row r="50" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C50" s="121"/>
-      <c r="D50" s="229" t="s">
+      <c r="D50" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="230"/>
+      <c r="E50" s="193"/>
       <c r="F50" s="122">
         <v>0</v>
       </c>
-      <c r="I50" s="231" t="s">
+      <c r="I50" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="232"/>
-      <c r="K50" s="233">
+      <c r="J50" s="195"/>
+      <c r="K50" s="196">
         <f>K46+K48</f>
-        <v>764869.78</v>
-      </c>
-      <c r="L50" s="233"/>
+        <v>939928.78</v>
+      </c>
+      <c r="L50" s="196"/>
     </row>
     <row r="51" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="123"/>
@@ -4307,24 +4414,24 @@
       <c r="J51" s="127"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I52" s="207" t="s">
+      <c r="I52" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="208"/>
-      <c r="K52" s="211">
-        <v>0</v>
-      </c>
-      <c r="L52" s="212"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="201">
+        <v>0</v>
+      </c>
+      <c r="L52" s="202"/>
     </row>
     <row r="53" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="128"/>
       <c r="C53" s="129"/>
       <c r="D53" s="130"/>
       <c r="E53" s="83"/>
-      <c r="I53" s="209"/>
-      <c r="J53" s="210"/>
-      <c r="K53" s="213"/>
-      <c r="L53" s="214"/>
+      <c r="I53" s="199"/>
+      <c r="J53" s="200"/>
+      <c r="K53" s="203"/>
+      <c r="L53" s="204"/>
       <c r="M53" s="1"/>
       <c r="N53" s="105"/>
     </row>
@@ -4445,19 +4552,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
@@ -4467,6 +4561,19 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C1:M1"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4482,8 +4589,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4497,14 +4604,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="164" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="163" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4529,1070 +4636,1228 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="142"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="144"/>
+      <c r="A3" s="142">
+        <v>44422</v>
+      </c>
+      <c r="B3" s="235">
+        <v>7232</v>
+      </c>
+      <c r="C3" s="35">
+        <v>3015.96</v>
+      </c>
+      <c r="D3" s="238" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="145">
+      <c r="F3" s="144">
         <f>C3-E3</f>
-        <v>0</v>
+        <v>3015.96</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="142"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="147">
+      <c r="A4" s="142">
+        <v>44422</v>
+      </c>
+      <c r="B4" s="235">
+        <v>7233</v>
+      </c>
+      <c r="C4" s="35">
+        <v>10281</v>
+      </c>
+      <c r="D4" s="239"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="146">
         <f>F3+C4-E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="148"/>
+        <v>13296.96</v>
+      </c>
+      <c r="G4" s="147"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="146"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="147">
+      <c r="A5" s="142">
+        <v>44422</v>
+      </c>
+      <c r="B5" s="235">
+        <v>7234</v>
+      </c>
+      <c r="C5" s="35">
+        <v>12746.2</v>
+      </c>
+      <c r="D5" s="239"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="146">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
-        <v>0</v>
+        <v>26043.16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="146"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A6" s="142">
+        <v>44422</v>
+      </c>
+      <c r="B6" s="235">
+        <v>7235</v>
+      </c>
+      <c r="C6" s="35">
+        <v>28974.78</v>
+      </c>
+      <c r="D6" s="239"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="146">
+        <f t="shared" si="0"/>
+        <v>55017.94</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A7" s="142">
+        <v>44422</v>
+      </c>
+      <c r="B7" s="235">
+        <v>7236</v>
+      </c>
+      <c r="C7" s="35">
+        <v>44758.6</v>
+      </c>
+      <c r="D7" s="239"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="146">
+        <f t="shared" si="0"/>
+        <v>99776.540000000008</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A8" s="142">
+        <v>44422</v>
+      </c>
+      <c r="B8" s="235">
+        <v>7237</v>
+      </c>
+      <c r="C8" s="35">
+        <v>12841.78</v>
+      </c>
+      <c r="D8" s="239"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="146">
+        <f t="shared" si="0"/>
+        <v>112618.32</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="146"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="148"/>
+      <c r="A9" s="142">
+        <v>44422</v>
+      </c>
+      <c r="B9" s="235">
+        <v>7238</v>
+      </c>
+      <c r="C9" s="35">
+        <v>3898.05</v>
+      </c>
+      <c r="D9" s="239"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="146">
+        <f t="shared" si="0"/>
+        <v>116516.37000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="142">
+        <v>44422</v>
+      </c>
+      <c r="B10" s="235">
+        <v>7239</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1429</v>
+      </c>
+      <c r="D10" s="240"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="146">
+        <f t="shared" si="0"/>
+        <v>117945.37000000001</v>
+      </c>
+      <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="142"/>
       <c r="B11" s="143"/>
       <c r="C11" s="79"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="147">
+      <c r="D11" s="237">
+        <v>44428</v>
+      </c>
+      <c r="E11" s="79">
+        <v>117945.37</v>
+      </c>
+      <c r="F11" s="146">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="146"/>
+      <c r="A12" s="145">
+        <v>44413</v>
+      </c>
+      <c r="B12" s="143" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="79">
+        <v>92873.61</v>
+      </c>
+      <c r="D12" s="145"/>
       <c r="E12" s="79"/>
-      <c r="F12" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F12" s="146">
+        <f t="shared" si="0"/>
+        <v>92873.61</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="146"/>
+      <c r="A13" s="145">
+        <v>44414</v>
+      </c>
+      <c r="B13" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="79">
+        <v>51333.5</v>
+      </c>
+      <c r="D13" s="145"/>
       <c r="E13" s="79"/>
-      <c r="F13" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F13" s="146">
+        <f t="shared" si="0"/>
+        <v>144207.10999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="146"/>
+      <c r="A14" s="145">
+        <v>44414</v>
+      </c>
+      <c r="B14" s="143" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="79">
+        <v>7768.2</v>
+      </c>
+      <c r="D14" s="145"/>
       <c r="E14" s="79"/>
-      <c r="F14" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F14" s="146">
+        <f t="shared" si="0"/>
+        <v>151975.31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="146"/>
+      <c r="A15" s="145">
+        <v>44415</v>
+      </c>
+      <c r="B15" s="143" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="79">
+        <v>877.74</v>
+      </c>
+      <c r="D15" s="145"/>
       <c r="E15" s="79"/>
-      <c r="F15" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F15" s="146">
+        <f t="shared" si="0"/>
+        <v>152853.04999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="146"/>
+      <c r="A16" s="145">
+        <v>44416</v>
+      </c>
+      <c r="B16" s="143" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="79">
+        <v>39384.800000000003</v>
+      </c>
+      <c r="D16" s="145"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F16" s="146">
+        <f t="shared" si="0"/>
+        <v>192237.84999999998</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="146"/>
+      <c r="A17" s="145">
+        <v>44416</v>
+      </c>
+      <c r="B17" s="143" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="79">
+        <v>5342.96</v>
+      </c>
+      <c r="D17" s="145"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F17" s="146">
+        <f t="shared" si="0"/>
+        <v>197580.80999999997</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="146"/>
+      <c r="A18" s="145">
+        <v>44417</v>
+      </c>
+      <c r="B18" s="143" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="79">
+        <v>4173.26</v>
+      </c>
+      <c r="D18" s="145"/>
       <c r="E18" s="79"/>
-      <c r="F18" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F18" s="146">
+        <f t="shared" si="0"/>
+        <v>201754.06999999998</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="146"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A19" s="145">
+        <v>44418</v>
+      </c>
+      <c r="B19" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="79">
+        <v>55145.36</v>
+      </c>
+      <c r="D19" s="145">
+        <v>44424</v>
+      </c>
+      <c r="E19" s="79">
+        <v>216899.43</v>
+      </c>
+      <c r="F19" s="241">
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="146"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="146"/>
+      <c r="A20" s="145">
+        <v>44419</v>
+      </c>
+      <c r="B20" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="79">
+        <v>31463.06</v>
+      </c>
+      <c r="D20" s="145"/>
       <c r="E20" s="79"/>
-      <c r="F20" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F20" s="146">
+        <f t="shared" si="0"/>
+        <v>71463.06</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="146"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="146"/>
+      <c r="A21" s="145">
+        <v>44419</v>
+      </c>
+      <c r="B21" s="143" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="79">
+        <v>1176</v>
+      </c>
+      <c r="D21" s="145"/>
       <c r="E21" s="79"/>
-      <c r="F21" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F21" s="146">
+        <f t="shared" si="0"/>
+        <v>72639.06</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="146"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="146"/>
+      <c r="A22" s="145">
+        <v>44420</v>
+      </c>
+      <c r="B22" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="79">
+        <v>47284</v>
+      </c>
+      <c r="D22" s="145"/>
       <c r="E22" s="79"/>
-      <c r="F22" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="148"/>
+      <c r="F22" s="146">
+        <f t="shared" si="0"/>
+        <v>119923.06</v>
+      </c>
+      <c r="G22" s="147"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="146"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="146"/>
+      <c r="A23" s="145">
+        <v>44421</v>
+      </c>
+      <c r="B23" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="79">
+        <v>11800</v>
+      </c>
+      <c r="D23" s="145"/>
       <c r="E23" s="79"/>
-      <c r="F23" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F23" s="146">
+        <f t="shared" si="0"/>
+        <v>131723.06</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="146"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="146"/>
+      <c r="A24" s="145">
+        <v>44421</v>
+      </c>
+      <c r="B24" s="143" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="79">
+        <v>17041.91</v>
+      </c>
+      <c r="D24" s="145"/>
       <c r="E24" s="79"/>
-      <c r="F24" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F24" s="146">
+        <f t="shared" si="0"/>
+        <v>148764.97</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="146"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="146"/>
+      <c r="A25" s="145">
+        <v>44422</v>
+      </c>
+      <c r="B25" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="79">
+        <v>60116.94</v>
+      </c>
+      <c r="D25" s="145"/>
       <c r="E25" s="79"/>
-      <c r="F25" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F25" s="146">
+        <f t="shared" si="0"/>
+        <v>208881.91</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="146"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="146"/>
+      <c r="A26" s="145">
+        <v>44422</v>
+      </c>
+      <c r="B26" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="79">
+        <v>7818.2</v>
+      </c>
+      <c r="D26" s="145"/>
       <c r="E26" s="79"/>
-      <c r="F26" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F26" s="146">
+        <f t="shared" si="0"/>
+        <v>216700.11000000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="146"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A27" s="145">
+        <v>44424</v>
+      </c>
+      <c r="B27" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="79">
+        <v>49269.2</v>
+      </c>
+      <c r="D27" s="145">
+        <v>44428</v>
+      </c>
+      <c r="E27" s="79">
+        <v>235944.57</v>
+      </c>
+      <c r="F27" s="241">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="146"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="143"/>
       <c r="C28" s="79"/>
-      <c r="D28" s="146"/>
+      <c r="D28" s="145"/>
       <c r="E28" s="79"/>
-      <c r="F28" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F28" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="146"/>
+      <c r="A29" s="145"/>
       <c r="B29" s="143"/>
       <c r="C29" s="79"/>
-      <c r="D29" s="146"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="79"/>
-      <c r="F29" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F29" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="146"/>
+      <c r="A30" s="145"/>
       <c r="B30" s="143"/>
       <c r="C30" s="79"/>
-      <c r="D30" s="146"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="79"/>
-      <c r="F30" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="148"/>
+      <c r="F30" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
+      </c>
+      <c r="G30" s="147"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="146"/>
+      <c r="A31" s="145"/>
       <c r="B31" s="143"/>
       <c r="C31" s="79"/>
-      <c r="D31" s="146"/>
+      <c r="D31" s="145"/>
       <c r="E31" s="79"/>
-      <c r="F31" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F31" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="146"/>
+      <c r="A32" s="145"/>
       <c r="B32" s="143"/>
       <c r="C32" s="79"/>
-      <c r="D32" s="146"/>
+      <c r="D32" s="145"/>
       <c r="E32" s="79"/>
-      <c r="F32" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F32" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="146"/>
+      <c r="A33" s="145"/>
       <c r="B33" s="143"/>
       <c r="C33" s="79"/>
-      <c r="D33" s="146"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="79"/>
-      <c r="F33" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F33" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="146"/>
+      <c r="A34" s="145"/>
       <c r="B34" s="143"/>
       <c r="C34" s="79"/>
-      <c r="D34" s="146"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="79"/>
-      <c r="F34" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F34" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="146"/>
+      <c r="A35" s="145"/>
       <c r="B35" s="143"/>
       <c r="C35" s="79"/>
-      <c r="D35" s="146"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="79"/>
-      <c r="F35" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F35" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="146"/>
+      <c r="A36" s="145"/>
       <c r="B36" s="143"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="146"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="79"/>
-      <c r="F36" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F36" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="146"/>
+      <c r="A37" s="145"/>
       <c r="B37" s="143"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="146"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="79"/>
-      <c r="F37" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F37" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="146"/>
+      <c r="A38" s="145"/>
       <c r="B38" s="143"/>
       <c r="C38" s="79"/>
-      <c r="D38" s="146"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="79"/>
-      <c r="F38" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F38" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="146"/>
+      <c r="A39" s="145"/>
       <c r="B39" s="143"/>
       <c r="C39" s="79"/>
-      <c r="D39" s="146"/>
+      <c r="D39" s="145"/>
       <c r="E39" s="79"/>
-      <c r="F39" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F39" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="146"/>
+      <c r="A40" s="145"/>
       <c r="B40" s="143"/>
       <c r="C40" s="79"/>
-      <c r="D40" s="146"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="79"/>
-      <c r="F40" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F40" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="146"/>
+      <c r="A41" s="145"/>
       <c r="B41" s="143"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="146"/>
+      <c r="D41" s="145"/>
       <c r="E41" s="79"/>
-      <c r="F41" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F41" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="146"/>
+      <c r="A42" s="145"/>
       <c r="B42" s="143"/>
       <c r="C42" s="79"/>
-      <c r="D42" s="146"/>
+      <c r="D42" s="145"/>
       <c r="E42" s="79"/>
-      <c r="F42" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F42" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="146"/>
+      <c r="A43" s="145"/>
       <c r="B43" s="143"/>
       <c r="C43" s="79"/>
-      <c r="D43" s="146"/>
+      <c r="D43" s="145"/>
       <c r="E43" s="79"/>
-      <c r="F43" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F43" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="146"/>
+      <c r="A44" s="145"/>
       <c r="B44" s="143"/>
       <c r="C44" s="79"/>
-      <c r="D44" s="146"/>
+      <c r="D44" s="145"/>
       <c r="E44" s="79"/>
-      <c r="F44" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F44" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="146"/>
+      <c r="A45" s="145"/>
       <c r="B45" s="143"/>
       <c r="C45" s="79"/>
-      <c r="D45" s="146"/>
+      <c r="D45" s="145"/>
       <c r="E45" s="79"/>
-      <c r="F45" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F45" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="146"/>
+      <c r="A46" s="145"/>
       <c r="B46" s="143"/>
       <c r="C46" s="79"/>
-      <c r="D46" s="146"/>
+      <c r="D46" s="145"/>
       <c r="E46" s="79"/>
-      <c r="F46" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F46" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="146"/>
+      <c r="A47" s="145"/>
       <c r="B47" s="143"/>
       <c r="C47" s="79"/>
-      <c r="D47" s="146"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="79"/>
-      <c r="F47" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F47" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="146"/>
+      <c r="A48" s="145"/>
       <c r="B48" s="143"/>
       <c r="C48" s="79"/>
-      <c r="D48" s="146"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="79"/>
-      <c r="F48" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F48" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="146"/>
+      <c r="A49" s="145"/>
       <c r="B49" s="143"/>
       <c r="C49" s="79"/>
-      <c r="D49" s="146"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="79"/>
-      <c r="F49" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F49" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="146"/>
+      <c r="A50" s="145"/>
       <c r="B50" s="143"/>
       <c r="C50" s="79"/>
-      <c r="D50" s="146"/>
+      <c r="D50" s="145"/>
       <c r="E50" s="79"/>
-      <c r="F50" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F50" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="146"/>
+      <c r="A51" s="145"/>
       <c r="B51" s="143"/>
       <c r="C51" s="79"/>
-      <c r="D51" s="146"/>
+      <c r="D51" s="145"/>
       <c r="E51" s="79"/>
-      <c r="F51" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F51" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="146"/>
+      <c r="A52" s="145"/>
       <c r="B52" s="143"/>
       <c r="C52" s="79"/>
-      <c r="D52" s="146"/>
+      <c r="D52" s="145"/>
       <c r="E52" s="79"/>
-      <c r="F52" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F52" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="146"/>
+      <c r="A53" s="145"/>
       <c r="B53" s="143"/>
       <c r="C53" s="79"/>
-      <c r="D53" s="146"/>
+      <c r="D53" s="145"/>
       <c r="E53" s="79"/>
-      <c r="F53" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F53" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="142"/>
       <c r="B54" s="143"/>
       <c r="C54" s="79"/>
-      <c r="D54" s="146"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="79"/>
-      <c r="F54" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F54" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="142"/>
       <c r="B55" s="143"/>
       <c r="C55" s="79"/>
-      <c r="D55" s="146"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="79"/>
-      <c r="F55" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F55" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="142"/>
       <c r="B56" s="143"/>
       <c r="C56" s="79"/>
-      <c r="D56" s="146"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="79"/>
-      <c r="F56" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F56" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="146"/>
+      <c r="A57" s="145"/>
       <c r="B57" s="143"/>
       <c r="C57" s="79"/>
-      <c r="D57" s="146"/>
+      <c r="D57" s="145"/>
       <c r="E57" s="79"/>
-      <c r="F57" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F57" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="146"/>
+      <c r="A58" s="145"/>
       <c r="B58" s="143"/>
       <c r="C58" s="79"/>
-      <c r="D58" s="146"/>
+      <c r="D58" s="145"/>
       <c r="E58" s="79"/>
-      <c r="F58" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F58" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="146"/>
+      <c r="A59" s="145"/>
       <c r="B59" s="143"/>
       <c r="C59" s="79"/>
-      <c r="D59" s="146"/>
+      <c r="D59" s="145"/>
       <c r="E59" s="79"/>
-      <c r="F59" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F59" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="142"/>
       <c r="B60" s="143"/>
       <c r="C60" s="79"/>
-      <c r="D60" s="146"/>
+      <c r="D60" s="145"/>
       <c r="E60" s="79"/>
-      <c r="F60" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F60" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="142"/>
       <c r="B61" s="143"/>
       <c r="C61" s="79"/>
-      <c r="D61" s="146"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="79"/>
-      <c r="F61" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F61" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="142"/>
       <c r="B62" s="143"/>
       <c r="C62" s="79"/>
-      <c r="D62" s="146"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="79"/>
-      <c r="F62" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F62" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="142"/>
       <c r="B63" s="143"/>
       <c r="C63" s="79"/>
-      <c r="D63" s="146"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="79"/>
-      <c r="F63" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F63" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="142"/>
       <c r="B64" s="143"/>
       <c r="C64" s="79"/>
-      <c r="D64" s="146"/>
+      <c r="D64" s="145"/>
       <c r="E64" s="79"/>
-      <c r="F64" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F64" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="142"/>
       <c r="B65" s="143"/>
       <c r="C65" s="79"/>
-      <c r="D65" s="146"/>
+      <c r="D65" s="145"/>
       <c r="E65" s="79"/>
-      <c r="F65" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F65" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="142"/>
       <c r="B66" s="143"/>
       <c r="C66" s="79"/>
-      <c r="D66" s="146"/>
+      <c r="D66" s="145"/>
       <c r="E66" s="79"/>
-      <c r="F66" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F66" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="142"/>
       <c r="B67" s="143"/>
       <c r="C67" s="79"/>
-      <c r="D67" s="146"/>
+      <c r="D67" s="145"/>
       <c r="E67" s="79"/>
-      <c r="F67" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F67" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="142"/>
       <c r="B68" s="143"/>
       <c r="C68" s="79"/>
-      <c r="D68" s="146"/>
+      <c r="D68" s="145"/>
       <c r="E68" s="79"/>
-      <c r="F68" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F68" s="146">
+        <f t="shared" si="0"/>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="142"/>
       <c r="B69" s="143"/>
       <c r="C69" s="79"/>
-      <c r="D69" s="146"/>
+      <c r="D69" s="145"/>
       <c r="E69" s="79"/>
-      <c r="F69" s="147">
+      <c r="F69" s="146">
         <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="142"/>
       <c r="B70" s="143"/>
       <c r="C70" s="79"/>
-      <c r="D70" s="146"/>
+      <c r="D70" s="145"/>
       <c r="E70" s="79"/>
-      <c r="F70" s="147">
+      <c r="F70" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="142"/>
       <c r="B71" s="143"/>
       <c r="C71" s="79"/>
-      <c r="D71" s="146"/>
+      <c r="D71" s="145"/>
       <c r="E71" s="79"/>
-      <c r="F71" s="147">
+      <c r="F71" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="142"/>
       <c r="B72" s="143"/>
       <c r="C72" s="79"/>
-      <c r="D72" s="146"/>
+      <c r="D72" s="145"/>
       <c r="E72" s="79"/>
-      <c r="F72" s="147">
+      <c r="F72" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="142"/>
       <c r="B73" s="143"/>
       <c r="C73" s="79"/>
-      <c r="D73" s="146"/>
+      <c r="D73" s="145"/>
       <c r="E73" s="79"/>
-      <c r="F73" s="147">
+      <c r="F73" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="142"/>
       <c r="B74" s="143"/>
       <c r="C74" s="79"/>
-      <c r="D74" s="146"/>
+      <c r="D74" s="145"/>
       <c r="E74" s="79"/>
-      <c r="F74" s="147">
+      <c r="F74" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="142"/>
       <c r="B75" s="143"/>
       <c r="C75" s="79"/>
-      <c r="D75" s="146"/>
+      <c r="D75" s="145"/>
       <c r="E75" s="79"/>
-      <c r="F75" s="147">
+      <c r="F75" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="142"/>
       <c r="B76" s="143"/>
       <c r="C76" s="79"/>
-      <c r="D76" s="146"/>
+      <c r="D76" s="145"/>
       <c r="E76" s="79"/>
-      <c r="F76" s="147">
+      <c r="F76" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="142"/>
       <c r="B77" s="143"/>
       <c r="C77" s="79"/>
-      <c r="D77" s="146"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="79"/>
-      <c r="F77" s="147">
+      <c r="F77" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="142"/>
       <c r="B78" s="143"/>
       <c r="C78" s="79"/>
-      <c r="D78" s="146"/>
+      <c r="D78" s="145"/>
       <c r="E78" s="79"/>
-      <c r="F78" s="147">
+      <c r="F78" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="142"/>
       <c r="B79" s="143"/>
       <c r="C79" s="79"/>
-      <c r="D79" s="146"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="79"/>
-      <c r="F79" s="147">
+      <c r="F79" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="142"/>
       <c r="B80" s="143"/>
       <c r="C80" s="79"/>
-      <c r="D80" s="146"/>
+      <c r="D80" s="145"/>
       <c r="E80" s="79"/>
-      <c r="F80" s="147">
+      <c r="F80" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="149"/>
-      <c r="B81" s="150"/>
+      <c r="A81" s="148"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="83"/>
-      <c r="D81" s="151"/>
+      <c r="D81" s="150"/>
       <c r="E81" s="83"/>
-      <c r="F81" s="147">
+      <c r="F81" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="149"/>
-      <c r="B82" s="150"/>
+      <c r="A82" s="148"/>
+      <c r="B82" s="149"/>
       <c r="C82" s="83"/>
-      <c r="D82" s="151"/>
+      <c r="D82" s="150"/>
       <c r="E82" s="83"/>
-      <c r="F82" s="147">
+      <c r="F82" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="149"/>
-      <c r="B83" s="150"/>
+      <c r="A83" s="148"/>
+      <c r="B83" s="149"/>
       <c r="C83" s="83"/>
-      <c r="D83" s="151"/>
+      <c r="D83" s="150"/>
       <c r="E83" s="83"/>
-      <c r="F83" s="147">
+      <c r="F83" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="149"/>
-      <c r="B84" s="150"/>
+      <c r="A84" s="148"/>
+      <c r="B84" s="149"/>
       <c r="C84" s="83"/>
-      <c r="D84" s="151"/>
+      <c r="D84" s="150"/>
       <c r="E84" s="83"/>
-      <c r="F84" s="147">
+      <c r="F84" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="149"/>
-      <c r="B85" s="150"/>
+      <c r="A85" s="148"/>
+      <c r="B85" s="149"/>
       <c r="C85" s="83"/>
-      <c r="D85" s="151"/>
+      <c r="D85" s="150"/>
       <c r="E85" s="83"/>
-      <c r="F85" s="147">
+      <c r="F85" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="149"/>
-      <c r="B86" s="150"/>
+      <c r="A86" s="148"/>
+      <c r="B86" s="149"/>
       <c r="C86" s="83"/>
-      <c r="D86" s="151"/>
+      <c r="D86" s="150"/>
       <c r="E86" s="83"/>
-      <c r="F86" s="147">
+      <c r="F86" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="152"/>
-      <c r="B87" s="153"/>
+      <c r="A87" s="151"/>
+      <c r="B87" s="152"/>
       <c r="C87" s="79"/>
-      <c r="D87" s="154"/>
+      <c r="D87" s="153"/>
       <c r="E87" s="79"/>
-      <c r="F87" s="147">
+      <c r="F87" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="152"/>
-      <c r="B88" s="153"/>
+      <c r="A88" s="151"/>
+      <c r="B88" s="152"/>
       <c r="C88" s="79"/>
-      <c r="D88" s="154"/>
+      <c r="D88" s="153"/>
       <c r="E88" s="79"/>
-      <c r="F88" s="147">
+      <c r="F88" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="152"/>
-      <c r="B89" s="153"/>
+      <c r="A89" s="151"/>
+      <c r="B89" s="152"/>
       <c r="C89" s="79"/>
-      <c r="D89" s="154"/>
+      <c r="D89" s="153"/>
       <c r="E89" s="79"/>
-      <c r="F89" s="147">
+      <c r="F89" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="152"/>
-      <c r="B90" s="153"/>
+      <c r="A90" s="151"/>
+      <c r="B90" s="152"/>
       <c r="C90" s="79"/>
-      <c r="D90" s="154"/>
+      <c r="D90" s="153"/>
       <c r="E90" s="79"/>
-      <c r="F90" s="147">
+      <c r="F90" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="152"/>
-      <c r="B91" s="153"/>
+      <c r="A91" s="151"/>
+      <c r="B91" s="152"/>
       <c r="C91" s="79"/>
-      <c r="D91" s="154"/>
+      <c r="D91" s="153"/>
       <c r="E91" s="79"/>
-      <c r="F91" s="147">
+      <c r="F91" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="152"/>
-      <c r="B92" s="153"/>
+      <c r="A92" s="151"/>
+      <c r="B92" s="152"/>
       <c r="C92" s="79"/>
-      <c r="D92" s="154"/>
+      <c r="D92" s="153"/>
       <c r="E92" s="79"/>
-      <c r="F92" s="147">
+      <c r="F92" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="152"/>
-      <c r="B93" s="153"/>
+      <c r="A93" s="151"/>
+      <c r="B93" s="152"/>
       <c r="C93" s="79"/>
-      <c r="D93" s="154"/>
+      <c r="D93" s="153"/>
       <c r="E93" s="79"/>
-      <c r="F93" s="147">
+      <c r="F93" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="152"/>
-      <c r="B94" s="153"/>
+      <c r="A94" s="151"/>
+      <c r="B94" s="152"/>
       <c r="C94" s="79"/>
-      <c r="D94" s="154"/>
+      <c r="D94" s="153"/>
       <c r="E94" s="79"/>
-      <c r="F94" s="147">
+      <c r="F94" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="152"/>
-      <c r="B95" s="153"/>
+      <c r="A95" s="151"/>
+      <c r="B95" s="152"/>
       <c r="C95" s="79"/>
-      <c r="D95" s="154"/>
+      <c r="D95" s="153"/>
       <c r="E95" s="79"/>
-      <c r="F95" s="147">
+      <c r="F95" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="152"/>
-      <c r="B96" s="153"/>
+      <c r="A96" s="151"/>
+      <c r="B96" s="152"/>
       <c r="C96" s="79"/>
-      <c r="D96" s="154"/>
+      <c r="D96" s="153"/>
       <c r="E96" s="79"/>
-      <c r="F96" s="147">
+      <c r="F96" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="155"/>
-      <c r="B97" s="156"/>
-      <c r="C97" s="157">
-        <v>0</v>
-      </c>
-      <c r="D97" s="158"/>
-      <c r="E97" s="157"/>
-      <c r="F97" s="147">
+      <c r="A97" s="154"/>
+      <c r="B97" s="155"/>
+      <c r="C97" s="156">
+        <v>0</v>
+      </c>
+      <c r="D97" s="157"/>
+      <c r="E97" s="156"/>
+      <c r="F97" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B98" s="105"/>
       <c r="C98" s="3">
         <f>SUM(C3:C97)</f>
-        <v>0</v>
+        <v>600814.10999999987</v>
       </c>
       <c r="D98" s="104"/>
       <c r="E98" s="3">
         <f>SUM(E3:E97)</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="159">
+        <v>570789.37</v>
+      </c>
+      <c r="F98" s="158">
         <f>F97</f>
-        <v>0</v>
+        <v>30024.739999999991</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -5785,9 +6050,12 @@
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C134" s="160"/>
+      <c r="C134" s="159"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:D10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5822,10 +6090,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A41:F50"/>
+  <dimension ref="A36:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5837,168 +6105,166 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="168"/>
+      <c r="B37" s="232" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="233"/>
+      <c r="D37" s="233"/>
+      <c r="E37" s="234"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="175">
+        <v>44433</v>
+      </c>
+      <c r="B38" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="177">
+        <v>234</v>
+      </c>
+      <c r="D38" s="178" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="179" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="108">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="175"/>
+      <c r="B39" s="176" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="177">
+        <v>0</v>
+      </c>
+      <c r="D39" s="180" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="179" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="175"/>
+      <c r="B40" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="177">
+        <v>0</v>
+      </c>
+      <c r="D40" s="180" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="184" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="175"/>
+      <c r="B41" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="177">
+        <v>0</v>
+      </c>
+      <c r="D41" s="180" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="184" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="169"/>
-      <c r="B42" s="234" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="235"/>
-      <c r="D42" s="235"/>
-      <c r="E42" s="236"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="178">
-        <v>44430</v>
-      </c>
-      <c r="B43" s="179" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="180">
-        <v>201</v>
-      </c>
-      <c r="D43" s="181" t="s">
+      <c r="B42" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="171">
+        <v>0</v>
+      </c>
+      <c r="D42" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="187" t="s">
+      <c r="E42" s="184" t="s">
         <v>34</v>
       </c>
+      <c r="F42" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="169"/>
+      <c r="B43" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="171">
+        <v>0</v>
+      </c>
+      <c r="D43" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="184" t="s">
+        <v>34</v>
+      </c>
       <c r="F43" s="108">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="178">
-        <v>44430</v>
-      </c>
-      <c r="B44" s="179" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="180">
-        <v>678.08</v>
-      </c>
-      <c r="D44" s="183" t="s">
+    <row r="44" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="169"/>
+      <c r="B44" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="171">
+        <v>0</v>
+      </c>
+      <c r="D44" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="182" t="s">
-        <v>47</v>
+      <c r="E44" s="184" t="s">
+        <v>34</v>
       </c>
       <c r="F44" s="108">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="178"/>
-      <c r="B45" s="179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="173"/>
+      <c r="B45" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="180">
-        <v>0</v>
-      </c>
-      <c r="D45" s="183" t="s">
+      <c r="C45" s="171">
+        <v>0</v>
+      </c>
+      <c r="D45" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="182" t="s">
-        <v>24</v>
+      <c r="E45" s="184" t="s">
+        <v>34</v>
       </c>
       <c r="F45" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="178"/>
-      <c r="B46" s="179" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="180">
-        <v>0</v>
-      </c>
-      <c r="D46" s="183" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="182" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="170"/>
-      <c r="B47" s="171" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="172">
-        <v>0</v>
-      </c>
-      <c r="D47" s="175" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="173" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="170"/>
-      <c r="B48" s="171" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="172">
-        <v>0</v>
-      </c>
-      <c r="D48" s="175" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="173" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="170"/>
-      <c r="B49" s="171" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="172">
-        <v>0</v>
-      </c>
-      <c r="D49" s="175" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="173" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="176"/>
-      <c r="B50" s="171" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="172">
-        <v>0</v>
-      </c>
-      <c r="D50" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="173" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="174">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE  HERRADURA  AGOSTO  2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE  HERRADURA  AGOSTO  2021.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -238,12 +238,6 @@
     <t xml:space="preserve"># </t>
   </si>
   <si>
-    <t># 1500</t>
-  </si>
-  <si>
-    <t>#  1501</t>
-  </si>
-  <si>
     <t>SUADERO--TOSTADAS</t>
   </si>
   <si>
@@ -296,6 +290,39 @@
   </si>
   <si>
     <t>16809 B</t>
+  </si>
+  <si>
+    <t>TOTOPOS-CONDIMENTOS-LONGANIZA-PAPAS</t>
+  </si>
+  <si>
+    <t>NOMINA # 35</t>
+  </si>
+  <si>
+    <t>C/6-9-11-Ago-21</t>
+  </si>
+  <si>
+    <t>c/ 27-Ago-21</t>
+  </si>
+  <si>
+    <t>ESPINAZO-BOLA RES-HAMBURGUESA-CABEZA</t>
+  </si>
+  <si>
+    <t>dejo el producto</t>
+  </si>
+  <si>
+    <t>LONGANIZA-ADOBO-SALCHICHAS</t>
+  </si>
+  <si>
+    <t># 1995</t>
+  </si>
+  <si>
+    <t>MANCHEGO</t>
+  </si>
+  <si>
+    <t>TOCINO-JAMON-SALSAS-DELANTERO</t>
+  </si>
+  <si>
+    <t>TOCINO-CREMA-QUESO-BOLSA</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -1817,7 +1844,124 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="38" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1845,127 +1989,6 @@
     <xf numFmtId="166" fontId="13" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1975,7 +1998,21 @@
     <xf numFmtId="164" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="44" fontId="38" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2695,8 +2732,8 @@
   </sheetPr>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="J16" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="G21" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,23 +2755,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="221"/>
-      <c r="C1" s="230" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="222"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -2744,17 +2781,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="224"/>
+      <c r="B3" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="203"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="225" t="s">
+      <c r="H3" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="225"/>
+      <c r="I3" s="204"/>
       <c r="K3" s="137"/>
       <c r="L3" s="137"/>
       <c r="M3" s="138"/>
@@ -2770,14 +2807,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="226" t="s">
+      <c r="E4" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="227"/>
-      <c r="H4" s="228" t="s">
+      <c r="F4" s="206"/>
+      <c r="H4" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="229"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -2787,10 +2824,10 @@
       <c r="N4" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="215" t="s">
+      <c r="P4" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="216"/>
+      <c r="Q4" s="195"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -2834,6 +2871,9 @@
         <f>P5-F5</f>
         <v>-3310.1100000000006</v>
       </c>
+      <c r="R5" s="105" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
@@ -2867,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="83">
-        <f t="shared" ref="P6:P38" si="0">N6+M6+L6+I6+C6</f>
+        <f t="shared" ref="P6:P36" si="0">N6+M6+L6+I6+C6</f>
         <v>50200</v>
       </c>
       <c r="Q6" s="137">
@@ -2962,6 +3002,9 @@
         <f t="shared" si="1"/>
         <v>-999.56000000000131</v>
       </c>
+      <c r="R8" s="105" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
@@ -3050,6 +3093,9 @@
         <f t="shared" si="1"/>
         <v>-109</v>
       </c>
+      <c r="R10" s="105" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
@@ -3315,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21">
         <v>44426</v>
@@ -3356,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21">
         <v>44427</v>
@@ -3399,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21">
         <v>44428</v>
@@ -3440,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21">
         <v>44429</v>
@@ -3489,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21">
         <v>44430</v>
@@ -3536,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21">
         <v>44431</v>
@@ -3579,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21">
         <v>44432</v>
@@ -3620,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="21">
         <v>44433</v>
@@ -3661,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="21">
         <v>44434</v>
@@ -3702,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="21">
         <v>44435</v>
@@ -3711,7 +3757,7 @@
         <v>1481</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" s="24">
         <v>44435</v>
@@ -3730,34 +3776,41 @@
       <c r="K26" s="56"/>
       <c r="L26" s="43"/>
       <c r="M26" s="139">
-        <f>56000+28209</f>
-        <v>84209</v>
+        <f>56000+28209+4000+3146</f>
+        <v>91355</v>
       </c>
       <c r="N26" s="30">
         <v>0</v>
       </c>
       <c r="P26" s="83">
         <f t="shared" si="0"/>
-        <v>85703</v>
-      </c>
-      <c r="Q26" s="187">
+        <v>92849</v>
+      </c>
+      <c r="Q26" s="191">
         <f t="shared" si="1"/>
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3146</v>
+      </c>
+      <c r="R26" s="105" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="21">
         <v>44436</v>
       </c>
       <c r="C27" s="22">
-        <v>0</v>
-      </c>
-      <c r="D27" s="38"/>
+        <v>3140</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="E27" s="24">
         <v>44436</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="25">
+        <v>61266</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="32">
         <v>44436</v>
@@ -3765,101 +3818,118 @@
       <c r="I27" s="28">
         <v>0</v>
       </c>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="60"/>
+      <c r="J27" s="61">
+        <v>44436</v>
+      </c>
+      <c r="K27" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="60">
+        <v>9714</v>
+      </c>
       <c r="M27" s="139">
-        <v>0</v>
+        <f>40000+7339</f>
+        <v>47339</v>
       </c>
       <c r="N27" s="30">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="P27" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61266</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="21">
         <v>44437</v>
       </c>
       <c r="C28" s="22">
-        <v>0</v>
-      </c>
-      <c r="D28" s="38"/>
+        <v>2664</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="E28" s="24">
         <v>44437</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25">
+        <v>63071</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="32">
         <v>44437</v>
       </c>
       <c r="I28" s="28">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="J28" s="63"/>
       <c r="K28" s="34"/>
       <c r="L28" s="60"/>
       <c r="M28" s="139">
-        <v>0</v>
+        <f>45000+9194</f>
+        <v>54194</v>
       </c>
       <c r="N28" s="30">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="P28" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63071</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="21">
         <v>44438</v>
       </c>
       <c r="C29" s="22">
-        <v>0</v>
-      </c>
-      <c r="D29" s="64"/>
+        <v>1682</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>74</v>
+      </c>
       <c r="E29" s="24">
         <v>44438</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="25">
+        <v>46220</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="32">
         <v>44438</v>
       </c>
       <c r="I29" s="28">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="J29" s="65"/>
       <c r="K29" s="66"/>
       <c r="L29" s="60"/>
       <c r="M29" s="139">
-        <v>0</v>
+        <f>20000+21854</f>
+        <v>41854</v>
       </c>
       <c r="N29" s="30">
-        <v>0</v>
+        <v>2325</v>
       </c>
       <c r="P29" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46220</v>
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="21">
         <v>44439</v>
@@ -3871,7 +3941,9 @@
       <c r="E30" s="24">
         <v>44439</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="25">
+        <v>42977</v>
+      </c>
       <c r="G30" s="26"/>
       <c r="H30" s="32">
         <v>44439</v>
@@ -3883,78 +3955,101 @@
       <c r="K30" s="68"/>
       <c r="L30" s="69"/>
       <c r="M30" s="139">
-        <v>0</v>
+        <f>18000+24977</f>
+        <v>42977</v>
       </c>
       <c r="N30" s="30">
         <v>0</v>
       </c>
       <c r="P30" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42977</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="21">
+        <v>44440</v>
+      </c>
       <c r="C31" s="22">
-        <v>0</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+        <v>366</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="24">
+        <v>44440</v>
+      </c>
+      <c r="F31" s="25">
+        <v>31285</v>
+      </c>
       <c r="G31" s="26"/>
-      <c r="H31" s="32"/>
+      <c r="H31" s="32">
+        <v>44440</v>
+      </c>
       <c r="I31" s="28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J31" s="67"/>
       <c r="K31" s="71"/>
       <c r="L31" s="72"/>
       <c r="M31" s="139">
-        <v>0</v>
+        <f>18000+12146</f>
+        <v>30146</v>
       </c>
       <c r="N31" s="30">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="P31" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31285</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="21">
+        <v>44441</v>
+      </c>
       <c r="C32" s="22">
-        <v>0</v>
-      </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
+        <v>5669</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="24">
+        <v>44441</v>
+      </c>
+      <c r="F32" s="25">
+        <v>50225</v>
+      </c>
       <c r="G32" s="26"/>
-      <c r="H32" s="32"/>
+      <c r="H32" s="32">
+        <v>44441</v>
+      </c>
       <c r="I32" s="28">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J32" s="67"/>
       <c r="K32" s="68"/>
       <c r="L32" s="69"/>
       <c r="M32" s="139">
-        <v>0</v>
+        <f>20000+24458</f>
+        <v>44458</v>
       </c>
       <c r="N32" s="30">
         <v>0</v>
       </c>
       <c r="P32" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50225</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="1"/>
@@ -3963,63 +4058,72 @@
     </row>
     <row r="33" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="21">
+        <v>44442</v>
+      </c>
       <c r="C33" s="22">
-        <v>0</v>
-      </c>
-      <c r="D33" s="74"/>
-      <c r="E33" s="24"/>
+        <v>1362</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="24">
+        <v>44442</v>
+      </c>
       <c r="F33" s="25">
-        <v>0</v>
+        <v>85969</v>
       </c>
       <c r="G33" s="26"/>
-      <c r="H33" s="32"/>
+      <c r="H33" s="32">
+        <v>44442</v>
+      </c>
       <c r="I33" s="28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J33" s="67"/>
       <c r="K33" s="71"/>
       <c r="L33" s="75"/>
       <c r="M33" s="139">
-        <v>0</v>
+        <f>50000</f>
+        <v>50000</v>
       </c>
       <c r="N33" s="30">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="P33" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="9">
+        <v>51946</v>
+      </c>
+      <c r="Q33" s="193">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-34023</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="21">
+        <v>44443</v>
+      </c>
       <c r="C34" s="22">
         <v>0</v>
       </c>
       <c r="D34" s="73"/>
-      <c r="E34" s="24"/>
+      <c r="E34" s="24">
+        <v>44443</v>
+      </c>
       <c r="F34" s="25">
         <v>0</v>
       </c>
       <c r="G34" s="26"/>
-      <c r="H34" s="32"/>
+      <c r="H34" s="32">
+        <v>44443</v>
+      </c>
       <c r="I34" s="28">
         <v>0</v>
       </c>
-      <c r="J34" s="67">
-        <v>44431</v>
-      </c>
-      <c r="K34" s="186" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" s="76">
-        <v>6975</v>
-      </c>
+      <c r="J34" s="67"/>
+      <c r="K34" s="192"/>
+      <c r="L34" s="76"/>
       <c r="M34" s="139">
         <v>0</v>
       </c>
@@ -4028,38 +4132,38 @@
       </c>
       <c r="P34" s="83">
         <f t="shared" si="0"/>
-        <v>6975</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="1"/>
-        <v>6975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="21">
+        <v>44444</v>
+      </c>
       <c r="C35" s="22">
         <v>0</v>
       </c>
       <c r="D35" s="77"/>
-      <c r="E35" s="24"/>
+      <c r="E35" s="24">
+        <v>44444</v>
+      </c>
       <c r="F35" s="25">
         <v>0</v>
       </c>
       <c r="G35" s="26"/>
-      <c r="H35" s="32"/>
+      <c r="H35" s="32">
+        <v>44444</v>
+      </c>
       <c r="I35" s="28">
         <v>0</v>
       </c>
-      <c r="J35" s="67">
-        <v>44431</v>
-      </c>
-      <c r="K35" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" s="75">
-        <v>549</v>
-      </c>
+      <c r="J35" s="67"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="75"/>
       <c r="M35" s="139">
         <v>0</v>
       </c>
@@ -4068,11 +4172,11 @@
       </c>
       <c r="P35" s="83">
         <f t="shared" si="0"/>
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="1"/>
-        <v>549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4125,9 +4229,15 @@
       <c r="I37" s="28">
         <v>0</v>
       </c>
-      <c r="J37" s="67"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="75"/>
+      <c r="J37" s="67">
+        <v>44431</v>
+      </c>
+      <c r="K37" s="186" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="76">
+        <v>6975</v>
+      </c>
       <c r="M37" s="139">
         <v>0</v>
       </c>
@@ -4135,7 +4245,6 @@
         <v>0</v>
       </c>
       <c r="P37" s="83">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q37" s="9">
@@ -4159,9 +4268,15 @@
       <c r="I38" s="28">
         <v>0</v>
       </c>
-      <c r="J38" s="67"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="75"/>
+      <c r="J38" s="67">
+        <v>44431</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="75">
+        <v>549</v>
+      </c>
       <c r="M38" s="139">
         <v>0</v>
       </c>
@@ -4169,7 +4284,6 @@
         <v>0</v>
       </c>
       <c r="P38" s="83">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q38" s="9">
@@ -4190,21 +4304,21 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="217">
+      <c r="M39" s="196">
         <f>SUM(M5:M38)</f>
-        <v>929244.5</v>
-      </c>
-      <c r="N39" s="219">
+        <v>1247358.5</v>
+      </c>
+      <c r="N39" s="198">
         <f>SUM(N5:N38)</f>
-        <v>11061.970000000001</v>
+        <v>21590.97</v>
       </c>
       <c r="P39" s="83">
         <f>SUM(P5:P38)</f>
-        <v>1009278.97</v>
+        <v>1355890.97</v>
       </c>
       <c r="Q39" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>377.68999999999869</v>
+        <v>-34023.31</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4220,8 +4334,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="218"/>
-      <c r="N40" s="220"/>
+      <c r="M40" s="197"/>
+      <c r="N40" s="199"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -4250,7 +4364,7 @@
       </c>
       <c r="C42" s="94">
         <f>SUM(C5:C41)</f>
-        <v>27759</v>
+        <v>42642</v>
       </c>
       <c r="D42" s="95"/>
       <c r="E42" s="96" t="s">
@@ -4258,7 +4372,7 @@
       </c>
       <c r="F42" s="97">
         <f>SUM(F5:F41)</f>
-        <v>1008901.28</v>
+        <v>1389914.28</v>
       </c>
       <c r="G42" s="95"/>
       <c r="H42" s="98" t="s">
@@ -4266,7 +4380,7 @@
       </c>
       <c r="I42" s="99">
         <f>SUM(I5:I41)</f>
-        <v>5556.5</v>
+        <v>6452.5</v>
       </c>
       <c r="J42" s="100"/>
       <c r="K42" s="101" t="s">
@@ -4274,7 +4388,7 @@
       </c>
       <c r="L42" s="102">
         <f>SUM(L5:L41)</f>
-        <v>35657</v>
+        <v>45371</v>
       </c>
       <c r="M42" s="103"/>
       <c r="N42" s="103"/>
@@ -4292,32 +4406,32 @@
       <c r="A44" s="105"/>
       <c r="B44" s="106"/>
       <c r="C44" s="3"/>
-      <c r="H44" s="205" t="s">
+      <c r="H44" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="206"/>
+      <c r="I44" s="220"/>
       <c r="J44" s="107"/>
-      <c r="K44" s="207">
+      <c r="K44" s="221">
         <f>I42+L42</f>
-        <v>41213.5</v>
-      </c>
-      <c r="L44" s="208"/>
-      <c r="M44" s="188">
+        <v>51823.5</v>
+      </c>
+      <c r="L44" s="222"/>
+      <c r="M44" s="229">
         <f>N39+M39</f>
-        <v>940306.47</v>
-      </c>
-      <c r="N44" s="189"/>
+        <v>1268949.47</v>
+      </c>
+      <c r="N44" s="230"/>
       <c r="P44" s="83"/>
       <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D45" s="209" t="s">
+      <c r="D45" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="209"/>
+      <c r="E45" s="223"/>
       <c r="F45" s="108">
         <f>F42-K44-C42</f>
-        <v>939928.78</v>
+        <v>1295448.78</v>
       </c>
       <c r="I45" s="109"/>
       <c r="J45" s="110"/>
@@ -4325,22 +4439,22 @@
       <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D46" s="210" t="s">
+      <c r="D46" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="210"/>
+      <c r="E46" s="224"/>
       <c r="F46" s="103">
         <v>0</v>
       </c>
-      <c r="I46" s="211" t="s">
+      <c r="I46" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="212"/>
-      <c r="K46" s="213">
+      <c r="J46" s="226"/>
+      <c r="K46" s="227">
         <f>F48+F49+F50</f>
-        <v>939928.78</v>
-      </c>
-      <c r="L46" s="214"/>
+        <v>1295448.78</v>
+      </c>
+      <c r="L46" s="228"/>
       <c r="P46" s="83"/>
       <c r="Q46" s="9"/>
     </row>
@@ -4364,17 +4478,17 @@
       </c>
       <c r="F48" s="103">
         <f>SUM(F45:F47)</f>
-        <v>939928.78</v>
+        <v>1295448.78</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="117" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="118"/>
-      <c r="K48" s="190">
-        <v>0</v>
-      </c>
-      <c r="L48" s="191"/>
+      <c r="K48" s="231">
+        <v>0</v>
+      </c>
+      <c r="L48" s="232"/>
     </row>
     <row r="49" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="119" t="s">
@@ -4389,22 +4503,22 @@
     </row>
     <row r="50" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C50" s="121"/>
-      <c r="D50" s="192" t="s">
+      <c r="D50" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="193"/>
+      <c r="E50" s="234"/>
       <c r="F50" s="122">
         <v>0</v>
       </c>
-      <c r="I50" s="194" t="s">
+      <c r="I50" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="195"/>
-      <c r="K50" s="196">
+      <c r="J50" s="236"/>
+      <c r="K50" s="237">
         <f>K46+K48</f>
-        <v>939928.78</v>
-      </c>
-      <c r="L50" s="196"/>
+        <v>1295448.78</v>
+      </c>
+      <c r="L50" s="237"/>
     </row>
     <row r="51" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="123"/>
@@ -4414,24 +4528,24 @@
       <c r="J51" s="127"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I52" s="197" t="s">
+      <c r="I52" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="198"/>
-      <c r="K52" s="201">
-        <v>0</v>
-      </c>
-      <c r="L52" s="202"/>
+      <c r="J52" s="212"/>
+      <c r="K52" s="215">
+        <v>0</v>
+      </c>
+      <c r="L52" s="216"/>
     </row>
     <row r="53" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="128"/>
       <c r="C53" s="129"/>
       <c r="D53" s="130"/>
       <c r="E53" s="83"/>
-      <c r="I53" s="199"/>
-      <c r="J53" s="200"/>
-      <c r="K53" s="203"/>
-      <c r="L53" s="204"/>
+      <c r="I53" s="213"/>
+      <c r="J53" s="214"/>
+      <c r="K53" s="217"/>
+      <c r="L53" s="218"/>
       <c r="M53" s="1"/>
       <c r="N53" s="105"/>
     </row>
@@ -4552,6 +4666,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
@@ -4561,19 +4688,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C1:M1"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4589,8 +4703,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4639,14 +4753,14 @@
       <c r="A3" s="142">
         <v>44422</v>
       </c>
-      <c r="B3" s="235">
-        <v>7232</v>
+      <c r="B3" s="187">
+        <v>2232</v>
       </c>
       <c r="C3" s="35">
         <v>3015.96</v>
       </c>
       <c r="D3" s="238" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="144">
@@ -4658,14 +4772,14 @@
       <c r="A4" s="142">
         <v>44422</v>
       </c>
-      <c r="B4" s="235">
-        <v>7233</v>
+      <c r="B4" s="187">
+        <v>2233</v>
       </c>
       <c r="C4" s="35">
         <v>10281</v>
       </c>
       <c r="D4" s="239"/>
-      <c r="E4" s="236"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="146">
         <f>F3+C4-E4</f>
         <v>13296.96</v>
@@ -4676,14 +4790,14 @@
       <c r="A5" s="142">
         <v>44422</v>
       </c>
-      <c r="B5" s="235">
-        <v>7234</v>
+      <c r="B5" s="187">
+        <v>2234</v>
       </c>
       <c r="C5" s="35">
         <v>12746.2</v>
       </c>
       <c r="D5" s="239"/>
-      <c r="E5" s="236"/>
+      <c r="E5" s="188"/>
       <c r="F5" s="146">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>26043.16</v>
@@ -4693,14 +4807,14 @@
       <c r="A6" s="142">
         <v>44422</v>
       </c>
-      <c r="B6" s="235">
-        <v>7235</v>
+      <c r="B6" s="187">
+        <v>2235</v>
       </c>
       <c r="C6" s="35">
         <v>28974.78</v>
       </c>
       <c r="D6" s="239"/>
-      <c r="E6" s="236"/>
+      <c r="E6" s="188"/>
       <c r="F6" s="146">
         <f t="shared" si="0"/>
         <v>55017.94</v>
@@ -4710,14 +4824,14 @@
       <c r="A7" s="142">
         <v>44422</v>
       </c>
-      <c r="B7" s="235">
-        <v>7236</v>
+      <c r="B7" s="187">
+        <v>2236</v>
       </c>
       <c r="C7" s="35">
         <v>44758.6</v>
       </c>
       <c r="D7" s="239"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="188"/>
       <c r="F7" s="146">
         <f t="shared" si="0"/>
         <v>99776.540000000008</v>
@@ -4727,14 +4841,14 @@
       <c r="A8" s="142">
         <v>44422</v>
       </c>
-      <c r="B8" s="235">
-        <v>7237</v>
+      <c r="B8" s="187">
+        <v>2237</v>
       </c>
       <c r="C8" s="35">
         <v>12841.78</v>
       </c>
       <c r="D8" s="239"/>
-      <c r="E8" s="236"/>
+      <c r="E8" s="188"/>
       <c r="F8" s="146">
         <f t="shared" si="0"/>
         <v>112618.32</v>
@@ -4744,14 +4858,14 @@
       <c r="A9" s="142">
         <v>44422</v>
       </c>
-      <c r="B9" s="235">
-        <v>7238</v>
+      <c r="B9" s="187">
+        <v>2238</v>
       </c>
       <c r="C9" s="35">
         <v>3898.05</v>
       </c>
       <c r="D9" s="239"/>
-      <c r="E9" s="236"/>
+      <c r="E9" s="188"/>
       <c r="F9" s="146">
         <f t="shared" si="0"/>
         <v>116516.37000000001</v>
@@ -4761,14 +4875,14 @@
       <c r="A10" s="142">
         <v>44422</v>
       </c>
-      <c r="B10" s="235">
-        <v>7239</v>
+      <c r="B10" s="187">
+        <v>2239</v>
       </c>
       <c r="C10" s="35">
         <v>1429</v>
       </c>
       <c r="D10" s="240"/>
-      <c r="E10" s="236"/>
+      <c r="E10" s="188"/>
       <c r="F10" s="146">
         <f t="shared" si="0"/>
         <v>117945.37000000001</v>
@@ -4779,7 +4893,7 @@
       <c r="A11" s="142"/>
       <c r="B11" s="143"/>
       <c r="C11" s="79"/>
-      <c r="D11" s="237">
+      <c r="D11" s="189">
         <v>44428</v>
       </c>
       <c r="E11" s="79">
@@ -4795,7 +4909,7 @@
         <v>44413</v>
       </c>
       <c r="B12" s="143" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="79">
         <v>92873.61</v>
@@ -4812,7 +4926,7 @@
         <v>44414</v>
       </c>
       <c r="B13" s="143" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="79">
         <v>51333.5</v>
@@ -4829,7 +4943,7 @@
         <v>44414</v>
       </c>
       <c r="B14" s="143" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="79">
         <v>7768.2</v>
@@ -4846,7 +4960,7 @@
         <v>44415</v>
       </c>
       <c r="B15" s="143" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="79">
         <v>877.74</v>
@@ -4863,7 +4977,7 @@
         <v>44416</v>
       </c>
       <c r="B16" s="143" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="79">
         <v>39384.800000000003</v>
@@ -4880,7 +4994,7 @@
         <v>44416</v>
       </c>
       <c r="B17" s="143" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="79">
         <v>5342.96</v>
@@ -4897,7 +5011,7 @@
         <v>44417</v>
       </c>
       <c r="B18" s="143" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="79">
         <v>4173.26</v>
@@ -4914,7 +5028,7 @@
         <v>44418</v>
       </c>
       <c r="B19" s="143" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="79">
         <v>55145.36</v>
@@ -4925,7 +5039,7 @@
       <c r="E19" s="79">
         <v>216899.43</v>
       </c>
-      <c r="F19" s="241">
+      <c r="F19" s="190">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
@@ -4935,7 +5049,7 @@
         <v>44419</v>
       </c>
       <c r="B20" s="143" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="79">
         <v>31463.06</v>
@@ -4952,7 +5066,7 @@
         <v>44419</v>
       </c>
       <c r="B21" s="143" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="79">
         <v>1176</v>
@@ -4969,7 +5083,7 @@
         <v>44420</v>
       </c>
       <c r="B22" s="143" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="79">
         <v>47284</v>
@@ -4987,7 +5101,7 @@
         <v>44421</v>
       </c>
       <c r="B23" s="143" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="79">
         <v>11800</v>
@@ -5004,7 +5118,7 @@
         <v>44421</v>
       </c>
       <c r="B24" s="143" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="79">
         <v>17041.91</v>
@@ -5021,7 +5135,7 @@
         <v>44422</v>
       </c>
       <c r="B25" s="143" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="79">
         <v>60116.94</v>
@@ -5038,7 +5152,7 @@
         <v>44422</v>
       </c>
       <c r="B26" s="143" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="79">
         <v>7818.2</v>
@@ -5055,7 +5169,7 @@
         <v>44424</v>
       </c>
       <c r="B27" s="143" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" s="79">
         <v>49269.2</v>
@@ -5066,7 +5180,7 @@
       <c r="E27" s="79">
         <v>235944.57</v>
       </c>
-      <c r="F27" s="241">
+      <c r="F27" s="190">
         <f t="shared" si="0"/>
         <v>30024.739999999991</v>
       </c>
@@ -6090,10 +6204,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A36:F45"/>
+  <dimension ref="A30:G52"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6105,168 +6219,175 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="168"/>
-      <c r="B37" s="232" t="s">
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="168"/>
+      <c r="B44" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="233"/>
-      <c r="D37" s="233"/>
-      <c r="E37" s="234"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="175">
-        <v>44433</v>
-      </c>
-      <c r="B38" s="176" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="177">
-        <v>234</v>
-      </c>
-      <c r="D38" s="178" t="s">
+      <c r="C44" s="242"/>
+      <c r="D44" s="242"/>
+      <c r="E44" s="243"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="175">
+        <v>44439</v>
+      </c>
+      <c r="B45" s="176" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="177">
+        <v>140</v>
+      </c>
+      <c r="D45" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="179" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="108">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="175"/>
-      <c r="B39" s="176" t="s">
+      <c r="E45" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="177">
-        <v>0</v>
-      </c>
-      <c r="D39" s="180" t="s">
+      <c r="F45" s="108">
+        <v>0</v>
+      </c>
+      <c r="G45" s="244" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="175"/>
+      <c r="B46" s="176" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="177">
+        <v>0</v>
+      </c>
+      <c r="D46" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="179" t="s">
+      <c r="E46" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="175"/>
-      <c r="B40" s="176" t="s">
+      <c r="F46" s="108">
+        <v>0</v>
+      </c>
+      <c r="G46" s="245"/>
+    </row>
+    <row r="47" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="175"/>
+      <c r="B47" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="177">
-        <v>0</v>
-      </c>
-      <c r="D40" s="180" t="s">
+      <c r="C47" s="177">
+        <v>0</v>
+      </c>
+      <c r="D47" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="184" t="s">
+      <c r="E47" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="175"/>
-      <c r="B41" s="176" t="s">
+      <c r="F47" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="175"/>
+      <c r="B48" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="177">
-        <v>0</v>
-      </c>
-      <c r="D41" s="180" t="s">
+      <c r="C48" s="177">
+        <v>0</v>
+      </c>
+      <c r="D48" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="184" t="s">
+      <c r="E48" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="169"/>
-      <c r="B42" s="170" t="s">
+      <c r="F48" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="169"/>
+      <c r="B49" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="171">
-        <v>0</v>
-      </c>
-      <c r="D42" s="172" t="s">
+      <c r="C49" s="171">
+        <v>0</v>
+      </c>
+      <c r="D49" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="184" t="s">
+      <c r="E49" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="169"/>
-      <c r="B43" s="170" t="s">
+      <c r="F49" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="169"/>
+      <c r="B50" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="171">
-        <v>0</v>
-      </c>
-      <c r="D43" s="172" t="s">
+      <c r="C50" s="171">
+        <v>0</v>
+      </c>
+      <c r="D50" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="184" t="s">
+      <c r="E50" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="169"/>
-      <c r="B44" s="170" t="s">
+      <c r="F50" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="169"/>
+      <c r="B51" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="171">
-        <v>0</v>
-      </c>
-      <c r="D44" s="172" t="s">
+      <c r="C51" s="171">
+        <v>0</v>
+      </c>
+      <c r="D51" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="184" t="s">
+      <c r="E51" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="173"/>
-      <c r="B45" s="170" t="s">
+      <c r="F51" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="173"/>
+      <c r="B52" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="171">
-        <v>0</v>
-      </c>
-      <c r="D45" s="174" t="s">
+      <c r="C52" s="171">
+        <v>0</v>
+      </c>
+      <c r="D52" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="184" t="s">
+      <c r="E52" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="108">
+      <c r="F52" s="108">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B37:E37"/>
+  <mergeCells count="2">
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G45:G46"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.39" right="0.13" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE  HERRADURA  AGOSTO  2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE  HERRADURA  AGOSTO  2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="A G O S T O    2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -142,9 +142,6 @@
     <t>GANANCIA</t>
   </si>
   <si>
-    <t>EFECTIVO PENDIENTE DE DEPOSITAR</t>
-  </si>
-  <si>
     <t>MARISOL ORTIZ</t>
   </si>
   <si>
@@ -323,6 +320,102 @@
   </si>
   <si>
     <t>TOCINO-CREMA-QUESO-BOLSA</t>
+  </si>
+  <si>
+    <t>16975 B</t>
+  </si>
+  <si>
+    <t>17198 B</t>
+  </si>
+  <si>
+    <t>17253 B</t>
+  </si>
+  <si>
+    <t>17386 B</t>
+  </si>
+  <si>
+    <t>17397 B</t>
+  </si>
+  <si>
+    <t>17443 B</t>
+  </si>
+  <si>
+    <t>17591 B</t>
+  </si>
+  <si>
+    <t>17686 B</t>
+  </si>
+  <si>
+    <t>17689 B</t>
+  </si>
+  <si>
+    <t>17731 B</t>
+  </si>
+  <si>
+    <t>17739 B</t>
+  </si>
+  <si>
+    <t>17881 B</t>
+  </si>
+  <si>
+    <t>17929 B</t>
+  </si>
+  <si>
+    <t>17940 B</t>
+  </si>
+  <si>
+    <t>18098 B</t>
+  </si>
+  <si>
+    <t>18099 B</t>
+  </si>
+  <si>
+    <t>18100 B</t>
+  </si>
+  <si>
+    <t>18329 B</t>
+  </si>
+  <si>
+    <t>18330 B</t>
+  </si>
+  <si>
+    <t>18425 B</t>
+  </si>
+  <si>
+    <t>18428 B</t>
+  </si>
+  <si>
+    <t>18464 B</t>
+  </si>
+  <si>
+    <t>18572 B</t>
+  </si>
+  <si>
+    <t>18596 B</t>
+  </si>
+  <si>
+    <t>18643 B</t>
+  </si>
+  <si>
+    <t>18700 B</t>
+  </si>
+  <si>
+    <t>18852 B</t>
+  </si>
+  <si>
+    <t>18855 B</t>
+  </si>
+  <si>
+    <t>18971 B</t>
+  </si>
+  <si>
+    <t>SALCHICHAS-JAMON-TOSTADAS-TOTPOS</t>
+  </si>
+  <si>
+    <t>NOMIAN # 36</t>
+  </si>
+  <si>
+    <t>BOLSA RES-RETAZO</t>
   </si>
 </sst>
 </file>
@@ -686,7 +779,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,12 +795,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,14 +822,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="60">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1370,48 +1451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1492,7 +1531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -1765,58 +1804,46 @@
     <xf numFmtId="1" fontId="36" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="37" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="37" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="37" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="39" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="39" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1824,8 +1851,8 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1841,7 +1868,7 @@
     <xf numFmtId="16" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1851,16 +1878,72 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="38" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,94 +1991,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2012,6 +2014,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2732,8 +2755,8 @@
   </sheetPr>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="G21" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,23 +2778,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="200"/>
-      <c r="C1" s="209" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="223" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="201"/>
+      <c r="B2" s="215"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -2781,17 +2804,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="203"/>
+      <c r="B3" s="216" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="217"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="204" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="204"/>
+      <c r="H3" s="218" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="218"/>
       <c r="K3" s="137"/>
       <c r="L3" s="137"/>
       <c r="M3" s="138"/>
@@ -2807,27 +2830,27 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="206"/>
-      <c r="H4" s="207" t="s">
+      <c r="F4" s="220"/>
+      <c r="H4" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="208"/>
+      <c r="I4" s="222"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="165" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="194" t="s">
+      <c r="M4" s="160" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="195"/>
+      <c r="P4" s="208" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="209"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -2867,12 +2890,12 @@
         <f>N5+M5+L5+I5+C5</f>
         <v>33353</v>
       </c>
-      <c r="Q5" s="167">
+      <c r="Q5" s="163">
         <f>P5-F5</f>
         <v>-3310.1100000000006</v>
       </c>
       <c r="R5" s="105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2941,7 +2964,7 @@
         <v>44416</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="35">
         <v>4500</v>
@@ -2998,12 +3021,12 @@
         <f t="shared" si="0"/>
         <v>30180</v>
       </c>
-      <c r="Q8" s="166">
+      <c r="Q8" s="162">
         <f t="shared" si="1"/>
         <v>-999.56000000000131</v>
       </c>
       <c r="R8" s="105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3032,7 +3055,7 @@
         <v>44418</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="35">
         <v>835</v>
@@ -3089,12 +3112,12 @@
         <f t="shared" si="0"/>
         <v>18581</v>
       </c>
-      <c r="Q10" s="166">
+      <c r="Q10" s="162">
         <f t="shared" si="1"/>
         <v>-109</v>
       </c>
       <c r="R10" s="105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3147,7 +3170,7 @@
         <v>8950</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="24">
         <v>44421</v>
@@ -3207,7 +3230,7 @@
         <v>44422</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="35">
         <v>10100</v>
@@ -3223,12 +3246,12 @@
         <f t="shared" si="0"/>
         <v>85810</v>
       </c>
-      <c r="Q13" s="181">
+      <c r="Q13" s="177">
         <f t="shared" si="1"/>
         <v>-5426</v>
       </c>
-      <c r="R13" s="183" t="s">
-        <v>38</v>
+      <c r="R13" s="179" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3267,12 +3290,12 @@
         <f t="shared" si="0"/>
         <v>63004</v>
       </c>
-      <c r="Q14" s="182">
+      <c r="Q14" s="178">
         <f t="shared" si="1"/>
         <v>5426</v>
       </c>
-      <c r="R14" s="183" t="s">
-        <v>39</v>
+      <c r="R14" s="179" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3284,7 +3307,7 @@
         <v>2135</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="24">
         <v>44424</v>
@@ -3327,7 +3350,7 @@
         <v>3311</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="24">
         <v>44425</v>
@@ -3411,7 +3434,7 @@
         <v>6241</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="24">
         <v>44427</v>
@@ -3495,7 +3518,7 @@
         <v>3574</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="24">
         <v>44429</v>
@@ -3514,7 +3537,7 @@
         <v>44429</v>
       </c>
       <c r="K20" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L20" s="43">
         <v>9698</v>
@@ -3544,7 +3567,7 @@
         <v>792</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="24">
         <v>44430</v>
@@ -3560,8 +3583,8 @@
         <v>42</v>
       </c>
       <c r="J21" s="33"/>
-      <c r="K21" s="185" t="s">
-        <v>31</v>
+      <c r="K21" s="181" t="s">
+        <v>30</v>
       </c>
       <c r="L21" s="43">
         <v>3000</v>
@@ -3591,7 +3614,7 @@
         <v>1275</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="24">
         <v>44431</v>
@@ -3757,7 +3780,7 @@
         <v>1481</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="24">
         <v>44435</v>
@@ -3786,12 +3809,12 @@
         <f t="shared" si="0"/>
         <v>92849</v>
       </c>
-      <c r="Q26" s="191">
+      <c r="Q26" s="187">
         <f t="shared" si="1"/>
         <v>3146</v>
       </c>
       <c r="R26" s="105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3803,7 +3826,7 @@
         <v>3140</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="24">
         <v>44436</v>
@@ -3822,7 +3845,7 @@
         <v>44436</v>
       </c>
       <c r="K27" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L27" s="60">
         <v>9714</v>
@@ -3852,7 +3875,7 @@
         <v>2664</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="24">
         <v>44437</v>
@@ -3895,7 +3918,7 @@
         <v>1682</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="24">
         <v>44438</v>
@@ -3979,7 +4002,7 @@
         <v>366</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="24">
         <v>44440</v>
@@ -4022,7 +4045,7 @@
         <v>5669</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="24">
         <v>44441</v>
@@ -4065,7 +4088,7 @@
         <v>1362</v>
       </c>
       <c r="D33" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="24">
         <v>44442</v>
@@ -4084,19 +4107,19 @@
       <c r="K33" s="71"/>
       <c r="L33" s="75"/>
       <c r="M33" s="139">
-        <f>50000</f>
-        <v>50000</v>
+        <f>50000+34023</f>
+        <v>84023</v>
       </c>
       <c r="N33" s="30">
         <v>571</v>
       </c>
       <c r="P33" s="83">
         <f t="shared" si="0"/>
-        <v>51946</v>
-      </c>
-      <c r="Q33" s="193">
+        <v>85969</v>
+      </c>
+      <c r="Q33" s="9">
         <f t="shared" si="1"/>
-        <v>-34023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4105,14 +4128,16 @@
         <v>44443</v>
       </c>
       <c r="C34" s="22">
-        <v>0</v>
-      </c>
-      <c r="D34" s="73"/>
+        <v>1000</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>107</v>
+      </c>
       <c r="E34" s="24">
         <v>44443</v>
       </c>
       <c r="F34" s="25">
-        <v>0</v>
+        <v>52980</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="32">
@@ -4121,22 +4146,29 @@
       <c r="I34" s="28">
         <v>0</v>
       </c>
-      <c r="J34" s="67"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="76"/>
+      <c r="J34" s="67">
+        <v>44443</v>
+      </c>
+      <c r="K34" s="188" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="76">
+        <v>10680.95</v>
+      </c>
       <c r="M34" s="139">
-        <v>0</v>
+        <f>30000+6833</f>
+        <v>36833</v>
       </c>
       <c r="N34" s="30">
-        <v>0</v>
+        <v>4466</v>
       </c>
       <c r="P34" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52979.95</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.0000000002910383E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4145,34 +4177,37 @@
         <v>44444</v>
       </c>
       <c r="C35" s="22">
-        <v>0</v>
-      </c>
-      <c r="D35" s="77"/>
+        <v>3173</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>109</v>
+      </c>
       <c r="E35" s="24">
         <v>44444</v>
       </c>
       <c r="F35" s="25">
-        <v>0</v>
+        <v>81019</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="32">
         <v>44444</v>
       </c>
       <c r="I35" s="28">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J35" s="67"/>
       <c r="K35" s="71"/>
       <c r="L35" s="75"/>
       <c r="M35" s="139">
-        <v>0</v>
+        <f>50000+25461</f>
+        <v>75461</v>
       </c>
       <c r="N35" s="30">
-        <v>0</v>
+        <v>2343</v>
       </c>
       <c r="P35" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81019</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="1"/>
@@ -4232,8 +4267,8 @@
       <c r="J37" s="67">
         <v>44431</v>
       </c>
-      <c r="K37" s="186" t="s">
-        <v>47</v>
+      <c r="K37" s="182" t="s">
+        <v>46</v>
       </c>
       <c r="L37" s="76">
         <v>6975</v>
@@ -4272,7 +4307,7 @@
         <v>44431</v>
       </c>
       <c r="K38" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L38" s="75">
         <v>549</v>
@@ -4304,21 +4339,21 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="196">
+      <c r="M39" s="210">
         <f>SUM(M5:M38)</f>
-        <v>1247358.5</v>
-      </c>
-      <c r="N39" s="198">
+        <v>1393675.5</v>
+      </c>
+      <c r="N39" s="212">
         <f>SUM(N5:N38)</f>
-        <v>21590.97</v>
+        <v>28399.97</v>
       </c>
       <c r="P39" s="83">
         <f>SUM(P5:P38)</f>
-        <v>1355890.97</v>
+        <v>1523912.92</v>
       </c>
       <c r="Q39" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>-34023.31</v>
+        <v>-0.36000000000422006</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4334,8 +4369,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="197"/>
-      <c r="N40" s="199"/>
+      <c r="M40" s="211"/>
+      <c r="N40" s="213"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -4364,7 +4399,7 @@
       </c>
       <c r="C42" s="94">
         <f>SUM(C5:C41)</f>
-        <v>42642</v>
+        <v>46815</v>
       </c>
       <c r="D42" s="95"/>
       <c r="E42" s="96" t="s">
@@ -4372,7 +4407,7 @@
       </c>
       <c r="F42" s="97">
         <f>SUM(F5:F41)</f>
-        <v>1389914.28</v>
+        <v>1523913.28</v>
       </c>
       <c r="G42" s="95"/>
       <c r="H42" s="98" t="s">
@@ -4380,7 +4415,7 @@
       </c>
       <c r="I42" s="99">
         <f>SUM(I5:I41)</f>
-        <v>6452.5</v>
+        <v>6494.5</v>
       </c>
       <c r="J42" s="100"/>
       <c r="K42" s="101" t="s">
@@ -4388,7 +4423,7 @@
       </c>
       <c r="L42" s="102">
         <f>SUM(L5:L41)</f>
-        <v>45371</v>
+        <v>56051.95</v>
       </c>
       <c r="M42" s="103"/>
       <c r="N42" s="103"/>
@@ -4406,32 +4441,32 @@
       <c r="A44" s="105"/>
       <c r="B44" s="106"/>
       <c r="C44" s="3"/>
-      <c r="H44" s="219" t="s">
+      <c r="H44" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="220"/>
+      <c r="I44" s="199"/>
       <c r="J44" s="107"/>
-      <c r="K44" s="221">
+      <c r="K44" s="200">
         <f>I42+L42</f>
-        <v>51823.5</v>
-      </c>
-      <c r="L44" s="222"/>
-      <c r="M44" s="229">
+        <v>62546.45</v>
+      </c>
+      <c r="L44" s="201"/>
+      <c r="M44" s="189">
         <f>N39+M39</f>
-        <v>1268949.47</v>
-      </c>
-      <c r="N44" s="230"/>
+        <v>1422075.47</v>
+      </c>
+      <c r="N44" s="190"/>
       <c r="P44" s="83"/>
       <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D45" s="223" t="s">
+      <c r="D45" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="223"/>
+      <c r="E45" s="202"/>
       <c r="F45" s="108">
         <f>F42-K44-C42</f>
-        <v>1295448.78</v>
+        <v>1414551.83</v>
       </c>
       <c r="I45" s="109"/>
       <c r="J45" s="110"/>
@@ -4439,22 +4474,22 @@
       <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D46" s="224" t="s">
+      <c r="D46" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="224"/>
+      <c r="E46" s="203"/>
       <c r="F46" s="103">
-        <v>0</v>
-      </c>
-      <c r="I46" s="225" t="s">
+        <v>-1523111</v>
+      </c>
+      <c r="I46" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="226"/>
-      <c r="K46" s="227">
+      <c r="J46" s="205"/>
+      <c r="K46" s="206">
         <f>F48+F49+F50</f>
-        <v>1295448.78</v>
-      </c>
-      <c r="L46" s="228"/>
+        <v>27675.600000000064</v>
+      </c>
+      <c r="L46" s="207"/>
       <c r="P46" s="83"/>
       <c r="Q46" s="9"/>
     </row>
@@ -4478,17 +4513,17 @@
       </c>
       <c r="F48" s="103">
         <f>SUM(F45:F47)</f>
-        <v>1295448.78</v>
+        <v>-108559.16999999993</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="117" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="118"/>
-      <c r="K48" s="231">
-        <v>0</v>
-      </c>
-      <c r="L48" s="232"/>
+      <c r="K48" s="191">
+        <v>0</v>
+      </c>
+      <c r="L48" s="192"/>
     </row>
     <row r="49" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="119" t="s">
@@ -4502,50 +4537,48 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="121"/>
-      <c r="D50" s="233" t="s">
+      <c r="C50" s="121">
+        <v>44444</v>
+      </c>
+      <c r="D50" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="234"/>
+      <c r="E50" s="194"/>
       <c r="F50" s="122">
-        <v>0</v>
-      </c>
-      <c r="I50" s="235" t="s">
+        <v>136234.76999999999</v>
+      </c>
+      <c r="I50" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="236"/>
-      <c r="K50" s="237">
+      <c r="J50" s="196"/>
+      <c r="K50" s="197">
         <f>K46+K48</f>
-        <v>1295448.78</v>
-      </c>
-      <c r="L50" s="237"/>
-    </row>
-    <row r="51" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27675.600000000064</v>
+      </c>
+      <c r="L50" s="197"/>
+    </row>
+    <row r="51" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C51" s="123"/>
       <c r="D51" s="124"/>
       <c r="E51" s="125"/>
       <c r="F51" s="126"/>
       <c r="J51" s="127"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I52" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="212"/>
-      <c r="K52" s="215">
-        <v>0</v>
-      </c>
-      <c r="L52" s="216"/>
-    </row>
-    <row r="53" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="240"/>
+      <c r="J52" s="240"/>
+      <c r="K52" s="241"/>
+      <c r="L52" s="241"/>
+    </row>
+    <row r="53" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="128"/>
       <c r="C53" s="129"/>
       <c r="D53" s="130"/>
       <c r="E53" s="83"/>
-      <c r="I53" s="213"/>
-      <c r="J53" s="214"/>
-      <c r="K53" s="217"/>
-      <c r="L53" s="218"/>
+      <c r="I53" s="240"/>
+      <c r="J53" s="240"/>
+      <c r="K53" s="241"/>
+      <c r="L53" s="241"/>
       <c r="M53" s="1"/>
       <c r="N53" s="105"/>
     </row>
@@ -4665,20 +4698,7 @@
       <c r="F72" s="135"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
+  <mergeCells count="20">
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
@@ -4688,6 +4708,17 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C1:M1"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4703,8 +4734,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4718,49 +4749,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163" t="s">
-        <v>28</v>
+      <c r="A1" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="C2" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="D2" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="140" t="s">
+      <c r="E2" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="141" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" s="141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="142">
         <v>44422</v>
       </c>
-      <c r="B3" s="187">
+      <c r="B3" s="183">
         <v>2232</v>
       </c>
       <c r="C3" s="35">
         <v>3015.96</v>
       </c>
-      <c r="D3" s="238" t="s">
-        <v>51</v>
+      <c r="D3" s="225" t="s">
+        <v>50</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="144">
@@ -4772,14 +4803,14 @@
       <c r="A4" s="142">
         <v>44422</v>
       </c>
-      <c r="B4" s="187">
+      <c r="B4" s="183">
         <v>2233</v>
       </c>
       <c r="C4" s="35">
         <v>10281</v>
       </c>
-      <c r="D4" s="239"/>
-      <c r="E4" s="188"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="184"/>
       <c r="F4" s="146">
         <f>F3+C4-E4</f>
         <v>13296.96</v>
@@ -4790,14 +4821,14 @@
       <c r="A5" s="142">
         <v>44422</v>
       </c>
-      <c r="B5" s="187">
+      <c r="B5" s="183">
         <v>2234</v>
       </c>
       <c r="C5" s="35">
         <v>12746.2</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="188"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="146">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>26043.16</v>
@@ -4807,14 +4838,14 @@
       <c r="A6" s="142">
         <v>44422</v>
       </c>
-      <c r="B6" s="187">
+      <c r="B6" s="183">
         <v>2235</v>
       </c>
       <c r="C6" s="35">
         <v>28974.78</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="188"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="184"/>
       <c r="F6" s="146">
         <f t="shared" si="0"/>
         <v>55017.94</v>
@@ -4824,14 +4855,14 @@
       <c r="A7" s="142">
         <v>44422</v>
       </c>
-      <c r="B7" s="187">
+      <c r="B7" s="183">
         <v>2236</v>
       </c>
       <c r="C7" s="35">
         <v>44758.6</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="188"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="184"/>
       <c r="F7" s="146">
         <f t="shared" si="0"/>
         <v>99776.540000000008</v>
@@ -4841,14 +4872,14 @@
       <c r="A8" s="142">
         <v>44422</v>
       </c>
-      <c r="B8" s="187">
+      <c r="B8" s="183">
         <v>2237</v>
       </c>
       <c r="C8" s="35">
         <v>12841.78</v>
       </c>
-      <c r="D8" s="239"/>
-      <c r="E8" s="188"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="184"/>
       <c r="F8" s="146">
         <f t="shared" si="0"/>
         <v>112618.32</v>
@@ -4858,14 +4889,14 @@
       <c r="A9" s="142">
         <v>44422</v>
       </c>
-      <c r="B9" s="187">
+      <c r="B9" s="183">
         <v>2238</v>
       </c>
       <c r="C9" s="35">
         <v>3898.05</v>
       </c>
-      <c r="D9" s="239"/>
-      <c r="E9" s="188"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="184"/>
       <c r="F9" s="146">
         <f t="shared" si="0"/>
         <v>116516.37000000001</v>
@@ -4875,14 +4906,14 @@
       <c r="A10" s="142">
         <v>44422</v>
       </c>
-      <c r="B10" s="187">
+      <c r="B10" s="183">
         <v>2239</v>
       </c>
       <c r="C10" s="35">
         <v>1429</v>
       </c>
-      <c r="D10" s="240"/>
-      <c r="E10" s="188"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="184"/>
       <c r="F10" s="146">
         <f t="shared" si="0"/>
         <v>117945.37000000001</v>
@@ -4893,7 +4924,7 @@
       <c r="A11" s="142"/>
       <c r="B11" s="143"/>
       <c r="C11" s="79"/>
-      <c r="D11" s="189">
+      <c r="D11" s="185">
         <v>44428</v>
       </c>
       <c r="E11" s="79">
@@ -4909,7 +4940,7 @@
         <v>44413</v>
       </c>
       <c r="B12" s="143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="79">
         <v>92873.61</v>
@@ -4926,7 +4957,7 @@
         <v>44414</v>
       </c>
       <c r="B13" s="143" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="79">
         <v>51333.5</v>
@@ -4943,7 +4974,7 @@
         <v>44414</v>
       </c>
       <c r="B14" s="143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="79">
         <v>7768.2</v>
@@ -4960,7 +4991,7 @@
         <v>44415</v>
       </c>
       <c r="B15" s="143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="79">
         <v>877.74</v>
@@ -4977,7 +5008,7 @@
         <v>44416</v>
       </c>
       <c r="B16" s="143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="79">
         <v>39384.800000000003</v>
@@ -4994,7 +5025,7 @@
         <v>44416</v>
       </c>
       <c r="B17" s="143" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="79">
         <v>5342.96</v>
@@ -5011,7 +5042,7 @@
         <v>44417</v>
       </c>
       <c r="B18" s="143" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="79">
         <v>4173.26</v>
@@ -5028,7 +5059,7 @@
         <v>44418</v>
       </c>
       <c r="B19" s="143" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="79">
         <v>55145.36</v>
@@ -5039,7 +5070,7 @@
       <c r="E19" s="79">
         <v>216899.43</v>
       </c>
-      <c r="F19" s="190">
+      <c r="F19" s="186">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
@@ -5049,7 +5080,7 @@
         <v>44419</v>
       </c>
       <c r="B20" s="143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="79">
         <v>31463.06</v>
@@ -5066,7 +5097,7 @@
         <v>44419</v>
       </c>
       <c r="B21" s="143" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="79">
         <v>1176</v>
@@ -5083,7 +5114,7 @@
         <v>44420</v>
       </c>
       <c r="B22" s="143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="79">
         <v>47284</v>
@@ -5101,7 +5132,7 @@
         <v>44421</v>
       </c>
       <c r="B23" s="143" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="79">
         <v>11800</v>
@@ -5118,7 +5149,7 @@
         <v>44421</v>
       </c>
       <c r="B24" s="143" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="79">
         <v>17041.91</v>
@@ -5135,7 +5166,7 @@
         <v>44422</v>
       </c>
       <c r="B25" s="143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="79">
         <v>60116.94</v>
@@ -5152,7 +5183,7 @@
         <v>44422</v>
       </c>
       <c r="B26" s="143" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="79">
         <v>7818.2</v>
@@ -5169,7 +5200,7 @@
         <v>44424</v>
       </c>
       <c r="B27" s="143" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="79">
         <v>49269.2</v>
@@ -5180,798 +5211,986 @@
       <c r="E27" s="79">
         <v>235944.57</v>
       </c>
-      <c r="F27" s="190">
+      <c r="F27" s="186">
         <f t="shared" si="0"/>
         <v>30024.739999999991</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="79"/>
+      <c r="A28" s="145">
+        <v>44425</v>
+      </c>
+      <c r="B28" s="143" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="79">
+        <v>49026.7</v>
+      </c>
       <c r="D28" s="145"/>
       <c r="E28" s="79"/>
       <c r="F28" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>79051.439999999988</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="79"/>
+      <c r="A29" s="145">
+        <v>44427</v>
+      </c>
+      <c r="B29" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="79">
+        <v>29539.7</v>
+      </c>
       <c r="D29" s="145"/>
       <c r="E29" s="79"/>
       <c r="F29" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>108591.13999999998</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="145"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="79"/>
+      <c r="A30" s="145">
+        <v>44428</v>
+      </c>
+      <c r="B30" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="79">
+        <v>61408.86</v>
+      </c>
       <c r="D30" s="145"/>
       <c r="E30" s="79"/>
       <c r="F30" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>170000</v>
       </c>
       <c r="G30" s="147"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="145"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="79"/>
+      <c r="A31" s="145">
+        <v>44429</v>
+      </c>
+      <c r="B31" s="143" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="79">
+        <v>18397.5</v>
+      </c>
       <c r="D31" s="145"/>
       <c r="E31" s="79"/>
       <c r="F31" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>188397.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="145"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="79"/>
+      <c r="A32" s="145">
+        <v>44429</v>
+      </c>
+      <c r="B32" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="79">
+        <v>47260.800000000003</v>
+      </c>
       <c r="D32" s="145"/>
       <c r="E32" s="79"/>
       <c r="F32" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>235658.3</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="145"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="79"/>
+      <c r="A33" s="145">
+        <v>44429</v>
+      </c>
+      <c r="B33" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="79">
+        <v>9625.7999999999993</v>
+      </c>
       <c r="D33" s="145"/>
       <c r="E33" s="79"/>
       <c r="F33" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>245284.09999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="145"/>
-      <c r="B34" s="143"/>
-      <c r="C34" s="79"/>
+      <c r="A34" s="145">
+        <v>44431</v>
+      </c>
+      <c r="B34" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="79">
+        <v>58308.1</v>
+      </c>
       <c r="D34" s="145"/>
       <c r="E34" s="79"/>
       <c r="F34" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>303592.19999999995</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="145"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="79"/>
+      <c r="A35" s="145">
+        <v>44432</v>
+      </c>
+      <c r="B35" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="79">
+        <v>10718.4</v>
+      </c>
       <c r="D35" s="145"/>
       <c r="E35" s="79"/>
       <c r="F35" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>314310.59999999998</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="145"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="79"/>
+      <c r="A36" s="145">
+        <v>44432</v>
+      </c>
+      <c r="B36" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="79">
+        <v>10385</v>
+      </c>
+      <c r="D36" s="145">
+        <v>44435</v>
+      </c>
+      <c r="E36" s="79">
+        <v>324695.59999999998</v>
+      </c>
       <c r="F36" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="145"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="79"/>
+      <c r="A37" s="145">
+        <v>44433</v>
+      </c>
+      <c r="B37" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="79">
+        <v>55844.4</v>
+      </c>
       <c r="D37" s="145"/>
       <c r="E37" s="79"/>
       <c r="F37" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>55844.4</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="145"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="79"/>
+      <c r="A38" s="145">
+        <v>44433</v>
+      </c>
+      <c r="B38" s="143" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="79">
+        <v>3492.2</v>
+      </c>
       <c r="D38" s="145"/>
       <c r="E38" s="79"/>
       <c r="F38" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>59336.6</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="145"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="79"/>
+      <c r="A39" s="145">
+        <v>44434</v>
+      </c>
+      <c r="B39" s="143" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="79">
+        <v>29683.7</v>
+      </c>
       <c r="D39" s="145"/>
       <c r="E39" s="79"/>
       <c r="F39" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>89020.3</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="145"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="79"/>
+      <c r="A40" s="145">
+        <v>44435</v>
+      </c>
+      <c r="B40" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="79">
+        <v>91570.559999999998</v>
+      </c>
       <c r="D40" s="145"/>
       <c r="E40" s="79"/>
       <c r="F40" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>180590.86</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="145"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="79"/>
+      <c r="A41" s="145">
+        <v>44435</v>
+      </c>
+      <c r="B41" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="79">
+        <v>5069.2</v>
+      </c>
       <c r="D41" s="145"/>
       <c r="E41" s="79"/>
       <c r="F41" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>185660.06</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="145"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="79"/>
+      <c r="A42" s="145">
+        <v>44436</v>
+      </c>
+      <c r="B42" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="79">
+        <v>50991.1</v>
+      </c>
       <c r="D42" s="145"/>
       <c r="E42" s="79"/>
       <c r="F42" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>236651.16</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="79"/>
+      <c r="A43" s="145">
+        <v>44436</v>
+      </c>
+      <c r="B43" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="79">
+        <v>3137.5</v>
+      </c>
       <c r="D43" s="145"/>
       <c r="E43" s="79"/>
       <c r="F43" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>239788.66</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="145"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="79"/>
+      <c r="A44" s="145">
+        <v>44436</v>
+      </c>
+      <c r="B44" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="79">
+        <v>1545</v>
+      </c>
+      <c r="D44" s="145">
+        <v>44442</v>
+      </c>
+      <c r="E44" s="79">
+        <v>241333.66</v>
+      </c>
       <c r="F44" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="145"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="79"/>
+      <c r="A45" s="235">
+        <v>44438</v>
+      </c>
+      <c r="B45" s="233" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="234">
+        <v>59828.6</v>
+      </c>
       <c r="D45" s="145"/>
       <c r="E45" s="79"/>
       <c r="F45" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>59828.6</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="145"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="79"/>
+      <c r="A46" s="235">
+        <v>44438</v>
+      </c>
+      <c r="B46" s="233" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="234">
+        <v>7936</v>
+      </c>
       <c r="D46" s="145"/>
       <c r="E46" s="79"/>
       <c r="F46" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>67764.600000000006</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="145"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="79"/>
+      <c r="A47" s="235">
+        <v>44439</v>
+      </c>
+      <c r="B47" s="233" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="234">
+        <v>51630.5</v>
+      </c>
       <c r="D47" s="145"/>
       <c r="E47" s="79"/>
       <c r="F47" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>119395.1</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="145"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="79"/>
+      <c r="A48" s="235">
+        <v>44439</v>
+      </c>
+      <c r="B48" s="233" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="234">
+        <v>8998</v>
+      </c>
       <c r="D48" s="145"/>
       <c r="E48" s="79"/>
       <c r="F48" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>128393.1</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="145"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="79"/>
+      <c r="A49" s="235">
+        <v>44440</v>
+      </c>
+      <c r="B49" s="233" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="234">
+        <v>19868.599999999999</v>
+      </c>
       <c r="D49" s="145"/>
       <c r="E49" s="79"/>
       <c r="F49" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>148261.70000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="145"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="79"/>
+      <c r="A50" s="235">
+        <v>44441</v>
+      </c>
+      <c r="B50" s="233" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="234">
+        <v>45543.199999999997</v>
+      </c>
       <c r="D50" s="145"/>
       <c r="E50" s="79"/>
       <c r="F50" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>193804.90000000002</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="145"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="79"/>
+      <c r="A51" s="235">
+        <v>44441</v>
+      </c>
+      <c r="B51" s="233" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="234">
+        <v>3212.58</v>
+      </c>
       <c r="D51" s="145"/>
       <c r="E51" s="79"/>
       <c r="F51" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>197017.48</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="145"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="79"/>
+      <c r="A52" s="235">
+        <v>44441</v>
+      </c>
+      <c r="B52" s="233" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="234">
+        <v>4028.6</v>
+      </c>
       <c r="D52" s="145"/>
       <c r="E52" s="79"/>
       <c r="F52" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>201046.08000000002</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="145"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="79"/>
+      <c r="A53" s="235">
+        <v>44442</v>
+      </c>
+      <c r="B53" s="233" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="234">
+        <v>101013.65</v>
+      </c>
       <c r="D53" s="145"/>
       <c r="E53" s="79"/>
       <c r="F53" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="142"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="79"/>
+        <v>302059.73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="236">
+        <v>44443</v>
+      </c>
+      <c r="B54" s="233" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="234">
+        <v>35635.89</v>
+      </c>
       <c r="D54" s="145"/>
       <c r="E54" s="79"/>
       <c r="F54" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="142"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="79"/>
+        <v>337695.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="236">
+        <v>44443</v>
+      </c>
+      <c r="B55" s="233" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="234">
+        <v>691.2</v>
+      </c>
       <c r="D55" s="145"/>
       <c r="E55" s="79"/>
       <c r="F55" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="142"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="79"/>
+        <v>338386.82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="236">
+        <v>44444</v>
+      </c>
+      <c r="B56" s="233">
+        <v>18966</v>
+      </c>
+      <c r="C56" s="234">
+        <v>4784.3500000000004</v>
+      </c>
       <c r="D56" s="145"/>
       <c r="E56" s="79"/>
       <c r="F56" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="145"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="79"/>
+        <v>343171.17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="235">
+        <v>44444</v>
+      </c>
+      <c r="B57" s="233" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="234">
+        <v>43121.2</v>
+      </c>
       <c r="D57" s="145"/>
       <c r="E57" s="79"/>
       <c r="F57" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="145"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="79"/>
+        <v>386292.37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="235"/>
+      <c r="B58" s="233"/>
+      <c r="C58" s="234"/>
       <c r="D58" s="145"/>
       <c r="E58" s="79"/>
       <c r="F58" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="145"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="79"/>
+        <v>386292.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="235"/>
+      <c r="B59" s="233"/>
+      <c r="C59" s="234"/>
       <c r="D59" s="145"/>
       <c r="E59" s="79"/>
       <c r="F59" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="142"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="79"/>
+        <v>386292.37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="236"/>
+      <c r="B60" s="233"/>
+      <c r="C60" s="234"/>
       <c r="D60" s="145"/>
       <c r="E60" s="79"/>
       <c r="F60" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="142"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="79"/>
+        <v>386292.37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="236"/>
+      <c r="B61" s="233"/>
+      <c r="C61" s="234"/>
       <c r="D61" s="145"/>
       <c r="E61" s="79"/>
       <c r="F61" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="142"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="79"/>
+        <v>386292.37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="236"/>
+      <c r="B62" s="233"/>
+      <c r="C62" s="234"/>
       <c r="D62" s="145"/>
       <c r="E62" s="79"/>
       <c r="F62" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="142"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="79"/>
+        <v>386292.37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="236"/>
+      <c r="B63" s="233"/>
+      <c r="C63" s="234"/>
       <c r="D63" s="145"/>
       <c r="E63" s="79"/>
       <c r="F63" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="142"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="79"/>
+      <c r="A64" s="236"/>
+      <c r="B64" s="233"/>
+      <c r="C64" s="234"/>
       <c r="D64" s="145"/>
       <c r="E64" s="79"/>
       <c r="F64" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="142"/>
-      <c r="B65" s="143"/>
-      <c r="C65" s="79"/>
+      <c r="A65" s="236"/>
+      <c r="B65" s="233"/>
+      <c r="C65" s="234"/>
       <c r="D65" s="145"/>
       <c r="E65" s="79"/>
       <c r="F65" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="142"/>
-      <c r="B66" s="143"/>
-      <c r="C66" s="79"/>
+      <c r="A66" s="236"/>
+      <c r="B66" s="233"/>
+      <c r="C66" s="234"/>
       <c r="D66" s="145"/>
       <c r="E66" s="79"/>
       <c r="F66" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="142"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="79"/>
+      <c r="A67" s="236"/>
+      <c r="B67" s="233"/>
+      <c r="C67" s="234"/>
       <c r="D67" s="145"/>
       <c r="E67" s="79"/>
       <c r="F67" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="142"/>
-      <c r="B68" s="143"/>
-      <c r="C68" s="79"/>
+      <c r="A68" s="236"/>
+      <c r="B68" s="233"/>
+      <c r="C68" s="234"/>
       <c r="D68" s="145"/>
       <c r="E68" s="79"/>
       <c r="F68" s="146">
         <f t="shared" si="0"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="142"/>
-      <c r="B69" s="143"/>
-      <c r="C69" s="79"/>
+      <c r="A69" s="236"/>
+      <c r="B69" s="233"/>
+      <c r="C69" s="234"/>
       <c r="D69" s="145"/>
       <c r="E69" s="79"/>
       <c r="F69" s="146">
         <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="142"/>
-      <c r="B70" s="143"/>
-      <c r="C70" s="79"/>
+      <c r="A70" s="236"/>
+      <c r="B70" s="233"/>
+      <c r="C70" s="234"/>
       <c r="D70" s="145"/>
       <c r="E70" s="79"/>
       <c r="F70" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="142"/>
-      <c r="B71" s="143"/>
-      <c r="C71" s="79"/>
+      <c r="A71" s="236"/>
+      <c r="B71" s="233"/>
+      <c r="C71" s="234"/>
       <c r="D71" s="145"/>
       <c r="E71" s="79"/>
       <c r="F71" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="142"/>
-      <c r="B72" s="143"/>
-      <c r="C72" s="79"/>
+      <c r="A72" s="236"/>
+      <c r="B72" s="233"/>
+      <c r="C72" s="234"/>
       <c r="D72" s="145"/>
       <c r="E72" s="79"/>
       <c r="F72" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="142"/>
-      <c r="B73" s="143"/>
-      <c r="C73" s="79"/>
+      <c r="A73" s="236"/>
+      <c r="B73" s="233"/>
+      <c r="C73" s="234"/>
       <c r="D73" s="145"/>
       <c r="E73" s="79"/>
       <c r="F73" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="142"/>
-      <c r="B74" s="143"/>
-      <c r="C74" s="79"/>
+      <c r="A74" s="236"/>
+      <c r="B74" s="233"/>
+      <c r="C74" s="234"/>
       <c r="D74" s="145"/>
       <c r="E74" s="79"/>
       <c r="F74" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="142"/>
-      <c r="B75" s="143"/>
-      <c r="C75" s="79"/>
+      <c r="A75" s="236"/>
+      <c r="B75" s="233"/>
+      <c r="C75" s="234"/>
       <c r="D75" s="145"/>
       <c r="E75" s="79"/>
       <c r="F75" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="142"/>
-      <c r="B76" s="143"/>
-      <c r="C76" s="79"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="233"/>
+      <c r="C76" s="234"/>
       <c r="D76" s="145"/>
       <c r="E76" s="79"/>
       <c r="F76" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="142"/>
-      <c r="B77" s="143"/>
-      <c r="C77" s="79"/>
+      <c r="A77" s="236"/>
+      <c r="B77" s="233"/>
+      <c r="C77" s="234"/>
       <c r="D77" s="145"/>
       <c r="E77" s="79"/>
       <c r="F77" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="142"/>
-      <c r="B78" s="143"/>
-      <c r="C78" s="79"/>
+      <c r="A78" s="236"/>
+      <c r="B78" s="233"/>
+      <c r="C78" s="234"/>
       <c r="D78" s="145"/>
       <c r="E78" s="79"/>
       <c r="F78" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="142"/>
-      <c r="B79" s="143"/>
-      <c r="C79" s="79"/>
+      <c r="A79" s="236"/>
+      <c r="B79" s="233"/>
+      <c r="C79" s="234"/>
       <c r="D79" s="145"/>
       <c r="E79" s="79"/>
       <c r="F79" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="142"/>
-      <c r="B80" s="143"/>
-      <c r="C80" s="79"/>
+      <c r="A80" s="236"/>
+      <c r="B80" s="233"/>
+      <c r="C80" s="234"/>
       <c r="D80" s="145"/>
       <c r="E80" s="79"/>
       <c r="F80" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="148"/>
-      <c r="B81" s="149"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="150"/>
+      <c r="A81" s="237"/>
+      <c r="B81" s="238"/>
+      <c r="C81" s="239"/>
+      <c r="D81" s="148"/>
       <c r="E81" s="83"/>
       <c r="F81" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="148"/>
-      <c r="B82" s="149"/>
-      <c r="C82" s="83"/>
-      <c r="D82" s="150"/>
+      <c r="A82" s="237"/>
+      <c r="B82" s="238"/>
+      <c r="C82" s="239"/>
+      <c r="D82" s="148"/>
       <c r="E82" s="83"/>
       <c r="F82" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="148"/>
-      <c r="B83" s="149"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="150"/>
+      <c r="A83" s="237"/>
+      <c r="B83" s="238"/>
+      <c r="C83" s="239"/>
+      <c r="D83" s="148"/>
       <c r="E83" s="83"/>
       <c r="F83" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="148"/>
-      <c r="B84" s="149"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="150"/>
+      <c r="A84" s="237"/>
+      <c r="B84" s="238"/>
+      <c r="C84" s="239"/>
+      <c r="D84" s="148"/>
       <c r="E84" s="83"/>
       <c r="F84" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="148"/>
-      <c r="B85" s="149"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="150"/>
+      <c r="A85" s="237"/>
+      <c r="B85" s="238"/>
+      <c r="C85" s="239"/>
+      <c r="D85" s="148"/>
       <c r="E85" s="83"/>
       <c r="F85" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="148"/>
-      <c r="B86" s="149"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="150"/>
+      <c r="A86" s="237"/>
+      <c r="B86" s="238"/>
+      <c r="C86" s="239"/>
+      <c r="D86" s="148"/>
       <c r="E86" s="83"/>
       <c r="F86" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="151"/>
-      <c r="B87" s="152"/>
-      <c r="C87" s="79"/>
-      <c r="D87" s="153"/>
+      <c r="A87" s="236"/>
+      <c r="B87" s="233"/>
+      <c r="C87" s="234"/>
+      <c r="D87" s="149"/>
       <c r="E87" s="79"/>
       <c r="F87" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="151"/>
-      <c r="B88" s="152"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="153"/>
+      <c r="A88" s="236"/>
+      <c r="B88" s="233"/>
+      <c r="C88" s="234"/>
+      <c r="D88" s="149"/>
       <c r="E88" s="79"/>
       <c r="F88" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="151"/>
-      <c r="B89" s="152"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="153"/>
+      <c r="A89" s="236"/>
+      <c r="B89" s="233"/>
+      <c r="C89" s="234"/>
+      <c r="D89" s="149"/>
       <c r="E89" s="79"/>
       <c r="F89" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="151"/>
-      <c r="B90" s="152"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="153"/>
+      <c r="A90" s="236"/>
+      <c r="B90" s="233"/>
+      <c r="C90" s="234"/>
+      <c r="D90" s="149"/>
       <c r="E90" s="79"/>
       <c r="F90" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="151"/>
-      <c r="B91" s="152"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="153"/>
+      <c r="A91" s="236"/>
+      <c r="B91" s="233"/>
+      <c r="C91" s="234"/>
+      <c r="D91" s="149"/>
       <c r="E91" s="79"/>
       <c r="F91" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="151"/>
-      <c r="B92" s="152"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="153"/>
+      <c r="A92" s="236"/>
+      <c r="B92" s="233"/>
+      <c r="C92" s="234"/>
+      <c r="D92" s="149"/>
       <c r="E92" s="79"/>
       <c r="F92" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="151"/>
-      <c r="B93" s="152"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="153"/>
+      <c r="A93" s="236"/>
+      <c r="B93" s="233"/>
+      <c r="C93" s="234"/>
+      <c r="D93" s="149"/>
       <c r="E93" s="79"/>
       <c r="F93" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="151"/>
-      <c r="B94" s="152"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="153"/>
+      <c r="A94" s="236"/>
+      <c r="B94" s="233"/>
+      <c r="C94" s="234"/>
+      <c r="D94" s="149"/>
       <c r="E94" s="79"/>
       <c r="F94" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="151"/>
-      <c r="B95" s="152"/>
-      <c r="C95" s="79"/>
-      <c r="D95" s="153"/>
+      <c r="A95" s="236"/>
+      <c r="B95" s="233"/>
+      <c r="C95" s="234"/>
+      <c r="D95" s="149"/>
       <c r="E95" s="79"/>
       <c r="F95" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="151"/>
-      <c r="B96" s="152"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="153"/>
+        <v>386292.37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="236"/>
+      <c r="B96" s="233"/>
+      <c r="C96" s="234"/>
+      <c r="D96" s="149"/>
       <c r="E96" s="79"/>
       <c r="F96" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="154"/>
-      <c r="B97" s="155"/>
-      <c r="C97" s="156">
-        <v>0</v>
-      </c>
-      <c r="D97" s="157"/>
-      <c r="E97" s="156"/>
+        <v>386292.37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="150"/>
+      <c r="B97" s="151"/>
+      <c r="C97" s="152">
+        <v>0</v>
+      </c>
+      <c r="D97" s="153"/>
+      <c r="E97" s="152"/>
       <c r="F97" s="146">
         <f t="shared" si="1"/>
-        <v>30024.739999999991</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+        <v>386292.37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B98" s="105"/>
       <c r="C98" s="3">
         <f>SUM(C3:C97)</f>
-        <v>600814.10999999987</v>
+        <v>1523111</v>
       </c>
       <c r="D98" s="104"/>
       <c r="E98" s="3">
         <f>SUM(E3:E97)</f>
-        <v>570789.37</v>
-      </c>
-      <c r="F98" s="158">
+        <v>1136818.6299999999</v>
+      </c>
+      <c r="F98" s="154">
         <f>F97</f>
-        <v>30024.739999999991</v>
+        <v>386292.37</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -6164,7 +6383,7 @@
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C134" s="159"/>
+      <c r="C134" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6223,160 +6442,160 @@
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="168"/>
-      <c r="B44" s="241" t="s">
+      <c r="A44" s="164"/>
+      <c r="B44" s="228" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="229"/>
+      <c r="D44" s="229"/>
+      <c r="E44" s="230"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="171">
+        <v>44439</v>
+      </c>
+      <c r="B45" s="172" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="173">
+        <v>140</v>
+      </c>
+      <c r="D45" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="242"/>
-      <c r="D44" s="242"/>
-      <c r="E44" s="243"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="175">
-        <v>44439</v>
-      </c>
-      <c r="B45" s="176" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="177">
-        <v>140</v>
-      </c>
-      <c r="D45" s="178" t="s">
+      <c r="E45" s="175" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="108">
+        <v>0</v>
+      </c>
+      <c r="G45" s="231" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="171"/>
+      <c r="B46" s="172" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="173">
+        <v>0</v>
+      </c>
+      <c r="D46" s="176" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="179" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="108">
-        <v>0</v>
-      </c>
-      <c r="G45" s="244" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="175"/>
-      <c r="B46" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="177">
-        <v>0</v>
-      </c>
-      <c r="D46" s="180" t="s">
+      <c r="F46" s="108">
+        <v>0</v>
+      </c>
+      <c r="G46" s="232"/>
+    </row>
+    <row r="47" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="171"/>
+      <c r="B47" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="179" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="108">
-        <v>0</v>
-      </c>
-      <c r="G46" s="245"/>
-    </row>
-    <row r="47" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="175"/>
-      <c r="B47" s="176" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="177">
-        <v>0</v>
-      </c>
-      <c r="D47" s="180" t="s">
+      <c r="C47" s="173">
+        <v>0</v>
+      </c>
+      <c r="D47" s="176" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="184" t="s">
-        <v>34</v>
-      </c>
       <c r="F47" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="175"/>
-      <c r="B48" s="176" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="177">
-        <v>0</v>
-      </c>
-      <c r="D48" s="180" t="s">
+      <c r="A48" s="171"/>
+      <c r="B48" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="184" t="s">
-        <v>34</v>
+      <c r="C48" s="173">
+        <v>0</v>
+      </c>
+      <c r="D48" s="176" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="180" t="s">
+        <v>33</v>
       </c>
       <c r="F48" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="169"/>
-      <c r="B49" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="171">
-        <v>0</v>
-      </c>
-      <c r="D49" s="172" t="s">
+      <c r="A49" s="165"/>
+      <c r="B49" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="184" t="s">
-        <v>34</v>
+      <c r="C49" s="167">
+        <v>0</v>
+      </c>
+      <c r="D49" s="168" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="180" t="s">
+        <v>33</v>
       </c>
       <c r="F49" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="169"/>
-      <c r="B50" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="171">
-        <v>0</v>
-      </c>
-      <c r="D50" s="172" t="s">
+      <c r="A50" s="165"/>
+      <c r="B50" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="184" t="s">
-        <v>34</v>
+      <c r="C50" s="167">
+        <v>0</v>
+      </c>
+      <c r="D50" s="168" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="180" t="s">
+        <v>33</v>
       </c>
       <c r="F50" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="169"/>
-      <c r="B51" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="171">
-        <v>0</v>
-      </c>
-      <c r="D51" s="172" t="s">
+      <c r="A51" s="165"/>
+      <c r="B51" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="184" t="s">
-        <v>34</v>
+      <c r="C51" s="167">
+        <v>0</v>
+      </c>
+      <c r="D51" s="168" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="180" t="s">
+        <v>33</v>
       </c>
       <c r="F51" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="173"/>
-      <c r="B52" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="171">
-        <v>0</v>
-      </c>
-      <c r="D52" s="174" t="s">
+      <c r="A52" s="169"/>
+      <c r="B52" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="184" t="s">
-        <v>34</v>
+      <c r="C52" s="167">
+        <v>0</v>
+      </c>
+      <c r="D52" s="170" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="180" t="s">
+        <v>33</v>
       </c>
       <c r="F52" s="108">
         <v>0</v>
